--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C27AF-B917-4097-A403-4A61D9A2ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E767E1E-583B-4573-A9DC-098532C49C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Periodo</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Fuente: Para INPC: INEGI. índice Nacional de Precios al Consumidor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Inflación, Índice Nacional de Precios al Consumidor</t>
-  </si>
-  <si>
     <t>ND</t>
   </si>
   <si>
@@ -85,15 +82,24 @@
   <si>
     <t>Nota: El Indice Nacional de Precios al Consumidor (INPC) e Inflación subyacente del INPC, Base 2da. quincena de julio 2018 = 100.</t>
   </si>
+  <si>
+    <t>Sector transportes</t>
+  </si>
+  <si>
+    <t>Sector comunicaciones</t>
+  </si>
+  <si>
+    <t>Índice Nacional de Precios al Consumidor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +126,28 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +156,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,11 +175,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -155,212 +252,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,23 +321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:J81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="Nacional" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="Carretero" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{0B969ED9-B9B4-4DA8-BFF4-BD018051E923}" name="Ferroviario" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F90C46B7-9926-4854-ACB9-19B0088E2497}" name="Aéreo" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{ECF085B3-C5CB-4DFC-B295-F3C77973A297}" name="  Servicio postal" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7D1A83DC-2D9A-4F07-932B-CE2425F8ABBC}" name="  Servicio de internet" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B328E817-D8C2-48E9-9E4A-9AEAF94078C9}" name="  Servicio de telefonia fija" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{5AE0D1CC-1D5E-4A8B-B057-B2D23AA9245C}" name="  Servicio de telefonia movil" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N84"/>
+  <dimension ref="B2:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -632,7 +565,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -662,2316 +595,2340 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
         <v>45413</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="13">
         <v>122.36</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="13">
         <v>100.6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="14">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
         <v>45383</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="15">
         <v>134.33600000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="15">
         <v>123.0447919639</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="15">
         <v>105.8761867728</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="15">
         <v>137.01147154309999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="15">
         <v>135.70240732440001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="15">
         <v>120.79900000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="15">
         <v>100.6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
         <v>45352</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="13">
         <v>134.065</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="13">
         <v>100.6</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="14">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="11">
         <v>45323</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="15">
         <v>133.68100000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="15">
         <v>122.47679316519999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="15">
         <v>105.7127382824</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="15">
         <v>135.7291557476</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="15">
         <v>134.2923932084</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="15">
         <v>119.937</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="15">
         <v>100.6</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
         <v>45292</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="13">
         <v>133.55500000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="13">
         <v>122.1009325088</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="13">
         <v>105.6310140372</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="13">
         <v>133.54719721539999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="13">
         <v>132.71302725059999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="13">
         <v>119.91500000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="13">
         <v>100.6</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="14">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
         <v>45261</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="15">
         <v>132.37299999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="15">
         <v>121.6574303613</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="15">
         <v>105.549289792</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="15">
         <v>182.3815293733</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="15">
         <v>129.82782886429999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="15">
         <v>119.91500000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="15">
         <v>99.236999999999995</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="16">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>45231</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="13">
         <v>119.861</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="14">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="11">
         <v>45200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="15">
         <v>130.60900000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="15">
         <v>120.4862973733</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="15">
         <v>105.38584130149999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="15">
         <v>145.65313447969999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="15">
         <v>130.1120315803</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="15">
         <v>118.376</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="15">
         <v>100.6</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>45170</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="13">
         <v>130.12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="13">
         <v>118.788</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="13">
         <v>100.6</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="14">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="11">
         <v>45139</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="15">
         <v>129.54499999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="15">
         <v>120.39914263439999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="15">
         <v>105.22239281109999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="15">
         <v>127.9599808845</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="15">
         <v>129.0779724994</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="15">
         <v>118.574</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="15">
         <v>100.6</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>45108</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="13">
         <v>118.285</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="13">
         <v>100.6</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="14">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="11">
         <v>45078</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="15">
         <v>128.214</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="15">
         <v>119.82760529700001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="15">
         <v>105.05894432069999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="15">
         <v>125.4398687573</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="15">
         <v>129.16292087080001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="15">
         <v>117.982</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="15">
         <v>100.6</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>45047</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="13">
         <v>128.084</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="13">
         <v>117.361</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="13">
         <v>100.6</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="14">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="11">
         <v>45017</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="15">
         <v>128.363</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="15">
         <v>119.66934975220001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="15">
         <v>104.71978870300001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="15">
         <v>111.8321814474</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="15">
         <v>129.31726497450001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="15">
         <v>117.387</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="15">
         <v>100.6</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>44986</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="13">
         <v>100.6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="14">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>44958</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="15">
         <v>128.04599999999999</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="15">
         <v>118.1916406628</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="15">
         <v>104.4868746042</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="15">
         <v>105.46410968399999</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="15">
         <v>129.12205609009999</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="15">
         <v>116.64100000000001</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="15">
         <v>100.6</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
         <v>44927</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="13">
         <v>127.336</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="13">
         <v>117.6482068262</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="13">
         <v>105.4811752151</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="13">
         <v>127.5767484142</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="13">
         <v>115.95099999999999</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="13">
         <v>100.6</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="14">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="11">
         <v>44896</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="15">
         <v>126.47799999999999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="15">
         <v>116.82049176770001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="15">
         <v>103.6972441545</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="15">
         <v>139.65915062159999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="15">
         <v>124.6968379873</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="15">
         <v>115.741</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="15">
         <v>100.6</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>44866</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="13">
         <v>125.997</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="13">
         <v>115.336</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="13">
         <v>100.6</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="14">
         <v>90.87</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="11">
         <v>44835</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="15">
         <v>125.276</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="15">
         <v>115.94924330409999</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="15">
         <v>103.2886229284</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="15">
         <v>119.8275041996</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="15">
         <v>124.65542954270001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="15">
         <v>114.956</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="15">
         <v>100.6</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
         <v>44805</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="13">
         <v>124.571</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="13">
         <v>100.6</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="14">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="11">
         <v>44774</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="15">
         <v>123.803</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="15">
         <v>115.41491664279999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="15">
         <v>103.2886229284</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="15">
         <v>116.4447289605</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="15">
         <v>125.9840309911</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="15">
         <v>115.134</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="15">
         <v>100.59</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>44743</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="13">
         <v>114.389</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="13">
         <v>100.59</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="14">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
         <v>44713</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="15">
         <v>122.044</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="15">
         <v>113.8040964162</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="15">
         <v>103.2886229284</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="15">
         <v>130.85123030770001</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="15">
         <v>125.1867510614</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="15">
         <v>113.178</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="15">
         <v>100.59</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
         <v>44682</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="13">
         <v>113.289</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="14">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="11">
         <v>44652</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="15">
         <v>120.809</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="15">
         <v>112.48503934839999</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="15">
         <v>102.4713804763</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="15">
         <v>129.87573640970001</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="15">
         <v>124.0503181081</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="15">
         <v>113.02800000000001</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="15">
         <v>100.56100000000001</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
         <v>44621</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="13">
         <v>113.009</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="14">
         <v>98.631</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
         <v>44593</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="15">
         <v>118.98099999999999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="15">
         <v>111.8467792818</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="15">
         <v>102.4713804763</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="15">
         <v>88.048379522399998</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="15">
         <v>121.76441215040001</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="15">
         <v>112.843</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="15">
         <v>100.559</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="10">
         <v>44562</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="13">
         <v>118.002</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="13">
         <v>111.4420556762</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="13">
         <v>101.66052718260001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="13">
         <v>87.919810779000002</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="13">
         <v>120.6612786609</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="13">
         <v>112.705</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I34" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J34" s="14">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="11">
         <v>44531</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="15">
         <v>117.30800000000001</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="15">
         <v>110.93061004979999</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="15">
         <v>101.6316896603</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="15">
         <v>144.0852936078</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="15">
         <v>117.87569352689999</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="15">
         <v>112.803</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="15">
         <v>100.551</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
         <v>44501</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="13">
         <v>116.884</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="13">
         <v>100.54</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J36" s="14">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="11">
         <v>44470</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="15">
         <v>115.56100000000001</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="15">
         <v>109.85587154930001</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="15">
         <v>101.6316896603</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="15">
         <v>107.4801111049</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="15">
         <v>117.2036471113</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="15">
         <v>112.779</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="15">
         <v>100.54</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
         <v>44440</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="13">
         <v>114.601</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="13">
         <v>111.345</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I38" s="13">
         <v>100.523</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J38" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="11">
         <v>44409</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="15">
         <v>113.899</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="15">
         <v>109.6876007529</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="15">
         <v>101.6316896603</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="15">
         <v>103.9626342001</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="15">
         <v>116.7589504195</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="15">
         <v>111.09399999999999</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I39" s="15">
         <v>100.521</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J39" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
         <v>44378</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C40" s="13">
         <v>113.682</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H40" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="13">
         <v>100.512</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J40" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="11">
         <v>44348</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C41" s="15">
         <v>113.018</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="15">
         <v>109.3611515443</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="15">
         <v>101.6316896603</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="15">
         <v>127.6488519838</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="15">
         <v>115.5054112312</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="15">
         <v>110.64700000000001</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="15">
         <v>100.503</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J41" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
         <v>44317</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="13">
         <v>112.419</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="13">
         <v>110.613</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="13">
         <v>100.504</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J42" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="11">
         <v>44287</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="15">
         <v>112.19</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="15">
         <v>109.1238791816</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="15">
         <v>101.2984364707</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="15">
         <v>92.423514952199994</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="15">
         <v>114.6136060937</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="15">
         <v>110.613</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="15">
         <v>100.47</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
         <v>44256</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C44" s="13">
         <v>111.824</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H44" s="13">
         <v>110.506</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I44" s="13">
         <v>100.4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J44" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="11">
         <v>44228</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="15">
         <v>110.907</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="15">
         <v>108.80131973269999</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="15">
         <v>101.0405414316</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="15">
         <v>72.629830018600003</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="15">
         <v>113.823854883</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="15">
         <v>110.19499999999999</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="15">
         <v>100.36</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="10">
         <v>44197</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="13">
         <v>110.21</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="13">
         <v>108.91289704650001</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="13">
         <v>69.379568991200003</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="13">
         <v>112.46996162710001</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H46" s="13">
         <v>110.208</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="13">
         <v>100.355</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J46" s="14">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="11">
         <v>44166</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="15">
         <v>109.271</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="15">
         <v>108.6477332931</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="15">
         <v>88.425353764299999</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="15">
         <v>110.0805693728</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H47" s="15">
         <v>110.01600000000001</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="15">
         <v>100.30500000000001</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J47" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
         <v>44136</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J48" s="14">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="11">
         <v>44105</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="15">
         <v>108.774</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="15">
         <v>108.5602695565</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="15">
         <v>92.871387775499997</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="15">
         <v>108.9954622659</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="15">
         <v>109.27500000000001</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="15">
         <v>100.31</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
         <v>44075</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50" s="13">
         <v>108.114</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="13">
         <v>107.221</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="13">
         <v>100.31</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J50" s="14">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="11">
         <v>44044</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="15">
         <v>107.867</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="15">
         <v>108.2641243905</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="15">
         <v>84.0993629062</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="15">
         <v>108.6866229954</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H51" s="15">
         <v>104.646</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="15">
         <v>100.32599999999999</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J51" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
         <v>44013</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="13">
         <v>107.444</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H52" s="13">
         <v>103.541</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I52" s="13">
         <v>100.34</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J52" s="14">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="11">
         <v>43983</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="15">
         <v>106.74299999999999</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="15">
         <v>108.1151913336</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="15">
         <v>84.228004732399995</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="15">
         <v>108.5274450755</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="15">
         <v>103.54300000000001</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="15">
         <v>100.34</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
         <v>43952</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="13">
         <v>103.61</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="13">
         <v>100.34</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="11">
         <v>43922</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C55" s="15">
         <v>105.755</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="15">
         <v>107.4875171243</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="15">
         <v>76.507181751999994</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="15">
         <v>109.6777595691</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="15">
         <v>103.61</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="15">
         <v>100.34</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J55" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
         <v>43891</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C56" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="13">
         <v>103.661</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="13">
         <v>100.34</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J56" s="14">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="11">
         <v>43862</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="15">
         <v>106.889</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="15">
         <v>107.2442089382</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="15">
         <v>82.836861846299996</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="15">
         <v>107.4631074917</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="15">
         <v>103.661</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="15">
         <v>100.34099999999999</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J57" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="10">
         <v>43831</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C58" s="13">
         <v>106.447</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="13">
         <v>107.11553304500001</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="13">
         <v>86.778005823699999</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="13">
         <v>106.9248328514</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H58" s="13">
         <v>103.367</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I58" s="13">
         <v>100.339</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J58" s="14">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="11">
         <v>43800</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C59" s="15">
         <v>105.934</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="15">
         <v>106.0505331862</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="15">
         <v>127.36462816709999</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="15">
         <v>104.9942430431</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="15">
         <v>102.95099999999999</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I59" s="15">
         <v>100.331</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J59" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
         <v>43770</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C60" s="13">
         <v>105.346</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H60" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I60" s="13">
         <v>100.324</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J60" s="14">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="11">
         <v>43739</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C61" s="15">
         <v>104.503</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D61" s="15">
         <v>105.1002407181</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="15">
         <v>88.301013724200004</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="15">
         <v>104.50205451870001</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="15">
         <v>102.90300000000001</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I61" s="15">
         <v>100.29600000000001</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J61" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
         <v>43709</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C62" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H62" s="13">
         <v>102.654</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I62" s="13">
         <v>100.29</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J62" s="14">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="11">
         <v>43678</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C63" s="15">
         <v>103.67</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D63" s="15">
         <v>104.5187172775</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="15">
         <v>101.0405414315</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="15">
         <v>92.899994051799993</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G63" s="15">
         <v>104.285820413</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H63" s="15">
         <v>102.604</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I63" s="15">
         <v>100.274</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J63" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
         <v>43647</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C64" s="13">
         <v>103.687</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D64" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F64" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G64" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H64" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I64" s="13">
         <v>100.196</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J64" s="14">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="11">
         <v>43617</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C65" s="15">
         <v>103.29900000000001</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="15">
         <v>103.4436474945</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="15">
         <v>100.6191914481</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="15">
         <v>107.6048597489</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="15">
         <v>104.7408219759</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="15">
         <v>101.68300000000001</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I65" s="15">
         <v>100.119</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
         <v>43586</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C66" s="13">
         <v>103.233</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H66" s="13">
         <v>101.509</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I66" s="13">
         <v>100.119</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J66" s="14">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="11">
         <v>43556</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C67" s="15">
         <v>103.53100000000001</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="15">
         <v>103.10258831190001</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="15">
         <v>100.6191914481</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="15">
         <v>96.879318888</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="15">
         <v>104.9491652918</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="15">
         <v>101.459</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I67" s="15">
         <v>100.119</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J67" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
         <v>43525</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C68" s="13">
         <v>103.476</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="13">
         <v>100</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G68" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H68" s="13">
         <v>101.166</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I68" s="13">
         <v>100.098</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J68" s="14">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="11">
         <v>43497</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C69" s="15">
         <v>103.07899999999999</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="15">
         <v>102.5321554705</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="15">
         <v>100</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="15">
         <v>76.553159667299994</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G69" s="15">
         <v>103.8610611723</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H69" s="15">
         <v>100.72499999999999</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I69" s="15">
         <v>100.081</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J69" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
         <v>43466</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C70" s="13">
         <v>103.108</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="13">
         <v>102.47200356979999</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="13">
         <v>100</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="13">
         <v>78.7293169334</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="13">
         <v>102.4734794414</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H70" s="13">
         <v>100.42</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I70" s="13">
         <v>100.036</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J70" s="14">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="11">
         <v>43435</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="15">
         <v>103.02</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="15">
         <v>101.4882812159</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="15">
         <v>100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="15">
         <v>116.2152458092</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="15">
         <v>101.1447321365</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="15">
         <v>100.56100000000001</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I71" s="15">
         <v>100.03400000000001</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J71" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
         <v>43405</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C72" s="13">
         <v>102.303</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="13">
         <v>100</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I72" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J72" s="14">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="11">
         <v>43374</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C73" s="15">
         <v>101.44</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="15">
         <v>100.78655579709999</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="15">
         <v>100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="15">
         <v>85.369691303899998</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="15">
         <v>100.05389573230001</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H73" s="15">
         <v>100.52500000000001</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I73" s="15">
         <v>100.021</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>43344</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C74" s="13">
         <v>100.917</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="13">
         <v>100</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H74" s="13">
         <v>100.126</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I74" s="13">
         <v>100</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J74" s="14">
         <v>99.77</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="11">
         <v>43313</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C75" s="15">
         <v>100.492</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D75" s="15">
         <v>100.22727446899999</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E75" s="15">
         <v>100</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F75" s="15">
         <v>79.518260205800004</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G75" s="15">
         <v>99.844190958599995</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H75" s="15">
         <v>100.05200000000001</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I75" s="15">
         <v>100</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J75" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>43282</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C76" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="13">
         <v>100</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F76" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+      <c r="G76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="11">
         <v>43252</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C77" s="15">
         <v>99.376464931786998</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="15">
         <v>99.990951002754002</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="15">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="15">
         <v>99.195118819963994</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+      <c r="G77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>43221</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="13">
         <v>100</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+      <c r="G78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="11">
         <v>43191</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C79" s="15">
         <v>99.154847046097004</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="15">
         <v>99.833850058503003</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="15">
         <v>100</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="15">
         <v>74.377335587917997</v>
       </c>
-      <c r="G78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+      <c r="G79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>43160</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C80" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
+      <c r="G80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="11">
         <v>43132</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C81" s="15">
         <v>99.171374481640001</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="15">
         <v>99.404629920302</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="15">
         <v>99.775409784431005</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="15">
         <v>79.172819495607996</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="5">
+      <c r="G81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="12">
         <v>43101</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C82" s="17">
         <v>98.794999699501005</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="17">
         <v>99.150938662095996</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="17">
         <v>99.775409784431005</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="17">
         <v>72.042283790854</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="I82" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J82" s="12"/>
+      <c r="G82" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="I83" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J83" s="12"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
+  <mergeCells count="6">
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E767E1E-583B-4573-A9DC-098532C49C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16320307-7016-4F49-8AD5-D9311CEF980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -167,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,35 +185,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -239,12 +210,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -261,56 +291,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -321,6 +452,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:J82" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:J82" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{720447B7-75FD-4DD7-AE96-2FCF9108987A}" name="Periodo" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8A94DAF-1B73-4262-AC9A-68061C6F675A}" name="Nacional" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6E787C63-6FCF-4F5A-B64F-FBE9B85B3B91}" name="Carretero" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7CF778C3-08D7-40FA-9409-8CCC64224A14}" name="Ferroviario" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{075FC94A-D3B9-4143-B5AD-7BBC7436111A}" name="Aéreo" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{7A964F85-01ED-469B-81EB-7179C0DB6A3B}" name="  Servicio postal" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B076A896-5DE4-4BFB-A984-1DD8D599F73C}" name="  Servicio de internet" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{FF04FCC8-8CEC-41B1-A345-9A896ABAE0EE}" name="  Servicio de telefonia fija" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2C6C623D-DA34-44EB-9389-5625E7B18E94}" name="  Servicio de telefonia movil" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +711,10 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="10" width="15.19921875" customWidth="1"/>
+    <col min="3" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="22.3984375" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
@@ -596,58 +754,58 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="19">
         <v>45413</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="6">
         <v>134.08699999999999</v>
       </c>
       <c r="D6" s="13">
@@ -668,128 +826,128 @@
       <c r="I6" s="13">
         <v>100.6</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
+      <c r="B7" s="20">
         <v>45383</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>134.33600000000001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>123.0447919639</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>105.8761867728</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>137.01147154309999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>135.70240732440001</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>120.79900000000001</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>100.6</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>89.114000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="19">
         <v>45352</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="6">
         <v>134.065</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="6">
         <v>122.89707405510001</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <v>105.7944625276</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <v>174.2144001913</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>134.95018121690001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="6">
         <v>120.56100000000001</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="6">
         <v>100.6</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="6">
         <v>89.114000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="11">
+      <c r="B9" s="20">
         <v>45323</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>133.68100000000001</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>122.47679316519999</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>105.7127382824</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>135.7291557476</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>134.2923932084</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>119.937</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>100.6</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>89.114000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+      <c r="B10" s="21">
         <v>45292</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>133.55500000000001</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="8">
         <v>122.1009325088</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>105.6310140372</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>133.54719721539999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>132.71302725059999</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <v>119.91500000000001</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>100.6</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="8">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="22">
         <v>45261</v>
       </c>
       <c r="C11" s="15">
@@ -813,331 +971,331 @@
       <c r="I11" s="15">
         <v>99.236999999999995</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
         <v>45231</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="6">
         <v>131.44499999999999</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="6">
         <v>120.8160445282</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="6">
         <v>105.4675655467</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="6">
         <v>157.47167143870001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="6">
         <v>130.18555967200001</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="6">
         <v>119.861</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="6">
         <v>99.236999999999995</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="6">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="11">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
         <v>45200</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>130.60900000000001</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>120.4862973733</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>105.38584130149999</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>145.65313447969999</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>130.1120315803</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>118.376</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>100.6</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19">
         <v>45170</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="6">
         <v>130.12</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="6">
         <v>120.4973605119</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="6">
         <v>105.3041170563</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="6">
         <v>128.47314640139999</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="6">
         <v>129.75090098219999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="6">
         <v>118.788</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="6">
         <v>100.6</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="6">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
         <v>45139</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>129.54499999999999</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>120.39914263439999</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>105.22239281109999</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>127.9599808845</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>129.0779724994</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>118.574</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>100.6</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="14">
         <v>89.128</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19">
         <v>45108</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="6">
         <v>128.83199999999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <v>120.08299225419999</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="6">
         <v>105.1406685659</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="6">
         <v>146.74874433080001</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="6">
         <v>129.31384858050001</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="6">
         <v>118.285</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="6">
         <v>100.6</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="6">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="11">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
         <v>45078</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>128.214</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>119.82760529700001</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>105.05894432069999</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>125.4398687573</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>129.16292087080001</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>117.982</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>100.6</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19">
         <v>45047</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="6">
         <v>128.084</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="6">
         <v>119.8233656324</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="6">
         <v>104.89549583020001</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="6">
         <v>117.17254640749999</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="6">
         <v>128.9614286716</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="6">
         <v>117.361</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="6">
         <v>100.6</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="6">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="11">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
         <v>45017</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>128.363</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>119.66934975220001</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>104.71978870300001</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>111.8321814474</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>129.31726497450001</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>117.387</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <v>100.6</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19">
         <v>44986</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="6">
         <v>128.38900000000001</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="6">
         <v>118.9558148927</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="6">
         <v>104.4868746042</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="6">
         <v>132.87275808659999</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="6">
         <v>129.457527414</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="6">
         <v>117.16200000000001</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="6">
         <v>100.6</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="6">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="11">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="20">
         <v>44958</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>128.04599999999999</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>118.1916406628</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>104.4868746042</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>105.46410968399999</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>129.12205609009999</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>116.64100000000001</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>100.6</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="21">
         <v>44927</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="8">
         <v>127.336</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <v>117.6482068262</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>103.6972441545</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="8">
         <v>105.4811752151</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="8">
         <v>127.5767484142</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>115.95099999999999</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="8">
         <v>100.6</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="8">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="11">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22">
         <v>44896</v>
       </c>
       <c r="C23" s="15">
@@ -1161,331 +1319,331 @@
       <c r="I23" s="15">
         <v>100.6</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>90.87</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19">
         <v>44866</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="6">
         <v>125.997</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="6">
         <v>116.0450620779</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="6">
         <v>103.6972441545</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="6">
         <v>132.31738618719999</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="6">
         <v>124.54272655050001</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="6">
         <v>115.336</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="6">
         <v>100.6</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="6">
         <v>90.87</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="11">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="20">
         <v>44835</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>125.276</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>115.94924330409999</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>103.2886229284</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>119.8275041996</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>124.65542954270001</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>114.956</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <v>100.6</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="14">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="19">
         <v>44805</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="6">
         <v>124.571</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="6">
         <v>115.74943222349999</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="6">
         <v>103.2886229284</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="6">
         <v>117.1841235999</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="6">
         <v>124.1308784126</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>115.31699999999999</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="6">
         <v>100.6</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="6">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
         <v>44774</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>123.803</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>115.41491664279999</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>103.2886229284</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>116.4447289605</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>125.9840309911</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>115.134</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <v>100.59</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="14">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="19">
         <v>44743</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="6">
         <v>122.94799999999999</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="6">
         <v>114.87544210910001</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="6">
         <v>103.2886229284</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="6">
         <v>137.69700215349999</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="6">
         <v>125.36702750089999</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="6">
         <v>114.389</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="6">
         <v>100.59</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="6">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="11">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20">
         <v>44713</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>122.044</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>113.8040964162</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>103.2886229284</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>130.85123030770001</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>125.1867510614</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>113.178</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <v>100.59</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="14">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="19">
         <v>44682</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="6">
         <v>121.02200000000001</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="6">
         <v>112.7183662006</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="6">
         <v>102.4713804763</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="6">
         <v>126.41473992429999</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="6">
         <v>124.83942508449999</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="6">
         <v>113.289</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="6">
         <v>100.56100000000001</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="6">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="11">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20">
         <v>44652</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>120.809</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>112.48503934839999</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>102.4713804763</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>129.87573640970001</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>124.0503181081</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>113.02800000000001</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <v>100.56100000000001</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19">
         <v>44621</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="6">
         <v>120.15900000000001</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="6">
         <v>111.97977889560001</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="6">
         <v>102.4713804763</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="6">
         <v>124.7535276317</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="6">
         <v>122.8708474534</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="6">
         <v>113.009</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="6">
         <v>100.56100000000001</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="6">
         <v>98.631</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="11">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="20">
         <v>44593</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>118.98099999999999</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>111.8467792818</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>102.4713804763</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>88.048379522399998</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>121.76441215040001</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>112.843</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <v>100.559</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="14">
         <v>98.631</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="21">
         <v>44562</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="8">
         <v>118.002</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="8">
         <v>111.4420556762</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <v>101.66052718260001</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="8">
         <v>87.919810779000002</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="8">
         <v>120.6612786609</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="8">
         <v>112.705</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="8">
         <v>100.56100000000001</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="8">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="11">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="22">
         <v>44531</v>
       </c>
       <c r="C35" s="15">
@@ -1509,331 +1667,331 @@
       <c r="I35" s="15">
         <v>100.551</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="19">
         <v>44501</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="6">
         <v>116.884</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="6">
         <v>110.2167299347</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="6">
         <v>117.87173141300001</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="6">
         <v>117.71918006520001</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="6">
         <v>112.76300000000001</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="6">
         <v>100.54</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="6">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="11">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20">
         <v>44470</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>115.56100000000001</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>109.85587154930001</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="14">
         <v>101.6316896603</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="14">
         <v>107.4801111049</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>117.2036471113</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>112.779</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <v>100.54</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="38" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="19">
         <v>44440</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="6">
         <v>114.601</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="6">
         <v>109.7934030607</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="6">
         <v>97.468339390300002</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="6">
         <v>116.90260252749999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="6">
         <v>111.345</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="6">
         <v>100.523</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="11">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20">
         <v>44409</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>113.899</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>109.6876007529</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>101.6316896603</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>103.9626342001</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>116.7589504195</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>111.09399999999999</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <v>100.521</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="19">
         <v>44378</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="6">
         <v>113.682</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="6">
         <v>109.5082396111</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="6">
         <v>127.1166300499</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="6">
         <v>116.0583573286</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="6">
         <v>110.85299999999999</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="6">
         <v>100.512</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="11">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20">
         <v>44348</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>113.018</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>109.3611515443</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>101.6316896603</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>127.6488519838</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>115.5054112312</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>110.64700000000001</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <v>100.503</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="19">
         <v>44317</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="6">
         <v>112.419</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="6">
         <v>109.1398981391</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="6">
         <v>110.9052383991</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="6">
         <v>115.24268739839999</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="6">
         <v>110.613</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="6">
         <v>100.504</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="11">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20">
         <v>44287</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>112.19</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>109.1238791816</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>101.2984364707</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>92.423514952199994</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>114.6136060937</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>110.613</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <v>100.47</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="19">
         <v>44256</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="6">
         <v>111.824</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="6">
         <v>108.98594320479999</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="6">
         <v>101.0405414316</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="6">
         <v>88.697327708700001</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="6">
         <v>114.5144639519</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="6">
         <v>110.506</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="6">
         <v>100.4</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="11">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20">
         <v>44228</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>110.907</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>108.80131973269999</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>101.0405414316</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <v>72.629830018600003</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>113.823854883</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>110.19499999999999</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <v>100.36</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="21">
         <v>44197</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="8">
         <v>110.21</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="8">
         <v>108.91289704650001</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="8">
         <v>101.0405414315</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="8">
         <v>69.379568991200003</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="8">
         <v>112.46996162710001</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="8">
         <v>110.208</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="8">
         <v>100.355</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="8">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="11">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="22">
         <v>44166</v>
       </c>
       <c r="C47" s="15">
@@ -1857,331 +2015,331 @@
       <c r="I47" s="15">
         <v>100.30500000000001</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="15">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="19">
         <v>44136</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="6">
         <v>108.85599999999999</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="6">
         <v>108.5064270149</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="6">
         <v>87.498687502999999</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="6">
         <v>109.622766778</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="6">
         <v>109.91800000000001</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="6">
         <v>100.30800000000001</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="6">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="11">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20">
         <v>44105</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>108.774</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>108.5602695565</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="14">
         <v>92.871387775499997</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>108.9954622659</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>109.27500000000001</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="14">
         <v>100.31</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="14">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="19">
         <v>44075</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="6">
         <v>108.114</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="6">
         <v>108.5110595398</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="6">
         <v>84.546898124199998</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="6">
         <v>108.8201840744</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="6">
         <v>107.221</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="6">
         <v>100.31</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="6">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="11">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20">
         <v>44044</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>107.867</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>108.2641243905</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <v>84.0993629062</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>108.6866229954</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>104.646</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <v>100.32599999999999</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="14">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="19">
         <v>44013</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="6">
         <v>107.444</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="6">
         <v>108.2290316098</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="6">
         <v>83.373654861600002</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="6">
         <v>108.8298342292</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="6">
         <v>103.541</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="6">
         <v>100.34</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="6">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="11">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20">
         <v>43983</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>106.74299999999999</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>108.1151913336</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>84.228004732399995</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>108.5274450755</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>103.54300000000001</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <v>100.34</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="19">
         <v>43952</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="6">
         <v>106.16200000000001</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="6">
         <v>108.1896853977</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="6">
         <v>82.231994422100001</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="6">
         <v>109.31474425979999</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="6">
         <v>103.61</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="6">
         <v>100.34</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="11">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20">
         <v>43922</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>105.755</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>107.4875171243</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <v>76.507181751999994</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>109.6777595691</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>103.61</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="14">
         <v>100.34</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="14">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="19">
         <v>43891</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="6">
         <v>106.83799999999999</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="6">
         <v>107.5306793508</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="6">
         <v>80.8593909067</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="6">
         <v>108.703723247</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="6">
         <v>103.661</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="6">
         <v>100.34</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="6">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="11">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20">
         <v>43862</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>106.889</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>107.2442089382</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <v>82.836861846299996</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>107.4631074917</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>103.661</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <v>100.34099999999999</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="14">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="21">
         <v>43831</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="8">
         <v>106.447</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="8">
         <v>107.11553304500001</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="8">
         <v>101.0405414315</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="8">
         <v>86.778005823699999</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="8">
         <v>106.9248328514</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="8">
         <v>103.367</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="8">
         <v>100.339</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="8">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="11">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="22">
         <v>43800</v>
       </c>
       <c r="C59" s="15">
@@ -2205,674 +2363,674 @@
       <c r="I59" s="15">
         <v>100.331</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <v>98.78</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="19">
         <v>43770</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="6">
         <v>105.346</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="6">
         <v>105.65671461060001</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="6">
         <v>101.0973028073</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="6">
         <v>104.4576847797</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="6">
         <v>102.90300000000001</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="6">
         <v>100.324</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="6">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="11">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20">
         <v>43739</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>104.503</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>105.1002407181</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="14">
         <v>88.301013724200004</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>104.50205451870001</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="14">
         <v>102.90300000000001</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <v>100.29600000000001</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="14">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="19">
         <v>43709</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="6">
         <v>103.94199999999999</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="6">
         <v>104.6074519548</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="6">
         <v>88.107262410499999</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="6">
         <v>104.3079456359</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="6">
         <v>102.654</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="6">
         <v>100.29</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="6">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="11">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="20">
         <v>43678</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>103.67</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>104.5187172775</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>101.0405414315</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="14">
         <v>92.899994051799993</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>104.285820413</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <v>102.604</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <v>100.274</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="14">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="19">
         <v>43647</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="6">
         <v>103.687</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="6">
         <v>103.9281222685</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="6">
         <v>100.6849220455</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="6">
         <v>115.8409110419</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="6">
         <v>104.2691868668</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="6">
         <v>102.57599999999999</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="6">
         <v>100.196</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="6">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="11">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20">
         <v>43617</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>103.29900000000001</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>103.4436474945</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="14">
         <v>100.6191914481</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="14">
         <v>107.6048597489</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <v>104.7408219759</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="14">
         <v>101.68300000000001</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="14">
         <v>100.119</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="14">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="19">
         <v>43586</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="6">
         <v>103.233</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="6">
         <v>103.33167816460001</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="6">
         <v>100.6191914481</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="6">
         <v>86.898257620999999</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="6">
         <v>105.3054014635</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="6">
         <v>101.509</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="6">
         <v>100.119</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="6">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="11">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
         <v>43556</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>103.53100000000001</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>103.10258831190001</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="14">
         <v>100.6191914481</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="14">
         <v>96.879318888</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="14">
         <v>104.9491652918</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>101.459</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="14">
         <v>100.119</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="14">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="19">
         <v>43525</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="6">
         <v>103.476</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="6">
         <v>102.69294294469999</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="6">
         <v>100</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="6">
         <v>81.499577131300001</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="6">
         <v>104.44624704749999</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="6">
         <v>101.166</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="6">
         <v>100.098</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="6">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="11">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20">
         <v>43497</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>103.07899999999999</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>102.5321554705</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>100</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="14">
         <v>76.553159667299994</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="14">
         <v>103.8610611723</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="14">
         <v>100.72499999999999</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="14">
         <v>100.081</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="14">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="21">
         <v>43466</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="8">
         <v>103.108</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="8">
         <v>102.47200356979999</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="8">
         <v>100</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="8">
         <v>78.7293169334</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="8">
         <v>102.4734794414</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="8">
         <v>100.42</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="8">
         <v>100.036</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="8">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="11">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
         <v>43435</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="7">
         <v>103.02</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="7">
         <v>101.4882812159</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="7">
         <v>100</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="7">
         <v>116.2152458092</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="7">
         <v>101.1447321365</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="7">
         <v>100.56100000000001</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="7">
         <v>100.03400000000001</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="14">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="19">
         <v>43405</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="6">
         <v>102.303</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="6">
         <v>100.90290467379999</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="6">
         <v>100</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="6">
         <v>87.221876645500004</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="6">
         <v>101.16638118420001</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="6">
         <v>100.56100000000001</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="6">
         <v>100.03400000000001</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="6">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="11">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="20">
         <v>43374</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="7">
         <v>101.44</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="7">
         <v>100.78655579709999</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="7">
         <v>100</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="7">
         <v>85.369691303899998</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="7">
         <v>100.05389573230001</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="7">
         <v>100.52500000000001</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="7">
         <v>100.021</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="14">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="19">
         <v>43344</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="6">
         <v>100.917</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="6">
         <v>100.4677127848</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="6">
         <v>100</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="6">
         <v>75.626050242900007</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="6">
         <v>100.0190239563</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="6">
         <v>100.126</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="6">
         <v>100</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="6">
         <v>99.77</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="11">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="20">
         <v>43313</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="7">
         <v>100.492</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="7">
         <v>100.22727446899999</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="7">
         <v>100</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="7">
         <v>79.518260205800004</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="7">
         <v>99.844190958599995</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="7">
         <v>100.05200000000001</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="7">
         <v>100</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="14">
         <v>99.83</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="19">
         <v>43282</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="6">
         <v>99.909099104513999</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="6">
         <v>99.998359331854999</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="6">
         <v>100</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="6">
         <v>101.704654973457</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="11">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="20">
         <v>43252</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="7">
         <v>99.376464931786998</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="7">
         <v>99.990951002754002</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="7">
         <v>100</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="7">
         <v>99.195118819963994</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="20" t="s">
+      <c r="H77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="21" t="s">
+      <c r="J77" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="19">
         <v>43221</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="6">
         <v>98.994080173086999</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="6">
         <v>99.984814220586003</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="6">
         <v>100</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="6">
         <v>90.757329060767006</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="J78" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="11">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="20">
         <v>43191</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="7">
         <v>99.154847046097004</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="7">
         <v>99.833850058503003</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="7">
         <v>100</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="7">
         <v>74.377335587917997</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="20" t="s">
+      <c r="H79" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J79" s="21" t="s">
+      <c r="J79" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="19">
         <v>43160</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="6">
         <v>99.492156980588007</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="6">
         <v>99.599241644515999</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="6">
         <v>99.775409784431005</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="6">
         <v>86.603489152118996</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="19" t="s">
+      <c r="J80" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="11">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="20">
         <v>43132</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="7">
         <v>99.171374481640001</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="7">
         <v>99.404629920302</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="7">
         <v>99.775409784431005</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="7">
         <v>79.172819495607996</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="21" t="s">
+      <c r="J81" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="19">
         <v>43101</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="6">
         <v>98.794999699501005</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="6">
         <v>99.150938662095996</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="6">
         <v>99.775409784431005</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="6">
         <v>72.042283790854</v>
       </c>
-      <c r="G82" s="22" t="s">
+      <c r="G82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="22" t="s">
+      <c r="I82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="J82" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2885,6 +3043,9 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
+      <c r="J83" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
@@ -2895,6 +3056,9 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
+      <c r="J84" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
@@ -2907,28 +3071,21 @@
       <c r="G85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I86" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="86" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I87" s="5" t="s">
-        <v>2</v>
-      </c>
+    <row r="87" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
+  <mergeCells count="2">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13B8AAF-6057-4DDB-AAC8-EC88957AE5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D88103B-EC5A-4E02-8B3B-357DEB7BDBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>ND</t>
-  </si>
-  <si>
-    <t>ND No disponible</t>
   </si>
   <si>
     <t>Sector transportes</t>
@@ -91,6 +88,48 @@
   <si>
     <t>Actualización: agosto 2024.</t>
   </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>ND No disponible.</t>
+  </si>
+  <si>
+    <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +184,10 @@
       <color theme="0"/>
       <name val="Montserrat"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="4">
@@ -274,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,22 +360,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,18 +422,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -406,6 +443,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -456,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K85" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K85" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="B5:K85" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
@@ -706,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -727,7 +771,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -744,7 +788,9 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="B3" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -763,17 +809,17 @@
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -781,10 +827,10 @@
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>0</v>
@@ -805,50 +851,50 @@
         <v>5</v>
       </c>
       <c r="J5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="16">
-        <v>8</v>
+      <c r="C6" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>136.01300000000001</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="17">
+      <c r="B7" s="21">
         <v>2024</v>
       </c>
-      <c r="C7" s="17">
-        <v>7</v>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="7">
         <v>136.00299999999999</v>
@@ -876,11 +922,11 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
+      <c r="B8" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="16">
-        <v>6</v>
+      <c r="C8" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="6">
         <v>134.59399999999999</v>
@@ -908,11 +954,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="17">
+      <c r="B9" s="21">
         <v>2024</v>
       </c>
-      <c r="C9" s="17">
-        <v>5</v>
+      <c r="C9" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="7">
         <v>134.08699999999999</v>
@@ -940,11 +986,11 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="16">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="16">
-        <v>4</v>
+      <c r="C10" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>134.33600000000001</v>
@@ -972,11 +1018,11 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="17">
+      <c r="B11" s="21">
         <v>2024</v>
       </c>
-      <c r="C11" s="17">
-        <v>3</v>
+      <c r="C11" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="7">
         <v>134.065</v>
@@ -1004,11 +1050,11 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="16">
+      <c r="B12" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="16">
-        <v>2</v>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>133.68100000000001</v>
@@ -1036,43 +1082,43 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+      <c r="B13" s="22">
         <v>2024</v>
       </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18">
         <v>133.55500000000001</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>122.1009325088</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>105.6310140372</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>133.54719721539999</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>132.71302725059999</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>119.91500000000001</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <v>100.6</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="18">
         <v>89.093999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+      <c r="B14" s="20">
         <v>2023</v>
       </c>
-      <c r="C14" s="16">
-        <v>12</v>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="6">
         <v>132.37299999999999</v>
@@ -1100,11 +1146,11 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="17">
+      <c r="B15" s="21">
         <v>2023</v>
       </c>
-      <c r="C15" s="17">
-        <v>11</v>
+      <c r="C15" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="7">
         <v>131.44499999999999</v>
@@ -1132,11 +1178,11 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="16">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="16">
-        <v>10</v>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <v>130.60900000000001</v>
@@ -1164,11 +1210,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="17">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="17">
-        <v>9</v>
+      <c r="C17" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="7">
         <v>130.12</v>
@@ -1196,11 +1242,11 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="16">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="16">
-        <v>8</v>
+      <c r="C18" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="6">
         <v>129.54499999999999</v>
@@ -1228,11 +1274,11 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="17">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C19" s="17">
-        <v>7</v>
+      <c r="C19" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="7">
         <v>128.83199999999999</v>
@@ -1260,11 +1306,11 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="16">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="16">
-        <v>6</v>
+      <c r="C20" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="6">
         <v>128.214</v>
@@ -1292,11 +1338,11 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="17">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C21" s="17">
-        <v>5</v>
+      <c r="C21" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="7">
         <v>128.084</v>
@@ -1324,11 +1370,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="16">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="16">
-        <v>4</v>
+      <c r="C22" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="6">
         <v>128.363</v>
@@ -1356,11 +1402,11 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="17">
+      <c r="B23" s="21">
         <v>2023</v>
       </c>
-      <c r="C23" s="17">
-        <v>3</v>
+      <c r="C23" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="7">
         <v>128.38900000000001</v>
@@ -1388,11 +1434,11 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="16">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="16">
-        <v>2</v>
+      <c r="C24" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="6">
         <v>128.04599999999999</v>
@@ -1420,43 +1466,43 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="20">
+      <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="C25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18">
         <v>127.336</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>117.6482068262</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="18">
         <v>103.6972441545</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <v>105.4811752151</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="18">
         <v>127.5767484142</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>115.95099999999999</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="18">
         <v>100.6</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="18">
         <v>90.105999999999995</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+      <c r="B26" s="20">
         <v>2022</v>
       </c>
-      <c r="C26" s="16">
-        <v>12</v>
+      <c r="C26" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="6">
         <v>126.47799999999999</v>
@@ -1484,11 +1530,11 @@
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="17">
+      <c r="B27" s="21">
         <v>2022</v>
       </c>
-      <c r="C27" s="17">
-        <v>11</v>
+      <c r="C27" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="7">
         <v>125.997</v>
@@ -1516,11 +1562,11 @@
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="16">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="16">
-        <v>10</v>
+      <c r="C28" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="6">
         <v>125.276</v>
@@ -1548,11 +1594,11 @@
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="17">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="17">
-        <v>9</v>
+      <c r="C29" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="7">
         <v>124.571</v>
@@ -1580,11 +1626,11 @@
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="16">
-        <v>8</v>
+      <c r="C30" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="6">
         <v>123.803</v>
@@ -1612,11 +1658,11 @@
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="17">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C31" s="17">
-        <v>7</v>
+      <c r="C31" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="7">
         <v>122.94799999999999</v>
@@ -1644,11 +1690,11 @@
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="16">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="16">
-        <v>6</v>
+      <c r="C32" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="6">
         <v>122.044</v>
@@ -1676,11 +1722,11 @@
       </c>
     </row>
     <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="17">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C33" s="17">
-        <v>5</v>
+      <c r="C33" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="7">
         <v>121.02200000000001</v>
@@ -1708,11 +1754,11 @@
       </c>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="16">
-        <v>4</v>
+      <c r="C34" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="6">
         <v>120.809</v>
@@ -1740,11 +1786,11 @@
       </c>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="17">
+      <c r="B35" s="21">
         <v>2022</v>
       </c>
-      <c r="C35" s="17">
-        <v>3</v>
+      <c r="C35" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="7">
         <v>120.15900000000001</v>
@@ -1772,11 +1818,11 @@
       </c>
     </row>
     <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="16">
-        <v>2</v>
+      <c r="C36" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="6">
         <v>118.98099999999999</v>
@@ -1804,43 +1850,43 @@
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20">
+      <c r="B37" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="20">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21">
+      <c r="C37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="18">
         <v>118.002</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="18">
         <v>111.4420556762</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="18">
         <v>101.66052718260001</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <v>87.919810779000002</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="18">
         <v>120.6612786609</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="18">
         <v>112.705</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="18">
         <v>100.56100000000001</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="18">
         <v>98.602999999999994</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16">
+      <c r="B38" s="20">
         <v>2021</v>
       </c>
-      <c r="C38" s="16">
-        <v>12</v>
+      <c r="C38" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="6">
         <v>117.30800000000001</v>
@@ -1868,11 +1914,11 @@
       </c>
     </row>
     <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="17">
+      <c r="B39" s="21">
         <v>2021</v>
       </c>
-      <c r="C39" s="17">
-        <v>11</v>
+      <c r="C39" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="7">
         <v>116.884</v>
@@ -1900,11 +1946,11 @@
       </c>
     </row>
     <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="16">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="16">
-        <v>10</v>
+      <c r="C40" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="6">
         <v>115.56100000000001</v>
@@ -1932,11 +1978,11 @@
       </c>
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="17">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="17">
-        <v>9</v>
+      <c r="C41" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D41" s="7">
         <v>114.601</v>
@@ -1964,11 +2010,11 @@
       </c>
     </row>
     <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="16">
-        <v>8</v>
+      <c r="C42" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="6">
         <v>113.899</v>
@@ -1996,11 +2042,11 @@
       </c>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="17">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C43" s="17">
-        <v>7</v>
+      <c r="C43" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="7">
         <v>113.682</v>
@@ -2028,11 +2074,11 @@
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="16">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="16">
-        <v>6</v>
+      <c r="C44" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D44" s="6">
         <v>113.018</v>
@@ -2060,11 +2106,11 @@
       </c>
     </row>
     <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="17">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C45" s="17">
-        <v>5</v>
+      <c r="C45" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D45" s="7">
         <v>112.419</v>
@@ -2092,11 +2138,11 @@
       </c>
     </row>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="16">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="16">
-        <v>4</v>
+      <c r="C46" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="6">
         <v>112.19</v>
@@ -2124,11 +2170,11 @@
       </c>
     </row>
     <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17">
+      <c r="B47" s="21">
         <v>2021</v>
       </c>
-      <c r="C47" s="17">
-        <v>3</v>
+      <c r="C47" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D47" s="7">
         <v>111.824</v>
@@ -2156,11 +2202,11 @@
       </c>
     </row>
     <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="16">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="16">
-        <v>2</v>
+      <c r="C48" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="6">
         <v>110.907</v>
@@ -2188,43 +2234,43 @@
       </c>
     </row>
     <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20">
+      <c r="B49" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="20">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="18">
         <v>110.21</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="18">
         <v>108.91289704650001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="18">
         <v>101.0405414315</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="18">
         <v>69.379568991200003</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="18">
         <v>112.46996162710001</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="18">
         <v>110.208</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="18">
         <v>100.355</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="18">
         <v>98.557000000000002</v>
       </c>
     </row>
     <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="16">
+      <c r="B50" s="20">
         <v>2020</v>
       </c>
-      <c r="C50" s="16">
-        <v>12</v>
+      <c r="C50" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D50" s="6">
         <v>109.271</v>
@@ -2252,11 +2298,11 @@
       </c>
     </row>
     <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="17">
+      <c r="B51" s="21">
         <v>2020</v>
       </c>
-      <c r="C51" s="17">
-        <v>11</v>
+      <c r="C51" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D51" s="7">
         <v>108.85599999999999</v>
@@ -2284,11 +2330,11 @@
       </c>
     </row>
     <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="16">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="16">
-        <v>10</v>
+      <c r="C52" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="6">
         <v>108.774</v>
@@ -2316,11 +2362,11 @@
       </c>
     </row>
     <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="17">
-        <v>9</v>
+      <c r="C53" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="7">
         <v>108.114</v>
@@ -2348,11 +2394,11 @@
       </c>
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="16">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="16">
-        <v>8</v>
+      <c r="C54" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D54" s="6">
         <v>107.867</v>
@@ -2380,11 +2426,11 @@
       </c>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="17">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C55" s="17">
-        <v>7</v>
+      <c r="C55" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D55" s="7">
         <v>107.444</v>
@@ -2412,11 +2458,11 @@
       </c>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="16">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="16">
-        <v>6</v>
+      <c r="C56" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D56" s="6">
         <v>106.74299999999999</v>
@@ -2444,11 +2490,11 @@
       </c>
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="17">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C57" s="17">
-        <v>5</v>
+      <c r="C57" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D57" s="7">
         <v>106.16200000000001</v>
@@ -2476,11 +2522,11 @@
       </c>
     </row>
     <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="16">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="16">
-        <v>4</v>
+      <c r="C58" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D58" s="6">
         <v>105.755</v>
@@ -2508,11 +2554,11 @@
       </c>
     </row>
     <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="17">
+      <c r="B59" s="21">
         <v>2020</v>
       </c>
-      <c r="C59" s="17">
-        <v>3</v>
+      <c r="C59" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="7">
         <v>106.83799999999999</v>
@@ -2540,11 +2586,11 @@
       </c>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="16">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="16">
-        <v>2</v>
+      <c r="C60" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="6">
         <v>106.889</v>
@@ -2572,43 +2618,43 @@
       </c>
     </row>
     <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20">
+      <c r="B61" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="20">
-        <v>1</v>
-      </c>
-      <c r="D61" s="21">
+      <c r="C61" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="18">
         <v>106.447</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="18">
         <v>107.11553304500001</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="18">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="18">
         <v>86.778005823699999</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="18">
         <v>106.9248328514</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="18">
         <v>103.367</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="18">
         <v>100.339</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="18">
         <v>98.554000000000002</v>
       </c>
     </row>
     <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16">
+      <c r="B62" s="20">
         <v>2019</v>
       </c>
-      <c r="C62" s="16">
-        <v>12</v>
+      <c r="C62" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D62" s="6">
         <v>105.934</v>
@@ -2636,11 +2682,11 @@
       </c>
     </row>
     <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="17">
+      <c r="B63" s="21">
         <v>2019</v>
       </c>
-      <c r="C63" s="17">
-        <v>11</v>
+      <c r="C63" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D63" s="7">
         <v>105.346</v>
@@ -2668,11 +2714,11 @@
       </c>
     </row>
     <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="16">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="16">
-        <v>10</v>
+      <c r="C64" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="6">
         <v>104.503</v>
@@ -2700,11 +2746,11 @@
       </c>
     </row>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="17">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="17">
-        <v>9</v>
+      <c r="C65" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D65" s="7">
         <v>103.94199999999999</v>
@@ -2732,11 +2778,11 @@
       </c>
     </row>
     <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="16">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="16">
-        <v>8</v>
+      <c r="C66" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D66" s="6">
         <v>103.67</v>
@@ -2764,11 +2810,11 @@
       </c>
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="17">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C67" s="17">
-        <v>7</v>
+      <c r="C67" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D67" s="7">
         <v>103.687</v>
@@ -2796,11 +2842,11 @@
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="16">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="16">
-        <v>6</v>
+      <c r="C68" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D68" s="6">
         <v>103.29900000000001</v>
@@ -2828,11 +2874,11 @@
       </c>
     </row>
     <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="17">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C69" s="17">
-        <v>5</v>
+      <c r="C69" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D69" s="7">
         <v>103.233</v>
@@ -2860,11 +2906,11 @@
       </c>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="16">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="16">
-        <v>4</v>
+      <c r="C70" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D70" s="6">
         <v>103.53100000000001</v>
@@ -2892,11 +2938,11 @@
       </c>
     </row>
     <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="17">
+      <c r="B71" s="21">
         <v>2019</v>
       </c>
-      <c r="C71" s="17">
-        <v>3</v>
+      <c r="C71" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="7">
         <v>103.476</v>
@@ -2924,11 +2970,11 @@
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="16">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="16">
-        <v>2</v>
+      <c r="C72" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="6">
         <v>103.07899999999999</v>
@@ -2956,43 +3002,43 @@
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20">
+      <c r="B73" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="20">
-        <v>1</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="C73" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="18">
         <v>103.108</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="18">
         <v>102.47200356979999</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="18">
         <v>100</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="18">
         <v>78.7293169334</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="18">
         <v>102.4734794414</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="18">
         <v>100.42</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J73" s="18">
         <v>100.036</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="18">
         <v>99.197999999999993</v>
       </c>
     </row>
     <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="16">
+      <c r="B74" s="20">
         <v>2018</v>
       </c>
-      <c r="C74" s="16">
-        <v>12</v>
+      <c r="C74" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D74" s="6">
         <v>103.02</v>
@@ -3020,11 +3066,11 @@
       </c>
     </row>
     <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="17">
+      <c r="B75" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="17">
-        <v>11</v>
+      <c r="C75" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D75" s="7">
         <v>102.303</v>
@@ -3052,11 +3098,11 @@
       </c>
     </row>
     <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="16">
+      <c r="B76" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="16">
-        <v>10</v>
+      <c r="C76" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D76" s="6">
         <v>101.44</v>
@@ -3084,11 +3130,11 @@
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="17">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="17">
-        <v>9</v>
+      <c r="C77" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D77" s="7">
         <v>100.917</v>
@@ -3116,11 +3162,11 @@
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="16">
+      <c r="B78" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="16">
-        <v>8</v>
+      <c r="C78" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D78" s="6">
         <v>100.492</v>
@@ -3148,11 +3194,11 @@
       </c>
     </row>
     <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="17">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="17">
-        <v>7</v>
+      <c r="C79" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D79" s="7">
         <v>99.909099104513999</v>
@@ -3180,11 +3226,11 @@
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="16">
+      <c r="B80" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="16">
-        <v>6</v>
+      <c r="C80" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D80" s="6">
         <v>99.376464931786998</v>
@@ -3212,11 +3258,11 @@
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="17">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C81" s="17">
-        <v>5</v>
+      <c r="C81" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D81" s="7">
         <v>98.994080173086999</v>
@@ -3244,11 +3290,11 @@
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="16">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="16">
-        <v>4</v>
+      <c r="C82" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D82" s="6">
         <v>99.154847046097004</v>
@@ -3276,11 +3322,11 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="17">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="17">
-        <v>3</v>
+      <c r="C83" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D83" s="7">
         <v>99.492156980588007</v>
@@ -3308,11 +3354,11 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="16">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="16">
-        <v>2</v>
+      <c r="C84" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D84" s="6">
         <v>99.171374481640001</v>
@@ -3340,11 +3386,11 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="17">
+      <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C85" s="17">
-        <v>1</v>
+      <c r="C85" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D85" s="7">
         <v>98.794999699501005</v>
@@ -3373,8 +3419,8 @@
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>17</v>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3386,7 +3432,7 @@
     </row>
     <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3398,7 +3444,7 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -3423,8 +3469,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3E314-8BA9-446D-8454-C81DB3E66CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34339289-6CD0-493A-9A5D-2568E48F6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -142,19 +142,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,27 +162,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -449,7 +449,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -485,8 +485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K86" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K87" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -513,7 +513,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,28 +521,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -551,14 +551,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -733,28 +733,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.19921875" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>29</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -810,7 +810,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
@@ -842,2614 +842,2634 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19">
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6">
+        <v>136.828</v>
+      </c>
+      <c r="E6" s="8">
+        <v>125.8430792046</v>
+      </c>
+      <c r="F6" s="8">
+        <v>107.63083150289999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>150.05764800759999</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8">
+        <v>123.35899999999999</v>
+      </c>
+      <c r="J6" s="8">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>136.08000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>125.9243949896</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>107.5637453439</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>140.67318630739999</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>123.35899999999999</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="7">
         <v>100.60044724230001</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="7">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>136.01300000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>125.35642665260001</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>107.5116282255</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>138.501613185</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>123.438</v>
       </c>
-      <c r="J7" s="8">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J8" s="8">
+        <v>100.6</v>
+      </c>
+      <c r="K8" s="8">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="19">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>136.00299999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>124.5592826787</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>107.4370558178</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>162.48163763549999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>136.92312158670001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>123.36199999999999</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>100.6</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="7">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>123.454094798</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <v>106.0396352632</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <v>147.441</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="6">
         <v>136.3792212685</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
         <v>123.023</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>100.6</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>134.08699999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>122.97212671689999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>105.9659254435</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>143.96444227999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>136.17550477169999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>122.36</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="7">
         <v>100.6</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K11" s="7">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>134.33600000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>123.0447919639</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>105.8761867728</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>137.01147154309999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>135.70240732440001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>120.79900000000001</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>100.6</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="19">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>134.065</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>122.89707405510001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>105.7944625276</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>174.2144001913</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>134.95018121690001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>120.56100000000001</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>100.6</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="7">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>133.68100000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>122.47679316519999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>105.7127382824</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>135.7291557476</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>134.2923932084</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>119.937</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>100.6</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="20">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>2024</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>133.55500000000001</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>122.1009325088</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>105.6310140372</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>133.54719721539999</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>132.71302725059999</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J15" s="16">
         <v>100.6</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K15" s="16">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="18">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>132.37299999999999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>121.6574303613</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>105.549289792</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>182.3815293733</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <v>129.82782886429999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="6">
         <v>119.91500000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>99.236999999999995</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="19">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>2023</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>131.44499999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>120.8160445282</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>105.4675655467</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>157.47167143870001</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>130.18555967200001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I17" s="7">
         <v>119.861</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>99.236999999999995</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K17" s="7">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>130.60900000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>120.4862973733</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>105.38584130149999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>145.65313447969999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>130.1120315803</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>118.376</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="6">
         <v>100.6</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="6">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="19">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>130.12</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>120.4973605119</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>105.3041170563</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>128.47314640139999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>129.75090098219999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>118.788</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>100.6</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K19" s="7">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>129.54499999999999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>120.39914263439999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>105.22239281109999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>127.9599808845</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <v>129.0779724994</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <v>118.574</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>100.6</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <v>89.128</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="19">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>128.83199999999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>120.08299225419999</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>105.1406685659</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>146.74874433080001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>129.31384858050001</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>118.285</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="7">
         <v>100.6</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K21" s="7">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>128.214</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>119.82760529700001</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <v>105.05894432069999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>125.4398687573</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <v>129.16292087080001</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>117.982</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <v>100.6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="19">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>128.084</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>119.8233656324</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>104.89549583020001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>117.17254640749999</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>128.9614286716</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>117.361</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="7">
         <v>100.6</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K23" s="7">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="18">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>128.363</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>119.66934975220001</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>104.71978870300001</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>111.8321814474</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <v>129.31726497450001</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>117.387</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <v>100.6</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="19">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>128.38900000000001</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>118.9558148927</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>104.4868746042</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>132.87275808659999</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>129.457527414</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>117.16200000000001</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="7">
         <v>100.6</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K25" s="7">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="18">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>128.04599999999999</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>118.1916406628</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>104.4868746042</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>105.46410968399999</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>129.12205609009999</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>116.64100000000001</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>100.6</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="20">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
         <v>2023</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <v>127.336</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>117.6482068262</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>105.4811752151</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="16">
         <v>127.5767484142</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="16">
         <v>115.95099999999999</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="16">
         <v>100.6</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
         <v>2022</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>126.47799999999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>116.82049176770001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <v>103.6972441545</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>139.65915062159999</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <v>124.6968379873</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <v>115.741</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="6">
         <v>100.6</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K28" s="6">
         <v>90.87</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>2022</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>125.997</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>116.0450620779</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>103.6972441545</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>132.31738618719999</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>124.54272655050001</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>115.336</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>100.6</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K29" s="7">
         <v>90.87</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>125.276</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>115.94924330409999</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>103.2886229284</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>119.8275041996</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <v>124.65542954270001</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>114.956</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <v>100.6</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="6">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>124.571</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>115.74943222349999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>103.2886229284</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>117.1841235999</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>124.1308784126</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="7">
         <v>115.31699999999999</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="7">
         <v>100.6</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K31" s="7">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>123.803</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>115.41491664279999</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>103.2886229284</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>116.4447289605</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <v>125.9840309911</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>115.134</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="6">
         <v>100.59</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K32" s="6">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="19">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>122.94799999999999</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>114.87544210910001</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>103.2886229284</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>137.69700215349999</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <v>125.36702750089999</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="7">
         <v>114.389</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="7">
         <v>100.59</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K33" s="7">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="18">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>122.044</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>113.8040964162</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>103.2886229284</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>130.85123030770001</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <v>125.1867510614</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>113.178</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="6">
         <v>100.59</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="19">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>121.02200000000001</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>112.7183662006</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>102.4713804763</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>126.41473992429999</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>124.83942508449999</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="7">
         <v>113.289</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="7">
         <v>100.56100000000001</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K35" s="7">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>120.809</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>112.48503934839999</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>102.4713804763</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>129.87573640970001</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <v>124.0503181081</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>113.02800000000001</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>100.56100000000001</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>120.15900000000001</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>111.97977889560001</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>102.4713804763</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>124.7535276317</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <v>122.8708474534</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="7">
         <v>113.009</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="7">
         <v>100.56100000000001</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K37" s="7">
         <v>98.631</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>118.98099999999999</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>111.8467792818</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>102.4713804763</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>88.048379522399998</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>121.76441215040001</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>112.843</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>100.559</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>98.631</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="20">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20">
         <v>2022</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <v>118.002</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>111.4420556762</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>101.66052718260001</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>87.919810779000002</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>120.6612786609</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="16">
         <v>112.705</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J39" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="16">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="18">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
         <v>2021</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>117.30800000000001</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>110.93061004979999</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>144.0852936078</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="6">
         <v>117.87569352689999</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="6">
         <v>112.803</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="6">
         <v>100.551</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="6">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="19">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>116.884</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>110.2167299347</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>101.6316896603</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>117.87173141300001</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>117.71918006520001</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I41" s="7">
         <v>112.76300000000001</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J41" s="7">
         <v>100.54</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K41" s="7">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="18">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>115.56100000000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>109.85587154930001</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>107.4801111049</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <v>117.2036471113</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>112.779</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <v>100.54</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="19">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>114.601</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>109.7934030607</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>101.6316896603</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>97.468339390300002</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>116.90260252749999</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="7">
         <v>111.345</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="7">
         <v>100.523</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K43" s="7">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="18">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>113.899</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>109.6876007529</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="6">
         <v>103.9626342001</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <v>116.7589504195</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="6">
         <v>111.09399999999999</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J44" s="6">
         <v>100.521</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K44" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="19">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>113.682</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>109.5082396111</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>101.6316896603</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>127.1166300499</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="7">
         <v>116.0583573286</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="7">
         <v>110.85299999999999</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="7">
         <v>100.512</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K45" s="7">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>113.018</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>109.3611515443</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>127.6488519838</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <v>115.5054112312</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>110.64700000000001</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J46" s="6">
         <v>100.503</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K46" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>112.419</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>109.1398981391</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>101.6316896603</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>110.9052383991</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="7">
         <v>115.24268739839999</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="7">
         <v>110.613</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="7">
         <v>100.504</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K47" s="7">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="18">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>112.19</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>109.1238791816</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>101.2984364707</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>92.423514952199994</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <v>114.6136060937</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>110.613</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>100.47</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="19">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>111.824</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>108.98594320479999</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>101.0405414316</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>88.697327708700001</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="7">
         <v>114.5144639519</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="7">
         <v>110.506</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="7">
         <v>100.4</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K49" s="7">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="18">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>110.907</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>108.80131973269999</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>101.0405414316</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>72.629830018600003</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>113.823854883</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>110.19499999999999</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>100.36</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="20">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20">
         <v>2021</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <v>110.21</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>108.91289704650001</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>69.379568991200003</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="16">
         <v>112.46996162710001</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I51" s="16">
         <v>110.208</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J51" s="16">
         <v>100.355</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="16">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="18">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
         <v>2020</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>109.271</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>108.6477332931</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>88.425353764299999</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="6">
         <v>110.0805693728</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="6">
         <v>110.01600000000001</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="6">
         <v>100.30500000000001</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K52" s="6">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>108.85599999999999</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>108.5064270149</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>87.498687502999999</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>109.622766778</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I53" s="7">
         <v>109.91800000000001</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J53" s="7">
         <v>100.30800000000001</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K53" s="7">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="18">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>108.774</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>108.5602695565</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>92.871387775499997</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <v>108.9954622659</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>109.27500000000001</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>100.31</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="6">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="19">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <v>108.114</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>108.5110595398</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>84.546898124199998</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="7">
         <v>108.8201840744</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="7">
         <v>107.221</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="7">
         <v>100.31</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="7">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="18">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>107.867</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>108.2641243905</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="6">
         <v>84.0993629062</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <v>108.6866229954</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="6">
         <v>104.646</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>100.32599999999999</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="6">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="19">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="7">
         <v>107.444</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>108.2290316098</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>83.373654861600002</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="7">
         <v>108.8298342292</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="7">
         <v>103.541</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="7">
         <v>100.34</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="7">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="18">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>106.74299999999999</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>108.1151913336</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>84.228004732399995</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="6">
         <v>108.5274450755</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>103.54300000000001</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="6">
         <v>100.34</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K58" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="19">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>106.16200000000001</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>108.1896853977</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>82.231994422100001</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>109.31474425979999</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="7">
         <v>103.61</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="7">
         <v>100.34</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="7">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="18">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>105.755</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>107.4875171243</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>76.507181751999994</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <v>109.6777595691</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>103.61</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <v>100.34</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="6">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="19">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="7">
         <v>106.83799999999999</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>107.5306793508</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>80.8593909067</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="7">
         <v>108.703723247</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="7">
         <v>103.661</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="7">
         <v>100.34</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="7">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="18">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>106.889</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>107.2442089382</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>82.836861846299996</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>107.4631074917</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>103.661</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>100.34099999999999</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="20">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="20">
         <v>2020</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <v>106.447</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>107.11553304500001</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="16">
         <v>86.778005823699999</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="16">
         <v>106.9248328514</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I63" s="16">
         <v>103.367</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J63" s="16">
         <v>100.339</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="16">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="18">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
         <v>2019</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>105.934</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>106.0505331862</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>127.36462816709999</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <v>104.9942430431</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="6">
         <v>102.95099999999999</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="6">
         <v>100.331</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="6">
         <v>98.78</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="19">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="7">
         <v>105.346</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>105.65671461060001</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>101.0973028073</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H65" s="7">
         <v>104.4576847797</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I65" s="7">
         <v>102.90300000000001</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J65" s="7">
         <v>100.324</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K65" s="7">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="18">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>104.503</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>105.1002407181</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>88.301013724200004</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <v>104.50205451870001</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>102.90300000000001</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="6">
         <v>100.29600000000001</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="19">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="7">
         <v>103.94199999999999</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>104.6074519548</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>88.107262410499999</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>104.3079456359</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="7">
         <v>102.654</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="7">
         <v>100.29</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="7">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="18">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>103.67</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>104.5187172775</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>92.899994051799993</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <v>104.285820413</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>102.604</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="6">
         <v>100.274</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="6">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="19">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>103.687</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>103.9281222685</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>100.6849220455</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>115.8409110419</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="7">
         <v>104.2691868668</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="7">
         <v>102.57599999999999</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="7">
         <v>100.196</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="7">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="18">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>103.29900000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>103.4436474945</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>100.6191914481</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>107.6048597489</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H70" s="6">
         <v>104.7408219759</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="6">
         <v>101.68300000000001</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J70" s="6">
         <v>100.119</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K70" s="6">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="19">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="7">
         <v>103.233</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>103.33167816460001</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>100.6191914481</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="7">
         <v>86.898257620999999</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>105.3054014635</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="7">
         <v>101.509</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="7">
         <v>100.119</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="7">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="18">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>103.53100000000001</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>103.10258831190001</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>100.6191914481</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>96.879318888</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <v>104.9491652918</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>101.459</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="6">
         <v>100.119</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="6">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="19">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="7">
         <v>103.476</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>102.69294294469999</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>100</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>81.499577131300001</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="7">
         <v>104.44624704749999</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="7">
         <v>101.166</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="7">
         <v>100.098</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="7">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="18">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>103.07899999999999</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>102.5321554705</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>100</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>76.553159667299994</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <v>103.8610611723</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>100.72499999999999</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J74" s="6">
         <v>100.081</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="6">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="20">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="20">
         <v>2019</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <v>103.108</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>102.47200356979999</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>100</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="16">
         <v>78.7293169334</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="16">
         <v>102.4734794414</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="16">
         <v>100.42</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J75" s="16">
         <v>100.036</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="16">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>103.02</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>101.4882812159</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>100</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>116.2152458092</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="6">
         <v>101.1447321365</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="6">
         <v>100.56100000000001</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <v>100.03400000000001</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="6">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="7">
         <v>102.303</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>100.90290467379999</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>100</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>87.221876645500004</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="7">
         <v>101.16638118420001</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="7">
         <v>100.56100000000001</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="7">
         <v>100.03400000000001</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="7">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="18">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>101.44</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>100.78655579709999</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>100</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>85.369691303899998</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <v>100.05389573230001</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <v>100.52500000000001</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <v>100.021</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="6">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="19">
         <v>2018</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D79" s="7">
         <v>100.917</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>100.4677127848</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>100</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>75.626050242900007</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>100.0190239563</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="7">
         <v>100.126</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="7">
         <v>100</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="7">
         <v>99.77</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="18">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <v>100.492</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>100.22727446899999</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>100</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>79.518260205800004</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="6">
         <v>99.844190958599995</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I80" s="6">
         <v>100.05200000000001</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J80" s="6">
         <v>100</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K80" s="6">
         <v>99.83</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="19">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D81" s="7">
         <v>99.909099104513999</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>99.998359331854999</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>100</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>101.704654973457</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="7">
         <v>100.084132399041</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="18">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>99.376464931786998</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>99.990951002754002</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>100</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>99.195118819963994</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <v>100.145214825742</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K82" s="6">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="19">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="7">
         <v>98.994080173086999</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>99.984814220586003</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>100</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>90.757329060767006</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="7">
         <v>99.721095334685998</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="7">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="18">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>99.154847046097004</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>99.833850058503003</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>100</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>74.377335587917997</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>100.50825189009799</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="19">
+    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="19">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="7">
         <v>99.492156980588007</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>99.599241644515999</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>99.775409784431005</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>86.603489152118996</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="7">
         <v>100.50825189009799</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="7">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="18">
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18">
         <v>2018</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>99.171374481640001</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>99.404629920302</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>99.775409784431005</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>79.172819495607996</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I86" s="6">
         <v>100.413747003504</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="6">
         <v>100.841596924303</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="19">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="19">
         <v>2018</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="7">
         <v>98.794999699501005</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>99.150938662095996</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>99.775409784431005</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="7">
         <v>72.042283790854</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="7">
         <v>100.245482205421</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J87" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K87" s="7">
         <v>99.852310289049996</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -3459,9 +3479,9 @@
       <c r="H88" s="3"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3469,15 +3489,27 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K92" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34339289-6CD0-493A-9A5D-2568E48F6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27476EF9-6BDF-48CB-B969-C83D4EB0CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,23 +147,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,21 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Montserrat"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,70 +304,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -378,38 +377,148 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -434,6 +543,17 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -449,9 +569,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -485,11 +606,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K87" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K88" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -733,28 +853,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="15.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,8 +893,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2"/>
@@ -790,2733 +911,2765 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="22" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    <row r="6" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="16">
+        <v>137.42400000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>126.1506342819</v>
+      </c>
+      <c r="F6" s="16">
+        <v>107.69043314149999</v>
+      </c>
+      <c r="G6" s="16">
+        <v>163.0304427657</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16">
+        <v>123.661</v>
+      </c>
+      <c r="J6" s="16">
+        <v>100.60044724230001</v>
+      </c>
+      <c r="K6" s="16">
+        <v>89.114043740699998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="19">
         <v>136.828</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="20">
         <v>125.8430792046</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="20">
         <v>107.63083150289999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="20">
         <v>150.05764800759999</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="20">
         <v>123.35899999999999</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="20">
         <v>100.6</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="20">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+    <row r="8" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="16">
         <v>136.08000000000001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="16">
         <v>125.9243949896</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="16">
         <v>107.5637453439</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="16">
         <v>140.67318630739999</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="16">
         <v>123.35899999999999</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="16">
         <v>100.60044724230001</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="16">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="18">
         <v>2024</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="19">
         <v>136.01300000000001</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="20">
         <v>125.35642665260001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="20">
         <v>107.5116282255</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="20">
         <v>138.501613185</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="20">
         <v>123.438</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="20">
         <v>100.6</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="20">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="16">
         <v>136.00299999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="16">
         <v>124.5592826787</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="16">
         <v>107.4370558178</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="16">
         <v>162.48163763549999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="16">
         <v>136.92312158670001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I10" s="16">
         <v>123.36199999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="16">
         <v>100.6</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="18">
         <v>2024</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="19">
         <v>134.59399999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="19">
         <v>123.454094798</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="19">
         <v>106.0396352632</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="19">
         <v>147.441</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="19">
         <v>136.3792212685</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="19">
         <v>123.023</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="19">
         <v>100.6</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="19">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="16">
         <v>134.08699999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="16">
         <v>122.97212671689999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="16">
         <v>105.9659254435</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="16">
         <v>143.96444227999999</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="16">
         <v>136.17550477169999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="16">
         <v>122.36</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="16">
         <v>100.6</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="18">
         <v>2024</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="19">
         <v>134.33600000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="19">
         <v>123.0447919639</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="19">
         <v>105.8761867728</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="19">
         <v>137.01147154309999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="19">
         <v>135.70240732440001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="19">
         <v>120.79900000000001</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="19">
         <v>100.6</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="19">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="16">
         <v>134.065</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="16">
         <v>122.89707405510001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="16">
         <v>105.7944625276</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="16">
         <v>174.2144001913</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="16">
         <v>134.95018121690001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="16">
         <v>120.56100000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="16">
         <v>100.6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="18">
         <v>2024</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="19">
         <v>133.68100000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="19">
         <v>122.47679316519999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="19">
         <v>105.7127382824</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="19">
         <v>135.7291557476</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="19">
         <v>134.2923932084</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="19">
         <v>119.937</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="19">
         <v>100.6</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="19">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="21">
         <v>2024</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="22">
         <v>133.55500000000001</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="22">
         <v>122.1009325088</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="22">
         <v>105.6310140372</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="22">
         <v>133.54719721539999</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="22">
         <v>132.71302725059999</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="22">
         <v>119.91500000000001</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="22">
         <v>100.6</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="22">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="19">
         <v>132.37299999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="19">
         <v>121.6574303613</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="19">
         <v>105.549289792</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="19">
         <v>182.3815293733</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="19">
         <v>129.82782886429999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="19">
         <v>99.236999999999995</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="19">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="16">
         <v>131.44499999999999</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="16">
         <v>120.8160445282</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="16">
         <v>105.4675655467</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="16">
         <v>157.47167143870001</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="16">
         <v>130.18555967200001</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="16">
         <v>119.861</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="16">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="19">
         <v>130.60900000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="19">
         <v>120.4862973733</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="19">
         <v>105.38584130149999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="19">
         <v>145.65313447969999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="19">
         <v>130.1120315803</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="19">
         <v>118.376</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="19">
         <v>100.6</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="19">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="16">
         <v>130.12</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="16">
         <v>120.4973605119</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="16">
         <v>105.3041170563</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="16">
         <v>128.47314640139999</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="16">
         <v>129.75090098219999</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="16">
         <v>118.788</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="16">
         <v>100.6</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K20" s="16">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="19">
         <v>129.54499999999999</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="19">
         <v>120.39914263439999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="19">
         <v>105.22239281109999</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="19">
         <v>127.9599808845</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="19">
         <v>129.0779724994</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="19">
         <v>118.574</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="19">
         <v>100.6</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="19">
         <v>89.128</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="16">
         <v>128.83199999999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="16">
         <v>120.08299225419999</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="16">
         <v>105.1406685659</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="16">
         <v>146.74874433080001</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="16">
         <v>129.31384858050001</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I22" s="16">
         <v>118.285</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J22" s="16">
         <v>100.6</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K22" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="19">
         <v>128.214</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="19">
         <v>119.82760529700001</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="19">
         <v>105.05894432069999</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="19">
         <v>125.4398687573</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="19">
         <v>129.16292087080001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="19">
         <v>117.982</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J23" s="19">
         <v>100.6</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K23" s="19">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="16">
         <v>128.084</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="16">
         <v>119.8233656324</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="16">
         <v>104.89549583020001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="16">
         <v>117.17254640749999</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="16">
         <v>128.9614286716</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="16">
         <v>117.361</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J24" s="16">
         <v>100.6</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K24" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="19">
         <v>128.363</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="19">
         <v>119.66934975220001</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="19">
         <v>104.71978870300001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="19">
         <v>111.8321814474</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="19">
         <v>129.31726497450001</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="19">
         <v>117.387</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="19">
         <v>100.6</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K25" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="16">
         <v>128.38900000000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="16">
         <v>118.9558148927</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="16">
         <v>132.87275808659999</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="16">
         <v>129.457527414</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="16">
         <v>117.16200000000001</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="16">
         <v>100.6</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K26" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="18">
         <v>2023</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="19">
         <v>128.04599999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="19">
         <v>118.1916406628</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="19">
         <v>104.4868746042</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="19">
         <v>105.46410968399999</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="19">
         <v>129.12205609009999</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="19">
         <v>116.64100000000001</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="19">
         <v>100.6</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="20">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="21">
         <v>2023</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="22">
         <v>127.336</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="22">
         <v>117.6482068262</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="22">
         <v>103.6972441545</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="22">
         <v>105.4811752151</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="22">
         <v>127.5767484142</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="22">
         <v>115.95099999999999</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="22">
         <v>100.6</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="22">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="19">
         <v>126.47799999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="19">
         <v>116.82049176770001</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="19">
         <v>139.65915062159999</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="19">
         <v>124.6968379873</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="19">
         <v>115.741</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J29" s="19">
         <v>100.6</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K29" s="19">
         <v>90.87</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="16">
         <v>125.997</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="16">
         <v>116.0450620779</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="16">
         <v>132.31738618719999</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="16">
         <v>124.54272655050001</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I30" s="16">
         <v>115.336</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J30" s="16">
         <v>100.6</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K30" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="19">
         <v>125.276</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="19">
         <v>115.94924330409999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="19">
         <v>103.2886229284</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="19">
         <v>119.8275041996</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="19">
         <v>124.65542954270001</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="19">
         <v>114.956</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J31" s="19">
         <v>100.6</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K31" s="19">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="16">
         <v>124.571</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="16">
         <v>115.74943222349999</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="16">
         <v>117.1841235999</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="16">
         <v>124.1308784126</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="16">
         <v>115.31699999999999</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J32" s="16">
         <v>100.6</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K32" s="16">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="19">
         <v>123.803</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="19">
         <v>115.41491664279999</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="19">
         <v>103.2886229284</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="19">
         <v>116.4447289605</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H33" s="19">
         <v>125.9840309911</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="19">
         <v>115.134</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J33" s="19">
         <v>100.59</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K33" s="19">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="16">
         <v>122.94799999999999</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="16">
         <v>114.87544210910001</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="16">
         <v>137.69700215349999</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H34" s="16">
         <v>125.36702750089999</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I34" s="16">
         <v>114.389</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J34" s="16">
         <v>100.59</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K34" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="19">
         <v>122.044</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="19">
         <v>113.8040964162</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="19">
         <v>103.2886229284</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="19">
         <v>130.85123030770001</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="19">
         <v>125.1867510614</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="19">
         <v>113.178</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J35" s="19">
         <v>100.59</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K35" s="19">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="16">
         <v>121.02200000000001</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="16">
         <v>112.7183662006</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G36" s="16">
         <v>126.41473992429999</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H36" s="16">
         <v>124.83942508449999</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I36" s="16">
         <v>113.289</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J36" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K36" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="19">
         <v>120.809</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="19">
         <v>112.48503934839999</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="19">
         <v>102.4713804763</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="19">
         <v>129.87573640970001</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H37" s="19">
         <v>124.0503181081</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I37" s="19">
         <v>113.02800000000001</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J37" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K37" s="19">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="16">
         <v>120.15900000000001</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="16">
         <v>111.97977889560001</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="16">
         <v>124.7535276317</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H38" s="16">
         <v>122.8708474534</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I38" s="16">
         <v>113.009</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J38" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K38" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="18">
         <v>2022</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="19">
         <v>118.98099999999999</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="19">
         <v>111.8467792818</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="19">
         <v>102.4713804763</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="19">
         <v>88.048379522399998</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="19">
         <v>121.76441215040001</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="19">
         <v>112.843</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="19">
         <v>100.559</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="19">
         <v>98.631</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="21">
         <v>2022</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="22">
         <v>118.002</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="22">
         <v>111.4420556762</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="22">
         <v>101.66052718260001</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="22">
         <v>87.919810779000002</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="22">
         <v>120.6612786609</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="22">
         <v>112.705</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="22">
         <v>100.56100000000001</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K40" s="22">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="18">
+    <row r="41" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="19">
         <v>117.30800000000001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="19">
         <v>110.93061004979999</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="19">
         <v>101.6316896603</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="19">
         <v>144.0852936078</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="19">
         <v>117.87569352689999</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I41" s="19">
         <v>112.803</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J41" s="19">
         <v>100.551</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K41" s="19">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D42" s="16">
         <v>116.884</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="16">
         <v>110.2167299347</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="16">
         <v>117.87173141300001</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="16">
         <v>117.71918006520001</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I42" s="16">
         <v>112.76300000000001</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J42" s="16">
         <v>100.54</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K42" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="19">
         <v>115.56100000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="19">
         <v>109.85587154930001</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="19">
         <v>101.6316896603</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="19">
         <v>107.4801111049</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H43" s="19">
         <v>117.2036471113</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I43" s="19">
         <v>112.779</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J43" s="19">
         <v>100.54</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K43" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="16">
         <v>114.601</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="16">
         <v>109.7934030607</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="16">
         <v>97.468339390300002</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H44" s="16">
         <v>116.90260252749999</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I44" s="16">
         <v>111.345</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J44" s="16">
         <v>100.523</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K44" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="19">
         <v>113.899</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="19">
         <v>109.6876007529</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="19">
         <v>101.6316896603</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="19">
         <v>103.9626342001</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="19">
         <v>116.7589504195</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I45" s="19">
         <v>111.09399999999999</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J45" s="19">
         <v>100.521</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K45" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="16">
         <v>113.682</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="16">
         <v>109.5082396111</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G46" s="16">
         <v>127.1166300499</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H46" s="16">
         <v>116.0583573286</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I46" s="16">
         <v>110.85299999999999</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J46" s="16">
         <v>100.512</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K46" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="18">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="19">
         <v>113.018</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="19">
         <v>109.3611515443</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="19">
         <v>101.6316896603</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="19">
         <v>127.6488519838</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="19">
         <v>115.5054112312</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="19">
         <v>110.64700000000001</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J47" s="19">
         <v>100.503</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K47" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="16">
         <v>112.419</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="16">
         <v>109.1398981391</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G48" s="16">
         <v>110.9052383991</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H48" s="16">
         <v>115.24268739839999</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I48" s="16">
         <v>110.613</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J48" s="16">
         <v>100.504</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K48" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="19">
         <v>112.19</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="19">
         <v>109.1238791816</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="19">
         <v>101.2984364707</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="19">
         <v>92.423514952199994</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H49" s="19">
         <v>114.6136060937</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I49" s="19">
         <v>110.613</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J49" s="19">
         <v>100.47</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K49" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="16">
         <v>111.824</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="16">
         <v>108.98594320479999</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="16">
         <v>88.697327708700001</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H50" s="16">
         <v>114.5144639519</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I50" s="16">
         <v>110.506</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J50" s="16">
         <v>100.4</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K50" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="18">
         <v>2021</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="19">
         <v>110.907</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="19">
         <v>108.80131973269999</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="19">
         <v>101.0405414316</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="19">
         <v>72.629830018600003</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="19">
         <v>113.823854883</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="19">
         <v>110.19499999999999</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="19">
         <v>100.36</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K51" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="21">
         <v>2021</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="22">
         <v>110.21</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="22">
         <v>108.91289704650001</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="22">
         <v>101.0405414315</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="22">
         <v>69.379568991200003</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="22">
         <v>112.46996162710001</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="22">
         <v>110.208</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="22">
         <v>100.355</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K52" s="22">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="19">
         <v>109.271</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="19">
         <v>108.6477332931</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="19">
         <v>88.425353764299999</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="19">
         <v>110.0805693728</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I53" s="19">
         <v>110.01600000000001</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J53" s="19">
         <v>100.30500000000001</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="19">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="16">
         <v>108.85599999999999</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="16">
         <v>108.5064270149</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="16">
         <v>87.498687502999999</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H54" s="16">
         <v>109.622766778</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I54" s="16">
         <v>109.91800000000001</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J54" s="16">
         <v>100.30800000000001</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K54" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="19">
         <v>108.774</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="19">
         <v>108.5602695565</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="19">
         <v>92.871387775499997</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H55" s="19">
         <v>108.9954622659</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="19">
         <v>109.27500000000001</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="19">
         <v>100.31</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K55" s="19">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="16">
         <v>108.114</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="16">
         <v>108.5110595398</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G56" s="16">
         <v>84.546898124199998</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H56" s="16">
         <v>108.8201840744</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I56" s="16">
         <v>107.221</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J56" s="16">
         <v>100.31</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K56" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="19">
         <v>107.867</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="19">
         <v>108.2641243905</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="19">
         <v>84.0993629062</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H57" s="19">
         <v>108.6866229954</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I57" s="19">
         <v>104.646</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J57" s="19">
         <v>100.32599999999999</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K57" s="19">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="16">
         <v>107.444</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="16">
         <v>108.2290316098</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="16">
         <v>83.373654861600002</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H58" s="16">
         <v>108.8298342292</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I58" s="16">
         <v>103.541</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J58" s="16">
         <v>100.34</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K58" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="19">
         <v>106.74299999999999</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="19">
         <v>108.1151913336</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="19">
         <v>84.228004732399995</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="19">
         <v>108.5274450755</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="19">
         <v>103.54300000000001</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J59" s="19">
         <v>100.34</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K59" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="16">
         <v>106.16200000000001</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="16">
         <v>108.1896853977</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G60" s="16">
         <v>82.231994422100001</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H60" s="16">
         <v>109.31474425979999</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I60" s="16">
         <v>103.61</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J60" s="16">
         <v>100.34</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K60" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="19">
         <v>105.755</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="19">
         <v>107.4875171243</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="19">
         <v>76.507181751999994</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H61" s="19">
         <v>109.6777595691</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="19">
         <v>103.61</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J61" s="19">
         <v>100.34</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K61" s="19">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="16">
         <v>106.83799999999999</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="16">
         <v>107.5306793508</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="16">
         <v>80.8593909067</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H62" s="16">
         <v>108.703723247</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I62" s="16">
         <v>103.661</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J62" s="16">
         <v>100.34</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="16">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="18">
         <v>2020</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="19">
         <v>106.889</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="19">
         <v>107.2442089382</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="19">
         <v>82.836861846299996</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="19">
         <v>107.4631074917</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="19">
         <v>103.661</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J63" s="19">
         <v>100.34099999999999</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="19">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="21">
         <v>2020</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="22">
         <v>106.447</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="22">
         <v>107.11553304500001</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="22">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="22">
         <v>86.778005823699999</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="22">
         <v>106.9248328514</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="22">
         <v>103.367</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="22">
         <v>100.339</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="22">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="18">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="19">
         <v>105.934</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="19">
         <v>106.0505331862</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="19">
         <v>127.36462816709999</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="19">
         <v>104.9942430431</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="19">
         <v>102.95099999999999</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J65" s="19">
         <v>100.331</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K65" s="19">
         <v>98.78</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="16">
         <v>105.346</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="16">
         <v>105.65671461060001</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G66" s="16">
         <v>101.0973028073</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H66" s="16">
         <v>104.4576847797</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I66" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J66" s="16">
         <v>100.324</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K66" s="16">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="18">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="19">
         <v>104.503</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="19">
         <v>105.1002407181</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="19">
         <v>88.301013724200004</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H67" s="19">
         <v>104.50205451870001</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I67" s="19">
         <v>102.90300000000001</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J67" s="19">
         <v>100.29600000000001</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K67" s="19">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="16">
         <v>103.94199999999999</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="16">
         <v>104.6074519548</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G68" s="16">
         <v>88.107262410499999</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H68" s="16">
         <v>104.3079456359</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I68" s="16">
         <v>102.654</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J68" s="16">
         <v>100.29</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K68" s="16">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="18">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="19">
         <v>103.67</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="19">
         <v>104.5187172775</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="19">
         <v>92.899994051799993</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H69" s="19">
         <v>104.285820413</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I69" s="19">
         <v>102.604</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J69" s="19">
         <v>100.274</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K69" s="19">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="16">
         <v>103.687</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="16">
         <v>103.9281222685</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="16">
         <v>100.6849220455</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="16">
         <v>115.8409110419</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H70" s="16">
         <v>104.2691868668</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I70" s="16">
         <v>102.57599999999999</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J70" s="16">
         <v>100.196</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K70" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="19">
         <v>103.29900000000001</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="19">
         <v>103.4436474945</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="19">
         <v>100.6191914481</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="19">
         <v>107.6048597489</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="19">
         <v>104.7408219759</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I71" s="19">
         <v>101.68300000000001</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="19">
         <v>100.119</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K71" s="19">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="16">
         <v>103.233</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="16">
         <v>103.33167816460001</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G72" s="16">
         <v>86.898257620999999</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H72" s="16">
         <v>105.3054014635</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I72" s="16">
         <v>101.509</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J72" s="16">
         <v>100.119</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K72" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="19">
         <v>103.53100000000001</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="19">
         <v>103.10258831190001</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="19">
         <v>100.6191914481</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="19">
         <v>96.879318888</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H73" s="19">
         <v>104.9491652918</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I73" s="19">
         <v>101.459</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J73" s="19">
         <v>100.119</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K73" s="19">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="16">
         <v>103.476</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="16">
         <v>102.69294294469999</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="16">
         <v>100</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="16">
         <v>81.499577131300001</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H74" s="16">
         <v>104.44624704749999</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I74" s="16">
         <v>101.166</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J74" s="16">
         <v>100.098</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K74" s="16">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="18">
         <v>2019</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="19">
         <v>103.07899999999999</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="19">
         <v>102.5321554705</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="19">
         <v>100</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="19">
         <v>76.553159667299994</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="19">
         <v>103.8610611723</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="19">
         <v>100.72499999999999</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="19">
         <v>100.081</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="19">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="20">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="21">
         <v>2019</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="22">
         <v>103.108</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="22">
         <v>102.47200356979999</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="22">
         <v>100</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="22">
         <v>78.7293169334</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="22">
         <v>102.4734794414</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="22">
         <v>100.42</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="22">
         <v>100.036</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="22">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="19">
         <v>103.02</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="19">
         <v>101.4882812159</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="19">
         <v>100</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="19">
         <v>116.2152458092</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="19">
         <v>101.1447321365</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J77" s="19">
         <v>100.03400000000001</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K77" s="19">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="19">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="16">
         <v>102.303</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="16">
         <v>100.90290467379999</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="16">
         <v>100</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G78" s="16">
         <v>87.221876645500004</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H78" s="16">
         <v>101.16638118420001</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I78" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J78" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K78" s="16">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="19">
         <v>101.44</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="19">
         <v>100.78655579709999</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="19">
         <v>100</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="19">
         <v>85.369691303899998</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H79" s="19">
         <v>100.05389573230001</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I79" s="19">
         <v>100.52500000000001</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J79" s="19">
         <v>100.021</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K79" s="19">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="16">
         <v>100.917</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="16">
         <v>100.4677127848</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="16">
         <v>100</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G80" s="16">
         <v>75.626050242900007</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H80" s="16">
         <v>100.0190239563</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I80" s="16">
         <v>100.126</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J80" s="16">
         <v>100</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K80" s="16">
         <v>99.77</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="18">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="19">
         <v>100.492</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="19">
         <v>100.22727446899999</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="19">
         <v>100</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="19">
         <v>79.518260205800004</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H81" s="19">
         <v>99.844190958599995</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I81" s="19">
         <v>100.05200000000001</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J81" s="19">
         <v>100</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K81" s="19">
         <v>99.83</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="16">
         <v>99.909099104513999</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="16">
         <v>99.998359331854999</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="16">
         <v>100</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="16">
         <v>101.704654973457</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H82" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I82" s="16">
         <v>100.084132399041</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J82" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K82" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="19">
         <v>99.376464931786998</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="19">
         <v>99.990951002754002</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="19">
         <v>100</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="19">
         <v>99.195118819963994</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H83" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I83" s="19">
         <v>100.145214825742</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J83" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K83" s="19">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="16">
         <v>98.994080173086999</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="16">
         <v>99.984814220586003</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="16">
         <v>100</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="16">
         <v>90.757329060767006</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H84" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I84" s="16">
         <v>99.721095334685998</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J84" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K84" s="16">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C85" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="19">
         <v>99.154847046097004</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="19">
         <v>99.833850058503003</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="19">
         <v>100</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="19">
         <v>74.377335587917997</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H85" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I85" s="19">
         <v>100.50825189009799</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J85" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K85" s="19">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19">
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C86" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="16">
         <v>99.492156980588007</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="16">
         <v>99.599241644515999</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="16">
         <v>86.603489152118996</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K86" s="16">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="18">
         <v>2018</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C87" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="19">
         <v>99.171374481640001</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="19">
         <v>99.404629920302</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="19">
         <v>99.775409784431005</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="19">
         <v>79.172819495607996</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H87" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I87" s="19">
         <v>100.413747003504</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J87" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K87" s="19">
         <v>100.841596924303</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="19">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D88" s="16">
         <v>98.794999699501005</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="16">
         <v>99.150938662095996</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G88" s="16">
         <v>72.042283790854</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H88" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I88" s="16">
         <v>100.245482205421</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J88" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K88" s="16">
         <v>99.852310289049996</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K92" s="5"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K93" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27476EF9-6BDF-48CB-B969-C83D4EB0CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A214235-C6EF-49FB-89CB-E35D9D2037BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -301,12 +301,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -321,15 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -369,6 +371,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,13 +539,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -555,6 +563,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -606,8 +621,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K88" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B5:K89" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -853,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -915,180 +930,180 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>2024</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="16">
-        <v>137.42400000000001</v>
-      </c>
-      <c r="E6" s="16">
-        <v>126.1506342819</v>
-      </c>
-      <c r="F6" s="16">
-        <v>107.69043314149999</v>
-      </c>
-      <c r="G6" s="16">
-        <v>163.0304427657</v>
+        <v>137.94900000000001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>126.988350193</v>
+      </c>
+      <c r="F6" s="17">
+        <v>107.7500347802</v>
+      </c>
+      <c r="G6" s="17">
+        <v>205.85461125200001</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
+        <v>124.09699999999999</v>
+      </c>
+      <c r="J6" s="17">
+        <v>100.60044724230001</v>
+      </c>
+      <c r="K6" s="17">
+        <v>89.114043740699998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13">
+        <v>137.42400000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>126.1506342819</v>
+      </c>
+      <c r="F7" s="13">
+        <v>107.69043314149999</v>
+      </c>
+      <c r="G7" s="13">
+        <v>163.0304427657</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="13">
         <v>123.661</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J7" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K7" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="18">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="19">
-        <v>136.828</v>
-      </c>
-      <c r="E7" s="20">
-        <v>125.8430792046</v>
-      </c>
-      <c r="F7" s="20">
-        <v>107.63083150289999</v>
-      </c>
-      <c r="G7" s="20">
-        <v>150.05764800759999</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="20">
-        <v>123.35899999999999</v>
-      </c>
-      <c r="J7" s="20">
-        <v>100.6</v>
-      </c>
-      <c r="K7" s="20">
-        <v>89.114000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15">
         <v>2024</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="16">
-        <v>136.08000000000001</v>
-      </c>
-      <c r="E8" s="16">
-        <v>125.9243949896</v>
-      </c>
-      <c r="F8" s="16">
-        <v>107.5637453439</v>
-      </c>
-      <c r="G8" s="16">
-        <v>140.67318630739999</v>
+        <v>136.828</v>
+      </c>
+      <c r="E8" s="17">
+        <v>125.8430792046</v>
+      </c>
+      <c r="F8" s="17">
+        <v>107.63083150289999</v>
+      </c>
+      <c r="G8" s="17">
+        <v>150.05764800759999</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K8" s="17">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="E9" s="13">
+        <v>125.9243949896</v>
+      </c>
+      <c r="F9" s="13">
+        <v>107.5637453439</v>
+      </c>
+      <c r="G9" s="13">
+        <v>140.67318630739999</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="13">
+        <v>123.35899999999999</v>
+      </c>
+      <c r="J9" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="13">
         <v>89.114043740699998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="18">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19">
-        <v>136.01300000000001</v>
-      </c>
-      <c r="E9" s="20">
-        <v>125.35642665260001</v>
-      </c>
-      <c r="F9" s="20">
-        <v>107.5116282255</v>
-      </c>
-      <c r="G9" s="20">
-        <v>138.501613185</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="20">
-        <v>123.438</v>
-      </c>
-      <c r="J9" s="20">
-        <v>100.6</v>
-      </c>
-      <c r="K9" s="20">
-        <v>89.114000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -1096,62 +1111,62 @@
         <v>2024</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16">
+        <v>136.01300000000001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>125.35642665260001</v>
+      </c>
+      <c r="F10" s="17">
+        <v>107.5116282255</v>
+      </c>
+      <c r="G10" s="17">
+        <v>138.501613185</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="17">
+        <v>123.438</v>
+      </c>
+      <c r="J10" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K10" s="17">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J11" s="13">
         <v>100.6</v>
       </c>
-      <c r="K10" s="16">
-        <v>89.114000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="18">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="E11" s="19">
-        <v>123.454094798</v>
-      </c>
-      <c r="F11" s="19">
-        <v>106.0396352632</v>
-      </c>
-      <c r="G11" s="19">
-        <v>147.441</v>
-      </c>
-      <c r="H11" s="19">
-        <v>136.3792212685</v>
-      </c>
-      <c r="I11" s="19">
-        <v>123.023</v>
-      </c>
-      <c r="J11" s="19">
-        <v>100.6</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="K11" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
@@ -1160,25 +1175,25 @@
         <v>2024</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="16">
-        <v>134.08699999999999</v>
+        <v>134.59399999999999</v>
       </c>
       <c r="E12" s="16">
-        <v>122.97212671689999</v>
+        <v>123.454094798</v>
       </c>
       <c r="F12" s="16">
-        <v>105.9659254435</v>
+        <v>106.0396352632</v>
       </c>
       <c r="G12" s="16">
-        <v>143.96444227999999</v>
+        <v>147.441</v>
       </c>
       <c r="H12" s="16">
-        <v>136.17550477169999</v>
+        <v>136.3792212685</v>
       </c>
       <c r="I12" s="16">
-        <v>122.36</v>
+        <v>123.023</v>
       </c>
       <c r="J12" s="16">
         <v>100.6</v>
@@ -1188,34 +1203,34 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
-        <v>134.33600000000001</v>
-      </c>
-      <c r="E13" s="19">
-        <v>123.0447919639</v>
-      </c>
-      <c r="F13" s="19">
-        <v>105.8761867728</v>
-      </c>
-      <c r="G13" s="19">
-        <v>137.01147154309999</v>
-      </c>
-      <c r="H13" s="19">
-        <v>135.70240732440001</v>
-      </c>
-      <c r="I13" s="19">
-        <v>120.79900000000001</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13">
+        <v>134.08699999999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>122.97212671689999</v>
+      </c>
+      <c r="F13" s="13">
+        <v>105.9659254435</v>
+      </c>
+      <c r="G13" s="13">
+        <v>143.96444227999999</v>
+      </c>
+      <c r="H13" s="13">
+        <v>136.17550477169999</v>
+      </c>
+      <c r="I13" s="13">
+        <v>122.36</v>
+      </c>
+      <c r="J13" s="13">
         <v>100.6</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
@@ -1224,25 +1239,25 @@
         <v>2024</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="16">
-        <v>134.065</v>
+        <v>134.33600000000001</v>
       </c>
       <c r="E14" s="16">
-        <v>122.89707405510001</v>
+        <v>123.0447919639</v>
       </c>
       <c r="F14" s="16">
-        <v>105.7944625276</v>
+        <v>105.8761867728</v>
       </c>
       <c r="G14" s="16">
-        <v>174.2144001913</v>
+        <v>137.01147154309999</v>
       </c>
       <c r="H14" s="16">
-        <v>134.95018121690001</v>
+        <v>135.70240732440001</v>
       </c>
       <c r="I14" s="16">
-        <v>120.56100000000001</v>
+        <v>120.79900000000001</v>
       </c>
       <c r="J14" s="16">
         <v>100.6</v>
@@ -1252,163 +1267,163 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13">
+        <v>134.065</v>
+      </c>
+      <c r="E15" s="13">
+        <v>122.89707405510001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>105.7944625276</v>
+      </c>
+      <c r="G15" s="13">
+        <v>174.2144001913</v>
+      </c>
+      <c r="H15" s="13">
+        <v>134.95018121690001</v>
+      </c>
+      <c r="I15" s="13">
+        <v>120.56100000000001</v>
+      </c>
+      <c r="J15" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K15" s="13">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="16">
         <v>119.937</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="16">
         <v>100.6</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="21">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D17" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="19">
         <v>132.71302725059999</v>
-      </c>
-      <c r="I16" s="22">
-        <v>119.91500000000001</v>
-      </c>
-      <c r="J16" s="22">
-        <v>100.6</v>
-      </c>
-      <c r="K16" s="22">
-        <v>89.093999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="19">
-        <v>132.37299999999999</v>
-      </c>
-      <c r="E17" s="19">
-        <v>121.6574303613</v>
-      </c>
-      <c r="F17" s="19">
-        <v>105.549289792</v>
-      </c>
-      <c r="G17" s="19">
-        <v>182.3815293733</v>
-      </c>
-      <c r="H17" s="19">
-        <v>129.82782886429999</v>
       </c>
       <c r="I17" s="19">
         <v>119.91500000000001</v>
       </c>
       <c r="J17" s="19">
-        <v>99.236999999999995</v>
+        <v>100.6</v>
       </c>
       <c r="K17" s="19">
-        <v>88.957999999999998</v>
+        <v>89.093999999999994</v>
       </c>
     </row>
     <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="16">
-        <v>131.44499999999999</v>
+        <v>132.37299999999999</v>
       </c>
       <c r="E18" s="16">
-        <v>120.8160445282</v>
+        <v>121.6574303613</v>
       </c>
       <c r="F18" s="16">
-        <v>105.4675655467</v>
+        <v>105.549289792</v>
       </c>
       <c r="G18" s="16">
-        <v>157.47167143870001</v>
+        <v>182.3815293733</v>
       </c>
       <c r="H18" s="16">
-        <v>130.18555967200001</v>
+        <v>129.82782886429999</v>
       </c>
       <c r="I18" s="16">
-        <v>119.861</v>
+        <v>119.91500000000001</v>
       </c>
       <c r="J18" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="23">
+        <v>88.957999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13">
+        <v>131.44499999999999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>120.8160445282</v>
+      </c>
+      <c r="F19" s="13">
+        <v>105.4675655467</v>
+      </c>
+      <c r="G19" s="13">
+        <v>157.47167143870001</v>
+      </c>
+      <c r="H19" s="13">
+        <v>130.18555967200001</v>
+      </c>
+      <c r="I19" s="13">
+        <v>119.861</v>
+      </c>
+      <c r="J19" s="13">
+        <v>99.236999999999995</v>
+      </c>
+      <c r="K19" s="13">
         <v>88.673000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="19">
-        <v>130.60900000000001</v>
-      </c>
-      <c r="E19" s="19">
-        <v>120.4862973733</v>
-      </c>
-      <c r="F19" s="19">
-        <v>105.38584130149999</v>
-      </c>
-      <c r="G19" s="19">
-        <v>145.65313447969999</v>
-      </c>
-      <c r="H19" s="19">
-        <v>130.1120315803</v>
-      </c>
-      <c r="I19" s="19">
-        <v>118.376</v>
-      </c>
-      <c r="J19" s="19">
-        <v>100.6</v>
-      </c>
-      <c r="K19" s="19">
-        <v>89.010999999999996</v>
       </c>
     </row>
     <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1416,63 +1431,63 @@
         <v>2023</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="16">
-        <v>130.12</v>
+        <v>130.60900000000001</v>
       </c>
       <c r="E20" s="16">
-        <v>120.4973605119</v>
+        <v>120.4862973733</v>
       </c>
       <c r="F20" s="16">
-        <v>105.3041170563</v>
+        <v>105.38584130149999</v>
       </c>
       <c r="G20" s="16">
-        <v>128.47314640139999</v>
+        <v>145.65313447969999</v>
       </c>
       <c r="H20" s="16">
-        <v>129.75090098219999</v>
+        <v>130.1120315803</v>
       </c>
       <c r="I20" s="16">
-        <v>118.788</v>
+        <v>118.376</v>
       </c>
       <c r="J20" s="16">
         <v>100.6</v>
       </c>
       <c r="K20" s="16">
+        <v>89.010999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="13">
+        <v>130.12</v>
+      </c>
+      <c r="E21" s="13">
+        <v>120.4973605119</v>
+      </c>
+      <c r="F21" s="13">
+        <v>105.3041170563</v>
+      </c>
+      <c r="G21" s="13">
+        <v>128.47314640139999</v>
+      </c>
+      <c r="H21" s="13">
+        <v>129.75090098219999</v>
+      </c>
+      <c r="I21" s="13">
+        <v>118.788</v>
+      </c>
+      <c r="J21" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K21" s="13">
         <v>89.073999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="19">
-        <v>129.54499999999999</v>
-      </c>
-      <c r="E21" s="19">
-        <v>120.39914263439999</v>
-      </c>
-      <c r="F21" s="19">
-        <v>105.22239281109999</v>
-      </c>
-      <c r="G21" s="19">
-        <v>127.9599808845</v>
-      </c>
-      <c r="H21" s="19">
-        <v>129.0779724994</v>
-      </c>
-      <c r="I21" s="19">
-        <v>118.574</v>
-      </c>
-      <c r="J21" s="19">
-        <v>100.6</v>
-      </c>
-      <c r="K21" s="19">
-        <v>89.128</v>
       </c>
     </row>
     <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1480,62 +1495,62 @@
         <v>2023</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="16">
-        <v>128.83199999999999</v>
+        <v>129.54499999999999</v>
       </c>
       <c r="E22" s="16">
-        <v>120.08299225419999</v>
+        <v>120.39914263439999</v>
       </c>
       <c r="F22" s="16">
-        <v>105.1406685659</v>
+        <v>105.22239281109999</v>
       </c>
       <c r="G22" s="16">
-        <v>146.74874433080001</v>
+        <v>127.9599808845</v>
       </c>
       <c r="H22" s="16">
-        <v>129.31384858050001</v>
+        <v>129.0779724994</v>
       </c>
       <c r="I22" s="16">
-        <v>118.285</v>
+        <v>118.574</v>
       </c>
       <c r="J22" s="16">
         <v>100.6</v>
       </c>
       <c r="K22" s="16">
-        <v>89.182000000000002</v>
+        <v>89.128</v>
       </c>
     </row>
     <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="18">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="19">
-        <v>128.214</v>
-      </c>
-      <c r="E23" s="19">
-        <v>119.82760529700001</v>
-      </c>
-      <c r="F23" s="19">
-        <v>105.05894432069999</v>
-      </c>
-      <c r="G23" s="19">
-        <v>125.4398687573</v>
-      </c>
-      <c r="H23" s="19">
-        <v>129.16292087080001</v>
-      </c>
-      <c r="I23" s="19">
-        <v>117.982</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="C23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="13">
+        <v>128.83199999999999</v>
+      </c>
+      <c r="E23" s="13">
+        <v>120.08299225419999</v>
+      </c>
+      <c r="F23" s="13">
+        <v>105.1406685659</v>
+      </c>
+      <c r="G23" s="13">
+        <v>146.74874433080001</v>
+      </c>
+      <c r="H23" s="13">
+        <v>129.31384858050001</v>
+      </c>
+      <c r="I23" s="13">
+        <v>118.285</v>
+      </c>
+      <c r="J23" s="13">
         <v>100.6</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
@@ -1544,62 +1559,62 @@
         <v>2023</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="16">
-        <v>128.084</v>
+        <v>128.214</v>
       </c>
       <c r="E24" s="16">
-        <v>119.8233656324</v>
+        <v>119.82760529700001</v>
       </c>
       <c r="F24" s="16">
-        <v>104.89549583020001</v>
+        <v>105.05894432069999</v>
       </c>
       <c r="G24" s="16">
-        <v>117.17254640749999</v>
+        <v>125.4398687573</v>
       </c>
       <c r="H24" s="16">
-        <v>128.9614286716</v>
+        <v>129.16292087080001</v>
       </c>
       <c r="I24" s="16">
-        <v>117.361</v>
+        <v>117.982</v>
       </c>
       <c r="J24" s="16">
         <v>100.6</v>
       </c>
       <c r="K24" s="16">
-        <v>90.105999999999995</v>
+        <v>89.182000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="18">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="19">
-        <v>128.363</v>
-      </c>
-      <c r="E25" s="19">
-        <v>119.66934975220001</v>
-      </c>
-      <c r="F25" s="19">
-        <v>104.71978870300001</v>
-      </c>
-      <c r="G25" s="19">
-        <v>111.8321814474</v>
-      </c>
-      <c r="H25" s="19">
-        <v>129.31726497450001</v>
-      </c>
-      <c r="I25" s="19">
-        <v>117.387</v>
-      </c>
-      <c r="J25" s="19">
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="13">
+        <v>128.084</v>
+      </c>
+      <c r="E25" s="13">
+        <v>119.8233656324</v>
+      </c>
+      <c r="F25" s="13">
+        <v>104.89549583020001</v>
+      </c>
+      <c r="G25" s="13">
+        <v>117.17254640749999</v>
+      </c>
+      <c r="H25" s="13">
+        <v>128.9614286716</v>
+      </c>
+      <c r="I25" s="13">
+        <v>117.361</v>
+      </c>
+      <c r="J25" s="13">
         <v>100.6</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
@@ -1608,25 +1623,25 @@
         <v>2023</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="16">
-        <v>128.38900000000001</v>
+        <v>128.363</v>
       </c>
       <c r="E26" s="16">
-        <v>118.9558148927</v>
+        <v>119.66934975220001</v>
       </c>
       <c r="F26" s="16">
-        <v>104.4868746042</v>
+        <v>104.71978870300001</v>
       </c>
       <c r="G26" s="16">
-        <v>132.87275808659999</v>
+        <v>111.8321814474</v>
       </c>
       <c r="H26" s="16">
-        <v>129.457527414</v>
+        <v>129.31726497450001</v>
       </c>
       <c r="I26" s="16">
-        <v>117.16200000000001</v>
+        <v>117.387</v>
       </c>
       <c r="J26" s="16">
         <v>100.6</v>
@@ -1636,99 +1651,99 @@
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="13">
+        <v>128.38900000000001</v>
+      </c>
+      <c r="E27" s="13">
+        <v>118.9558148927</v>
+      </c>
+      <c r="F27" s="13">
+        <v>104.4868746042</v>
+      </c>
+      <c r="G27" s="13">
+        <v>132.87275808659999</v>
+      </c>
+      <c r="H27" s="13">
+        <v>129.457527414</v>
+      </c>
+      <c r="I27" s="13">
+        <v>117.16200000000001</v>
+      </c>
+      <c r="J27" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K27" s="13">
+        <v>90.105999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="16">
         <v>100.6</v>
       </c>
-      <c r="K27" s="19">
-        <v>90.105999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="21">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="22">
-        <v>127.336</v>
-      </c>
-      <c r="E28" s="22">
-        <v>117.6482068262</v>
-      </c>
-      <c r="F28" s="22">
-        <v>103.6972441545</v>
-      </c>
-      <c r="G28" s="22">
-        <v>105.4811752151</v>
-      </c>
-      <c r="H28" s="22">
-        <v>127.5767484142</v>
-      </c>
-      <c r="I28" s="22">
-        <v>115.95099999999999</v>
-      </c>
-      <c r="J28" s="22">
-        <v>100.6</v>
-      </c>
-      <c r="K28" s="22">
+      <c r="K28" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" s="18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="19">
-        <v>126.47799999999999</v>
+        <v>127.336</v>
       </c>
       <c r="E29" s="19">
-        <v>116.82049176770001</v>
+        <v>117.6482068262</v>
       </c>
       <c r="F29" s="19">
         <v>103.6972441545</v>
       </c>
       <c r="G29" s="19">
-        <v>139.65915062159999</v>
+        <v>105.4811752151</v>
       </c>
       <c r="H29" s="19">
-        <v>124.6968379873</v>
+        <v>127.5767484142</v>
       </c>
       <c r="I29" s="19">
-        <v>115.741</v>
+        <v>115.95099999999999</v>
       </c>
       <c r="J29" s="19">
         <v>100.6</v>
       </c>
       <c r="K29" s="19">
-        <v>90.87</v>
+        <v>90.105999999999995</v>
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1736,25 +1751,25 @@
         <v>2022</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="16">
-        <v>125.997</v>
+        <v>126.47799999999999</v>
       </c>
       <c r="E30" s="16">
-        <v>116.0450620779</v>
+        <v>116.82049176770001</v>
       </c>
       <c r="F30" s="16">
         <v>103.6972441545</v>
       </c>
       <c r="G30" s="16">
-        <v>132.31738618719999</v>
+        <v>139.65915062159999</v>
       </c>
       <c r="H30" s="16">
-        <v>124.54272655050001</v>
+        <v>124.6968379873</v>
       </c>
       <c r="I30" s="16">
-        <v>115.336</v>
+        <v>115.741</v>
       </c>
       <c r="J30" s="16">
         <v>100.6</v>
@@ -1764,35 +1779,35 @@
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="18">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="19">
-        <v>125.276</v>
-      </c>
-      <c r="E31" s="19">
-        <v>115.94924330409999</v>
-      </c>
-      <c r="F31" s="19">
-        <v>103.2886229284</v>
-      </c>
-      <c r="G31" s="19">
-        <v>119.8275041996</v>
-      </c>
-      <c r="H31" s="19">
-        <v>124.65542954270001</v>
-      </c>
-      <c r="I31" s="19">
-        <v>114.956</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="C31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="13">
+        <v>125.997</v>
+      </c>
+      <c r="E31" s="13">
+        <v>116.0450620779</v>
+      </c>
+      <c r="F31" s="13">
+        <v>103.6972441545</v>
+      </c>
+      <c r="G31" s="13">
+        <v>132.31738618719999</v>
+      </c>
+      <c r="H31" s="13">
+        <v>124.54272655050001</v>
+      </c>
+      <c r="I31" s="13">
+        <v>115.336</v>
+      </c>
+      <c r="J31" s="13">
         <v>100.6</v>
       </c>
-      <c r="K31" s="19">
-        <v>90.855999999999995</v>
+      <c r="K31" s="13">
+        <v>90.87</v>
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1800,63 +1815,63 @@
         <v>2022</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="16">
-        <v>124.571</v>
+        <v>125.276</v>
       </c>
       <c r="E32" s="16">
-        <v>115.74943222349999</v>
+        <v>115.94924330409999</v>
       </c>
       <c r="F32" s="16">
         <v>103.2886229284</v>
       </c>
       <c r="G32" s="16">
-        <v>117.1841235999</v>
+        <v>119.8275041996</v>
       </c>
       <c r="H32" s="16">
-        <v>124.1308784126</v>
+        <v>124.65542954270001</v>
       </c>
       <c r="I32" s="16">
-        <v>115.31699999999999</v>
+        <v>114.956</v>
       </c>
       <c r="J32" s="16">
         <v>100.6</v>
       </c>
       <c r="K32" s="16">
+        <v>90.855999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="13">
+        <v>124.571</v>
+      </c>
+      <c r="E33" s="13">
+        <v>115.74943222349999</v>
+      </c>
+      <c r="F33" s="13">
+        <v>103.2886229284</v>
+      </c>
+      <c r="G33" s="13">
+        <v>117.1841235999</v>
+      </c>
+      <c r="H33" s="13">
+        <v>124.1308784126</v>
+      </c>
+      <c r="I33" s="13">
+        <v>115.31699999999999</v>
+      </c>
+      <c r="J33" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K33" s="13">
         <v>94.805999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="19">
-        <v>123.803</v>
-      </c>
-      <c r="E33" s="19">
-        <v>115.41491664279999</v>
-      </c>
-      <c r="F33" s="19">
-        <v>103.2886229284</v>
-      </c>
-      <c r="G33" s="19">
-        <v>116.4447289605</v>
-      </c>
-      <c r="H33" s="19">
-        <v>125.9840309911</v>
-      </c>
-      <c r="I33" s="19">
-        <v>115.134</v>
-      </c>
-      <c r="J33" s="19">
-        <v>100.59</v>
-      </c>
-      <c r="K33" s="19">
-        <v>98.724999999999994</v>
       </c>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1864,62 +1879,62 @@
         <v>2022</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16">
-        <v>122.94799999999999</v>
+        <v>123.803</v>
       </c>
       <c r="E34" s="16">
-        <v>114.87544210910001</v>
+        <v>115.41491664279999</v>
       </c>
       <c r="F34" s="16">
         <v>103.2886229284</v>
       </c>
       <c r="G34" s="16">
-        <v>137.69700215349999</v>
+        <v>116.4447289605</v>
       </c>
       <c r="H34" s="16">
-        <v>125.36702750089999</v>
+        <v>125.9840309911</v>
       </c>
       <c r="I34" s="16">
-        <v>114.389</v>
+        <v>115.134</v>
       </c>
       <c r="J34" s="16">
         <v>100.59</v>
       </c>
       <c r="K34" s="16">
-        <v>98.709000000000003</v>
+        <v>98.724999999999994</v>
       </c>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="19">
-        <v>122.044</v>
-      </c>
-      <c r="E35" s="19">
-        <v>113.8040964162</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="13">
+        <v>122.94799999999999</v>
+      </c>
+      <c r="E35" s="13">
+        <v>114.87544210910001</v>
+      </c>
+      <c r="F35" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G35" s="19">
-        <v>130.85123030770001</v>
-      </c>
-      <c r="H35" s="19">
-        <v>125.1867510614</v>
-      </c>
-      <c r="I35" s="19">
-        <v>113.178</v>
-      </c>
-      <c r="J35" s="19">
+      <c r="G35" s="13">
+        <v>137.69700215349999</v>
+      </c>
+      <c r="H35" s="13">
+        <v>125.36702750089999</v>
+      </c>
+      <c r="I35" s="13">
+        <v>114.389</v>
+      </c>
+      <c r="J35" s="13">
         <v>100.59</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
@@ -1928,62 +1943,62 @@
         <v>2022</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="16">
-        <v>121.02200000000001</v>
+        <v>122.044</v>
       </c>
       <c r="E36" s="16">
-        <v>112.7183662006</v>
+        <v>113.8040964162</v>
       </c>
       <c r="F36" s="16">
-        <v>102.4713804763</v>
+        <v>103.2886229284</v>
       </c>
       <c r="G36" s="16">
-        <v>126.41473992429999</v>
+        <v>130.85123030770001</v>
       </c>
       <c r="H36" s="16">
-        <v>124.83942508449999</v>
+        <v>125.1867510614</v>
       </c>
       <c r="I36" s="16">
-        <v>113.289</v>
+        <v>113.178</v>
       </c>
       <c r="J36" s="16">
-        <v>100.56100000000001</v>
+        <v>100.59</v>
       </c>
       <c r="K36" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="19">
-        <v>120.809</v>
-      </c>
-      <c r="E37" s="19">
-        <v>112.48503934839999</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="C37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="13">
+        <v>121.02200000000001</v>
+      </c>
+      <c r="E37" s="13">
+        <v>112.7183662006</v>
+      </c>
+      <c r="F37" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G37" s="19">
-        <v>129.87573640970001</v>
-      </c>
-      <c r="H37" s="19">
-        <v>124.0503181081</v>
-      </c>
-      <c r="I37" s="19">
-        <v>113.02800000000001</v>
-      </c>
-      <c r="J37" s="19">
+      <c r="G37" s="13">
+        <v>126.41473992429999</v>
+      </c>
+      <c r="H37" s="13">
+        <v>124.83942508449999</v>
+      </c>
+      <c r="I37" s="13">
+        <v>113.289</v>
+      </c>
+      <c r="J37" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
@@ -1992,127 +2007,127 @@
         <v>2022</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="16">
-        <v>120.15900000000001</v>
+        <v>120.809</v>
       </c>
       <c r="E38" s="16">
-        <v>111.97977889560001</v>
+        <v>112.48503934839999</v>
       </c>
       <c r="F38" s="16">
         <v>102.4713804763</v>
       </c>
       <c r="G38" s="16">
-        <v>124.7535276317</v>
+        <v>129.87573640970001</v>
       </c>
       <c r="H38" s="16">
-        <v>122.8708474534</v>
+        <v>124.0503181081</v>
       </c>
       <c r="I38" s="16">
-        <v>113.009</v>
+        <v>113.02800000000001</v>
       </c>
       <c r="J38" s="16">
         <v>100.56100000000001</v>
       </c>
       <c r="K38" s="16">
+        <v>98.709000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="13">
+        <v>120.15900000000001</v>
+      </c>
+      <c r="E39" s="13">
+        <v>111.97977889560001</v>
+      </c>
+      <c r="F39" s="13">
+        <v>102.4713804763</v>
+      </c>
+      <c r="G39" s="13">
+        <v>124.7535276317</v>
+      </c>
+      <c r="H39" s="13">
+        <v>122.8708474534</v>
+      </c>
+      <c r="I39" s="13">
+        <v>113.009</v>
+      </c>
+      <c r="J39" s="13">
+        <v>100.56100000000001</v>
+      </c>
+      <c r="K39" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="18">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D40" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="16">
         <v>112.843</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="16">
         <v>100.559</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K40" s="16">
         <v>98.631</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="21">
-        <v>2022</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="22">
-        <v>118.002</v>
-      </c>
-      <c r="E40" s="22">
-        <v>111.4420556762</v>
-      </c>
-      <c r="F40" s="22">
-        <v>101.66052718260001</v>
-      </c>
-      <c r="G40" s="22">
-        <v>87.919810779000002</v>
-      </c>
-      <c r="H40" s="22">
-        <v>120.6612786609</v>
-      </c>
-      <c r="I40" s="22">
-        <v>112.705</v>
-      </c>
-      <c r="J40" s="22">
-        <v>100.56100000000001</v>
-      </c>
-      <c r="K40" s="22">
-        <v>98.602999999999994</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="19">
-        <v>117.30800000000001</v>
+        <v>118.002</v>
       </c>
       <c r="E41" s="19">
-        <v>110.93061004979999</v>
+        <v>111.4420556762</v>
       </c>
       <c r="F41" s="19">
-        <v>101.6316896603</v>
+        <v>101.66052718260001</v>
       </c>
       <c r="G41" s="19">
-        <v>144.0852936078</v>
+        <v>87.919810779000002</v>
       </c>
       <c r="H41" s="19">
-        <v>117.87569352689999</v>
+        <v>120.6612786609</v>
       </c>
       <c r="I41" s="19">
-        <v>112.803</v>
+        <v>112.705</v>
       </c>
       <c r="J41" s="19">
-        <v>100.551</v>
+        <v>100.56100000000001</v>
       </c>
       <c r="K41" s="19">
-        <v>98.575000000000003</v>
+        <v>98.602999999999994</v>
       </c>
     </row>
     <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2120,63 +2135,63 @@
         <v>2021</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="16">
-        <v>116.884</v>
+        <v>117.30800000000001</v>
       </c>
       <c r="E42" s="16">
-        <v>110.2167299347</v>
+        <v>110.93061004979999</v>
       </c>
       <c r="F42" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G42" s="16">
-        <v>117.87173141300001</v>
+        <v>144.0852936078</v>
       </c>
       <c r="H42" s="16">
-        <v>117.71918006520001</v>
+        <v>117.87569352689999</v>
       </c>
       <c r="I42" s="16">
-        <v>112.76300000000001</v>
+        <v>112.803</v>
       </c>
       <c r="J42" s="16">
-        <v>100.54</v>
+        <v>100.551</v>
       </c>
       <c r="K42" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="18">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="19">
-        <v>115.56100000000001</v>
-      </c>
-      <c r="E43" s="19">
-        <v>109.85587154930001</v>
-      </c>
-      <c r="F43" s="19">
+      <c r="C43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="13">
+        <v>116.884</v>
+      </c>
+      <c r="E43" s="13">
+        <v>110.2167299347</v>
+      </c>
+      <c r="F43" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G43" s="19">
-        <v>107.4801111049</v>
-      </c>
-      <c r="H43" s="19">
-        <v>117.2036471113</v>
-      </c>
-      <c r="I43" s="19">
-        <v>112.779</v>
-      </c>
-      <c r="J43" s="19">
+      <c r="G43" s="13">
+        <v>117.87173141300001</v>
+      </c>
+      <c r="H43" s="13">
+        <v>117.71918006520001</v>
+      </c>
+      <c r="I43" s="13">
+        <v>112.76300000000001</v>
+      </c>
+      <c r="J43" s="13">
         <v>100.54</v>
       </c>
-      <c r="K43" s="19">
-        <v>98.588999999999999</v>
+      <c r="K43" s="13">
+        <v>98.575000000000003</v>
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2184,62 +2199,62 @@
         <v>2021</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="16">
-        <v>114.601</v>
+        <v>115.56100000000001</v>
       </c>
       <c r="E44" s="16">
-        <v>109.7934030607</v>
+        <v>109.85587154930001</v>
       </c>
       <c r="F44" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G44" s="16">
-        <v>97.468339390300002</v>
+        <v>107.4801111049</v>
       </c>
       <c r="H44" s="16">
-        <v>116.90260252749999</v>
+        <v>117.2036471113</v>
       </c>
       <c r="I44" s="16">
-        <v>111.345</v>
+        <v>112.779</v>
       </c>
       <c r="J44" s="16">
-        <v>100.523</v>
+        <v>100.54</v>
       </c>
       <c r="K44" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
     <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="18">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="19">
-        <v>113.899</v>
-      </c>
-      <c r="E45" s="19">
-        <v>109.6876007529</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="C45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="13">
+        <v>114.601</v>
+      </c>
+      <c r="E45" s="13">
+        <v>109.7934030607</v>
+      </c>
+      <c r="F45" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="19">
-        <v>103.9626342001</v>
-      </c>
-      <c r="H45" s="19">
-        <v>116.7589504195</v>
-      </c>
-      <c r="I45" s="19">
-        <v>111.09399999999999</v>
-      </c>
-      <c r="J45" s="19">
-        <v>100.521</v>
-      </c>
-      <c r="K45" s="19">
+      <c r="G45" s="13">
+        <v>97.468339390300002</v>
+      </c>
+      <c r="H45" s="13">
+        <v>116.90260252749999</v>
+      </c>
+      <c r="I45" s="13">
+        <v>111.345</v>
+      </c>
+      <c r="J45" s="13">
+        <v>100.523</v>
+      </c>
+      <c r="K45" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
@@ -2248,62 +2263,62 @@
         <v>2021</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="16">
-        <v>113.682</v>
+        <v>113.899</v>
       </c>
       <c r="E46" s="16">
-        <v>109.5082396111</v>
+        <v>109.6876007529</v>
       </c>
       <c r="F46" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G46" s="16">
-        <v>127.1166300499</v>
+        <v>103.9626342001</v>
       </c>
       <c r="H46" s="16">
-        <v>116.0583573286</v>
+        <v>116.7589504195</v>
       </c>
       <c r="I46" s="16">
-        <v>110.85299999999999</v>
+        <v>111.09399999999999</v>
       </c>
       <c r="J46" s="16">
-        <v>100.512</v>
+        <v>100.521</v>
       </c>
       <c r="K46" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="18">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="19">
-        <v>113.018</v>
-      </c>
-      <c r="E47" s="19">
-        <v>109.3611515443</v>
-      </c>
-      <c r="F47" s="19">
+      <c r="C47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="13">
+        <v>113.682</v>
+      </c>
+      <c r="E47" s="13">
+        <v>109.5082396111</v>
+      </c>
+      <c r="F47" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G47" s="19">
-        <v>127.6488519838</v>
-      </c>
-      <c r="H47" s="19">
-        <v>115.5054112312</v>
-      </c>
-      <c r="I47" s="19">
-        <v>110.64700000000001</v>
-      </c>
-      <c r="J47" s="19">
-        <v>100.503</v>
-      </c>
-      <c r="K47" s="19">
+      <c r="G47" s="13">
+        <v>127.1166300499</v>
+      </c>
+      <c r="H47" s="13">
+        <v>116.0583573286</v>
+      </c>
+      <c r="I47" s="13">
+        <v>110.85299999999999</v>
+      </c>
+      <c r="J47" s="13">
+        <v>100.512</v>
+      </c>
+      <c r="K47" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
@@ -2312,62 +2327,62 @@
         <v>2021</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="16">
-        <v>112.419</v>
+        <v>113.018</v>
       </c>
       <c r="E48" s="16">
-        <v>109.1398981391</v>
+        <v>109.3611515443</v>
       </c>
       <c r="F48" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G48" s="16">
-        <v>110.9052383991</v>
+        <v>127.6488519838</v>
       </c>
       <c r="H48" s="16">
-        <v>115.24268739839999</v>
+        <v>115.5054112312</v>
       </c>
       <c r="I48" s="16">
-        <v>110.613</v>
+        <v>110.64700000000001</v>
       </c>
       <c r="J48" s="16">
-        <v>100.504</v>
+        <v>100.503</v>
       </c>
       <c r="K48" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
     <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="18">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="19">
-        <v>112.19</v>
-      </c>
-      <c r="E49" s="19">
-        <v>109.1238791816</v>
-      </c>
-      <c r="F49" s="19">
-        <v>101.2984364707</v>
-      </c>
-      <c r="G49" s="19">
-        <v>92.423514952199994</v>
-      </c>
-      <c r="H49" s="19">
-        <v>114.6136060937</v>
-      </c>
-      <c r="I49" s="19">
+      <c r="C49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="13">
+        <v>112.419</v>
+      </c>
+      <c r="E49" s="13">
+        <v>109.1398981391</v>
+      </c>
+      <c r="F49" s="13">
+        <v>101.6316896603</v>
+      </c>
+      <c r="G49" s="13">
+        <v>110.9052383991</v>
+      </c>
+      <c r="H49" s="13">
+        <v>115.24268739839999</v>
+      </c>
+      <c r="I49" s="13">
         <v>110.613</v>
       </c>
-      <c r="J49" s="19">
-        <v>100.47</v>
-      </c>
-      <c r="K49" s="19">
+      <c r="J49" s="13">
+        <v>100.504</v>
+      </c>
+      <c r="K49" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
@@ -2376,127 +2391,127 @@
         <v>2021</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="16">
-        <v>111.824</v>
+        <v>112.19</v>
       </c>
       <c r="E50" s="16">
-        <v>108.98594320479999</v>
+        <v>109.1238791816</v>
       </c>
       <c r="F50" s="16">
-        <v>101.0405414316</v>
+        <v>101.2984364707</v>
       </c>
       <c r="G50" s="16">
-        <v>88.697327708700001</v>
+        <v>92.423514952199994</v>
       </c>
       <c r="H50" s="16">
-        <v>114.5144639519</v>
+        <v>114.6136060937</v>
       </c>
       <c r="I50" s="16">
-        <v>110.506</v>
+        <v>110.613</v>
       </c>
       <c r="J50" s="16">
-        <v>100.4</v>
+        <v>100.47</v>
       </c>
       <c r="K50" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
     <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="18">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="13">
+        <v>111.824</v>
+      </c>
+      <c r="E51" s="13">
+        <v>108.98594320479999</v>
+      </c>
+      <c r="F51" s="13">
+        <v>101.0405414316</v>
+      </c>
+      <c r="G51" s="13">
+        <v>88.697327708700001</v>
+      </c>
+      <c r="H51" s="13">
+        <v>114.5144639519</v>
+      </c>
+      <c r="I51" s="13">
+        <v>110.506</v>
+      </c>
+      <c r="J51" s="13">
+        <v>100.4</v>
+      </c>
+      <c r="K51" s="13">
+        <v>98.588999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="16">
         <v>110.907</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="16">
         <v>100.36</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K52" s="16">
         <v>98.588999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="21">
-        <v>2021</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="22">
-        <v>110.21</v>
-      </c>
-      <c r="E52" s="22">
-        <v>108.91289704650001</v>
-      </c>
-      <c r="F52" s="22">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G52" s="22">
-        <v>69.379568991200003</v>
-      </c>
-      <c r="H52" s="22">
-        <v>112.46996162710001</v>
-      </c>
-      <c r="I52" s="22">
-        <v>110.208</v>
-      </c>
-      <c r="J52" s="22">
-        <v>100.355</v>
-      </c>
-      <c r="K52" s="22">
-        <v>98.557000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B53" s="18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="19">
-        <v>109.271</v>
+        <v>110.21</v>
       </c>
       <c r="E53" s="19">
-        <v>108.6477332931</v>
+        <v>108.91289704650001</v>
       </c>
       <c r="F53" s="19">
         <v>101.0405414315</v>
       </c>
       <c r="G53" s="19">
-        <v>88.425353764299999</v>
+        <v>69.379568991200003</v>
       </c>
       <c r="H53" s="19">
-        <v>110.0805693728</v>
+        <v>112.46996162710001</v>
       </c>
       <c r="I53" s="19">
-        <v>110.01600000000001</v>
+        <v>110.208</v>
       </c>
       <c r="J53" s="19">
-        <v>100.30500000000001</v>
+        <v>100.355</v>
       </c>
       <c r="K53" s="19">
-        <v>98.524000000000001</v>
+        <v>98.557000000000002</v>
       </c>
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2504,63 +2519,63 @@
         <v>2020</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="16">
-        <v>108.85599999999999</v>
+        <v>109.271</v>
       </c>
       <c r="E54" s="16">
-        <v>108.5064270149</v>
+        <v>108.6477332931</v>
       </c>
       <c r="F54" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G54" s="16">
-        <v>87.498687502999999</v>
+        <v>88.425353764299999</v>
       </c>
       <c r="H54" s="16">
-        <v>109.622766778</v>
+        <v>110.0805693728</v>
       </c>
       <c r="I54" s="16">
-        <v>109.91800000000001</v>
+        <v>110.01600000000001</v>
       </c>
       <c r="J54" s="16">
-        <v>100.30800000000001</v>
+        <v>100.30500000000001</v>
       </c>
       <c r="K54" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="18">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="19">
-        <v>108.774</v>
-      </c>
-      <c r="E55" s="19">
-        <v>108.5602695565</v>
-      </c>
-      <c r="F55" s="19">
+      <c r="C55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="13">
+        <v>108.85599999999999</v>
+      </c>
+      <c r="E55" s="13">
+        <v>108.5064270149</v>
+      </c>
+      <c r="F55" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="19">
-        <v>92.871387775499997</v>
-      </c>
-      <c r="H55" s="19">
-        <v>108.9954622659</v>
-      </c>
-      <c r="I55" s="19">
-        <v>109.27500000000001</v>
-      </c>
-      <c r="J55" s="19">
-        <v>100.31</v>
-      </c>
-      <c r="K55" s="19">
-        <v>98.415999999999997</v>
+      <c r="G55" s="13">
+        <v>87.498687502999999</v>
+      </c>
+      <c r="H55" s="13">
+        <v>109.622766778</v>
+      </c>
+      <c r="I55" s="13">
+        <v>109.91800000000001</v>
+      </c>
+      <c r="J55" s="13">
+        <v>100.30800000000001</v>
+      </c>
+      <c r="K55" s="13">
+        <v>98.524000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2568,25 +2583,25 @@
         <v>2020</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="16">
-        <v>108.114</v>
+        <v>108.774</v>
       </c>
       <c r="E56" s="16">
-        <v>108.5110595398</v>
+        <v>108.5602695565</v>
       </c>
       <c r="F56" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G56" s="16">
-        <v>84.546898124199998</v>
+        <v>92.871387775499997</v>
       </c>
       <c r="H56" s="16">
-        <v>108.8201840744</v>
+        <v>108.9954622659</v>
       </c>
       <c r="I56" s="16">
-        <v>107.221</v>
+        <v>109.27500000000001</v>
       </c>
       <c r="J56" s="16">
         <v>100.31</v>
@@ -2596,34 +2611,34 @@
       </c>
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="18">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="19">
-        <v>107.867</v>
-      </c>
-      <c r="E57" s="19">
-        <v>108.2641243905</v>
-      </c>
-      <c r="F57" s="19">
+      <c r="C57" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="13">
+        <v>108.114</v>
+      </c>
+      <c r="E57" s="13">
+        <v>108.5110595398</v>
+      </c>
+      <c r="F57" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="19">
-        <v>84.0993629062</v>
-      </c>
-      <c r="H57" s="19">
-        <v>108.6866229954</v>
-      </c>
-      <c r="I57" s="19">
-        <v>104.646</v>
-      </c>
-      <c r="J57" s="19">
-        <v>100.32599999999999</v>
-      </c>
-      <c r="K57" s="19">
+      <c r="G57" s="13">
+        <v>84.546898124199998</v>
+      </c>
+      <c r="H57" s="13">
+        <v>108.8201840744</v>
+      </c>
+      <c r="I57" s="13">
+        <v>107.221</v>
+      </c>
+      <c r="J57" s="13">
+        <v>100.31</v>
+      </c>
+      <c r="K57" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
@@ -2632,63 +2647,63 @@
         <v>2020</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="16">
-        <v>107.444</v>
+        <v>107.867</v>
       </c>
       <c r="E58" s="16">
-        <v>108.2290316098</v>
+        <v>108.2641243905</v>
       </c>
       <c r="F58" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G58" s="16">
-        <v>83.373654861600002</v>
+        <v>84.0993629062</v>
       </c>
       <c r="H58" s="16">
-        <v>108.8298342292</v>
+        <v>108.6866229954</v>
       </c>
       <c r="I58" s="16">
-        <v>103.541</v>
+        <v>104.646</v>
       </c>
       <c r="J58" s="16">
-        <v>100.34</v>
+        <v>100.32599999999999</v>
       </c>
       <c r="K58" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
     <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="18">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="19">
-        <v>106.74299999999999</v>
-      </c>
-      <c r="E59" s="19">
-        <v>108.1151913336</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="C59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="13">
+        <v>107.444</v>
+      </c>
+      <c r="E59" s="13">
+        <v>108.2290316098</v>
+      </c>
+      <c r="F59" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="19">
-        <v>84.228004732399995</v>
-      </c>
-      <c r="H59" s="19">
-        <v>108.5274450755</v>
-      </c>
-      <c r="I59" s="19">
-        <v>103.54300000000001</v>
-      </c>
-      <c r="J59" s="19">
+      <c r="G59" s="13">
+        <v>83.373654861600002</v>
+      </c>
+      <c r="H59" s="13">
+        <v>108.8298342292</v>
+      </c>
+      <c r="I59" s="13">
+        <v>103.541</v>
+      </c>
+      <c r="J59" s="13">
         <v>100.34</v>
       </c>
-      <c r="K59" s="19">
-        <v>98.588999999999999</v>
+      <c r="K59" s="13">
+        <v>98.415999999999997</v>
       </c>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2696,25 +2711,25 @@
         <v>2020</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="16">
-        <v>106.16200000000001</v>
+        <v>106.74299999999999</v>
       </c>
       <c r="E60" s="16">
-        <v>108.1896853977</v>
+        <v>108.1151913336</v>
       </c>
       <c r="F60" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G60" s="16">
-        <v>82.231994422100001</v>
+        <v>84.228004732399995</v>
       </c>
       <c r="H60" s="16">
-        <v>109.31474425979999</v>
+        <v>108.5274450755</v>
       </c>
       <c r="I60" s="16">
-        <v>103.61</v>
+        <v>103.54300000000001</v>
       </c>
       <c r="J60" s="16">
         <v>100.34</v>
@@ -2724,34 +2739,34 @@
       </c>
     </row>
     <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="18">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="19">
-        <v>105.755</v>
-      </c>
-      <c r="E61" s="19">
-        <v>107.4875171243</v>
-      </c>
-      <c r="F61" s="19">
+      <c r="C61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="13">
+        <v>106.16200000000001</v>
+      </c>
+      <c r="E61" s="13">
+        <v>108.1896853977</v>
+      </c>
+      <c r="F61" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="19">
-        <v>76.507181751999994</v>
-      </c>
-      <c r="H61" s="19">
-        <v>109.6777595691</v>
-      </c>
-      <c r="I61" s="19">
+      <c r="G61" s="13">
+        <v>82.231994422100001</v>
+      </c>
+      <c r="H61" s="13">
+        <v>109.31474425979999</v>
+      </c>
+      <c r="I61" s="13">
         <v>103.61</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="13">
         <v>100.34</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
@@ -2760,127 +2775,127 @@
         <v>2020</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="16">
-        <v>106.83799999999999</v>
+        <v>105.755</v>
       </c>
       <c r="E62" s="16">
-        <v>107.5306793508</v>
+        <v>107.4875171243</v>
       </c>
       <c r="F62" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G62" s="16">
-        <v>80.8593909067</v>
+        <v>76.507181751999994</v>
       </c>
       <c r="H62" s="16">
-        <v>108.703723247</v>
+        <v>109.6777595691</v>
       </c>
       <c r="I62" s="16">
-        <v>103.661</v>
+        <v>103.61</v>
       </c>
       <c r="J62" s="16">
         <v>100.34</v>
       </c>
       <c r="K62" s="16">
+        <v>98.588999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="13">
+        <v>106.83799999999999</v>
+      </c>
+      <c r="E63" s="13">
+        <v>107.5306793508</v>
+      </c>
+      <c r="F63" s="13">
+        <v>101.0405414315</v>
+      </c>
+      <c r="G63" s="13">
+        <v>80.8593909067</v>
+      </c>
+      <c r="H63" s="13">
+        <v>108.703723247</v>
+      </c>
+      <c r="I63" s="13">
+        <v>103.661</v>
+      </c>
+      <c r="J63" s="13">
+        <v>100.34</v>
+      </c>
+      <c r="K63" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="18">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="16">
         <v>106.889</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="16">
         <v>103.661</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="16">
         <v>98.552999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="21">
-        <v>2020</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="22">
-        <v>106.447</v>
-      </c>
-      <c r="E64" s="22">
-        <v>107.11553304500001</v>
-      </c>
-      <c r="F64" s="22">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G64" s="22">
-        <v>86.778005823699999</v>
-      </c>
-      <c r="H64" s="22">
-        <v>106.9248328514</v>
-      </c>
-      <c r="I64" s="22">
-        <v>103.367</v>
-      </c>
-      <c r="J64" s="22">
-        <v>100.339</v>
-      </c>
-      <c r="K64" s="22">
-        <v>98.554000000000002</v>
       </c>
     </row>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B65" s="18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="19">
-        <v>105.934</v>
+        <v>106.447</v>
       </c>
       <c r="E65" s="19">
-        <v>106.0505331862</v>
+        <v>107.11553304500001</v>
       </c>
       <c r="F65" s="19">
         <v>101.0405414315</v>
       </c>
       <c r="G65" s="19">
-        <v>127.36462816709999</v>
+        <v>86.778005823699999</v>
       </c>
       <c r="H65" s="19">
-        <v>104.9942430431</v>
+        <v>106.9248328514</v>
       </c>
       <c r="I65" s="19">
-        <v>102.95099999999999</v>
+        <v>103.367</v>
       </c>
       <c r="J65" s="19">
-        <v>100.331</v>
+        <v>100.339</v>
       </c>
       <c r="K65" s="19">
-        <v>98.78</v>
+        <v>98.554000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2888,63 +2903,63 @@
         <v>2019</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="16">
-        <v>105.346</v>
+        <v>105.934</v>
       </c>
       <c r="E66" s="16">
-        <v>105.65671461060001</v>
+        <v>106.0505331862</v>
       </c>
       <c r="F66" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G66" s="16">
+        <v>127.36462816709999</v>
+      </c>
+      <c r="H66" s="16">
+        <v>104.9942430431</v>
+      </c>
+      <c r="I66" s="16">
+        <v>102.95099999999999</v>
+      </c>
+      <c r="J66" s="16">
+        <v>100.331</v>
+      </c>
+      <c r="K66" s="16">
+        <v>98.78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="13">
+        <v>105.346</v>
+      </c>
+      <c r="E67" s="13">
+        <v>105.65671461060001</v>
+      </c>
+      <c r="F67" s="13">
+        <v>101.0405414315</v>
+      </c>
+      <c r="G67" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="13">
         <v>100.324</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="13">
         <v>99.004999999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="19">
-        <v>104.503</v>
-      </c>
-      <c r="E67" s="19">
-        <v>105.1002407181</v>
-      </c>
-      <c r="F67" s="19">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G67" s="19">
-        <v>88.301013724200004</v>
-      </c>
-      <c r="H67" s="19">
-        <v>104.50205451870001</v>
-      </c>
-      <c r="I67" s="19">
-        <v>102.90300000000001</v>
-      </c>
-      <c r="J67" s="19">
-        <v>100.29600000000001</v>
-      </c>
-      <c r="K67" s="19">
-        <v>98.975999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2952,63 +2967,63 @@
         <v>2019</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="16">
-        <v>103.94199999999999</v>
+        <v>104.503</v>
       </c>
       <c r="E68" s="16">
-        <v>104.6074519548</v>
+        <v>105.1002407181</v>
       </c>
       <c r="F68" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G68" s="16">
+        <v>88.301013724200004</v>
+      </c>
+      <c r="H68" s="16">
+        <v>104.50205451870001</v>
+      </c>
+      <c r="I68" s="16">
+        <v>102.90300000000001</v>
+      </c>
+      <c r="J68" s="16">
+        <v>100.29600000000001</v>
+      </c>
+      <c r="K68" s="16">
+        <v>98.975999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="13">
+        <v>103.94199999999999</v>
+      </c>
+      <c r="E69" s="13">
+        <v>104.6074519548</v>
+      </c>
+      <c r="F69" s="13">
+        <v>101.0405414315</v>
+      </c>
+      <c r="G69" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="13">
         <v>102.654</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="13">
         <v>100.29</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="13">
         <v>98.978999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="19">
-        <v>103.67</v>
-      </c>
-      <c r="E69" s="19">
-        <v>104.5187172775</v>
-      </c>
-      <c r="F69" s="19">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G69" s="19">
-        <v>92.899994051799993</v>
-      </c>
-      <c r="H69" s="19">
-        <v>104.285820413</v>
-      </c>
-      <c r="I69" s="19">
-        <v>102.604</v>
-      </c>
-      <c r="J69" s="19">
-        <v>100.274</v>
-      </c>
-      <c r="K69" s="19">
-        <v>98.986000000000004</v>
       </c>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3016,63 +3031,63 @@
         <v>2019</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="16">
-        <v>103.687</v>
+        <v>103.67</v>
       </c>
       <c r="E70" s="16">
-        <v>103.9281222685</v>
+        <v>104.5187172775</v>
       </c>
       <c r="F70" s="16">
-        <v>100.6849220455</v>
+        <v>101.0405414315</v>
       </c>
       <c r="G70" s="16">
-        <v>115.8409110419</v>
+        <v>92.899994051799993</v>
       </c>
       <c r="H70" s="16">
-        <v>104.2691868668</v>
+        <v>104.285820413</v>
       </c>
       <c r="I70" s="16">
-        <v>102.57599999999999</v>
+        <v>102.604</v>
       </c>
       <c r="J70" s="16">
-        <v>100.196</v>
+        <v>100.274</v>
       </c>
       <c r="K70" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
     <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="18">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="19">
-        <v>103.29900000000001</v>
-      </c>
-      <c r="E71" s="19">
-        <v>103.4436474945</v>
-      </c>
-      <c r="F71" s="19">
-        <v>100.6191914481</v>
-      </c>
-      <c r="G71" s="19">
-        <v>107.6048597489</v>
-      </c>
-      <c r="H71" s="19">
-        <v>104.7408219759</v>
-      </c>
-      <c r="I71" s="19">
-        <v>101.68300000000001</v>
-      </c>
-      <c r="J71" s="19">
-        <v>100.119</v>
-      </c>
-      <c r="K71" s="19">
-        <v>98.905000000000001</v>
+      <c r="C71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="13">
+        <v>103.687</v>
+      </c>
+      <c r="E71" s="13">
+        <v>103.9281222685</v>
+      </c>
+      <c r="F71" s="13">
+        <v>100.6849220455</v>
+      </c>
+      <c r="G71" s="13">
+        <v>115.8409110419</v>
+      </c>
+      <c r="H71" s="13">
+        <v>104.2691868668</v>
+      </c>
+      <c r="I71" s="13">
+        <v>102.57599999999999</v>
+      </c>
+      <c r="J71" s="13">
+        <v>100.196</v>
+      </c>
+      <c r="K71" s="13">
+        <v>98.986000000000004</v>
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3080,62 +3095,62 @@
         <v>2019</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" s="16">
-        <v>103.233</v>
+        <v>103.29900000000001</v>
       </c>
       <c r="E72" s="16">
-        <v>103.33167816460001</v>
+        <v>103.4436474945</v>
       </c>
       <c r="F72" s="16">
         <v>100.6191914481</v>
       </c>
       <c r="G72" s="16">
-        <v>86.898257620999999</v>
+        <v>107.6048597489</v>
       </c>
       <c r="H72" s="16">
-        <v>105.3054014635</v>
+        <v>104.7408219759</v>
       </c>
       <c r="I72" s="16">
-        <v>101.509</v>
+        <v>101.68300000000001</v>
       </c>
       <c r="J72" s="16">
         <v>100.119</v>
       </c>
       <c r="K72" s="16">
-        <v>98.789000000000001</v>
+        <v>98.905000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="18">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="19">
-        <v>103.53100000000001</v>
-      </c>
-      <c r="E73" s="19">
-        <v>103.10258831190001</v>
-      </c>
-      <c r="F73" s="19">
+      <c r="C73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="13">
+        <v>103.233</v>
+      </c>
+      <c r="E73" s="13">
+        <v>103.33167816460001</v>
+      </c>
+      <c r="F73" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G73" s="19">
-        <v>96.879318888</v>
-      </c>
-      <c r="H73" s="19">
-        <v>104.9491652918</v>
-      </c>
-      <c r="I73" s="19">
-        <v>101.459</v>
-      </c>
-      <c r="J73" s="19">
+      <c r="G73" s="13">
+        <v>86.898257620999999</v>
+      </c>
+      <c r="H73" s="13">
+        <v>105.3054014635</v>
+      </c>
+      <c r="I73" s="13">
+        <v>101.509</v>
+      </c>
+      <c r="J73" s="13">
         <v>100.119</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K73" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
@@ -3144,127 +3159,127 @@
         <v>2019</v>
       </c>
       <c r="C74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="16">
+        <v>103.53100000000001</v>
+      </c>
+      <c r="E74" s="16">
+        <v>103.10258831190001</v>
+      </c>
+      <c r="F74" s="16">
+        <v>100.6191914481</v>
+      </c>
+      <c r="G74" s="16">
+        <v>96.879318888</v>
+      </c>
+      <c r="H74" s="16">
+        <v>104.9491652918</v>
+      </c>
+      <c r="I74" s="16">
+        <v>101.459</v>
+      </c>
+      <c r="J74" s="16">
+        <v>100.119</v>
+      </c>
+      <c r="K74" s="16">
+        <v>98.789000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="13">
         <v>103.476</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="13">
         <v>100</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="13">
         <v>101.166</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J75" s="13">
         <v>100.098</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="18">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D76" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="16">
         <v>100</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="16">
         <v>100.081</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="16">
         <v>99.165999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="21">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="22">
-        <v>103.108</v>
-      </c>
-      <c r="E76" s="22">
-        <v>102.47200356979999</v>
-      </c>
-      <c r="F76" s="22">
-        <v>100</v>
-      </c>
-      <c r="G76" s="22">
-        <v>78.7293169334</v>
-      </c>
-      <c r="H76" s="22">
-        <v>102.4734794414</v>
-      </c>
-      <c r="I76" s="22">
-        <v>100.42</v>
-      </c>
-      <c r="J76" s="22">
-        <v>100.036</v>
-      </c>
-      <c r="K76" s="22">
-        <v>99.197999999999993</v>
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" s="19">
-        <v>103.02</v>
+        <v>103.108</v>
       </c>
       <c r="E77" s="19">
-        <v>101.4882812159</v>
+        <v>102.47200356979999</v>
       </c>
       <c r="F77" s="19">
         <v>100</v>
       </c>
       <c r="G77" s="19">
-        <v>116.2152458092</v>
+        <v>78.7293169334</v>
       </c>
       <c r="H77" s="19">
-        <v>101.1447321365</v>
+        <v>102.4734794414</v>
       </c>
       <c r="I77" s="19">
-        <v>100.56100000000001</v>
+        <v>100.42</v>
       </c>
       <c r="J77" s="19">
-        <v>100.03400000000001</v>
+        <v>100.036</v>
       </c>
       <c r="K77" s="19">
-        <v>99.195999999999998</v>
+        <v>99.197999999999993</v>
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3272,22 +3287,22 @@
         <v>2018</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" s="16">
-        <v>102.303</v>
+        <v>103.02</v>
       </c>
       <c r="E78" s="16">
-        <v>100.90290467379999</v>
+        <v>101.4882812159</v>
       </c>
       <c r="F78" s="16">
         <v>100</v>
       </c>
       <c r="G78" s="16">
-        <v>87.221876645500004</v>
+        <v>116.2152458092</v>
       </c>
       <c r="H78" s="16">
-        <v>101.16638118420001</v>
+        <v>101.1447321365</v>
       </c>
       <c r="I78" s="16">
         <v>100.56100000000001</v>
@@ -3296,39 +3311,39 @@
         <v>100.03400000000001</v>
       </c>
       <c r="K78" s="16">
+        <v>99.195999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="13">
+        <v>102.303</v>
+      </c>
+      <c r="E79" s="13">
+        <v>100.90290467379999</v>
+      </c>
+      <c r="F79" s="13">
+        <v>100</v>
+      </c>
+      <c r="G79" s="13">
+        <v>87.221876645500004</v>
+      </c>
+      <c r="H79" s="13">
+        <v>101.16638118420001</v>
+      </c>
+      <c r="I79" s="13">
+        <v>100.56100000000001</v>
+      </c>
+      <c r="J79" s="13">
+        <v>100.03400000000001</v>
+      </c>
+      <c r="K79" s="13">
         <v>99.412000000000006</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="19">
-        <v>101.44</v>
-      </c>
-      <c r="E79" s="19">
-        <v>100.78655579709999</v>
-      </c>
-      <c r="F79" s="19">
-        <v>100</v>
-      </c>
-      <c r="G79" s="19">
-        <v>85.369691303899998</v>
-      </c>
-      <c r="H79" s="19">
-        <v>100.05389573230001</v>
-      </c>
-      <c r="I79" s="19">
-        <v>100.52500000000001</v>
-      </c>
-      <c r="J79" s="19">
-        <v>100.021</v>
-      </c>
-      <c r="K79" s="19">
-        <v>99.567999999999998</v>
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3336,63 +3351,63 @@
         <v>2018</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="16">
-        <v>100.917</v>
+        <v>101.44</v>
       </c>
       <c r="E80" s="16">
-        <v>100.4677127848</v>
+        <v>100.78655579709999</v>
       </c>
       <c r="F80" s="16">
         <v>100</v>
       </c>
       <c r="G80" s="16">
+        <v>85.369691303899998</v>
+      </c>
+      <c r="H80" s="16">
+        <v>100.05389573230001</v>
+      </c>
+      <c r="I80" s="16">
+        <v>100.52500000000001</v>
+      </c>
+      <c r="J80" s="16">
+        <v>100.021</v>
+      </c>
+      <c r="K80" s="16">
+        <v>99.567999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="13">
+        <v>100.917</v>
+      </c>
+      <c r="E81" s="13">
+        <v>100.4677127848</v>
+      </c>
+      <c r="F81" s="13">
+        <v>100</v>
+      </c>
+      <c r="G81" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="13">
         <v>100.126</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J81" s="13">
         <v>100</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="13">
         <v>99.77</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="19">
-        <v>100.492</v>
-      </c>
-      <c r="E81" s="19">
-        <v>100.22727446899999</v>
-      </c>
-      <c r="F81" s="19">
-        <v>100</v>
-      </c>
-      <c r="G81" s="19">
-        <v>79.518260205800004</v>
-      </c>
-      <c r="H81" s="19">
-        <v>99.844190958599995</v>
-      </c>
-      <c r="I81" s="19">
-        <v>100.05200000000001</v>
-      </c>
-      <c r="J81" s="19">
-        <v>100</v>
-      </c>
-      <c r="K81" s="19">
-        <v>99.83</v>
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3400,63 +3415,63 @@
         <v>2018</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" s="16">
-        <v>99.909099104513999</v>
+        <v>100.492</v>
       </c>
       <c r="E82" s="16">
-        <v>99.998359331854999</v>
+        <v>100.22727446899999</v>
       </c>
       <c r="F82" s="16">
         <v>100</v>
       </c>
       <c r="G82" s="16">
+        <v>79.518260205800004</v>
+      </c>
+      <c r="H82" s="16">
+        <v>99.844190958599995</v>
+      </c>
+      <c r="I82" s="16">
+        <v>100.05200000000001</v>
+      </c>
+      <c r="J82" s="16">
+        <v>100</v>
+      </c>
+      <c r="K82" s="16">
+        <v>99.83</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="13">
+        <v>99.909099104513999</v>
+      </c>
+      <c r="E83" s="13">
+        <v>99.998359331854999</v>
+      </c>
+      <c r="F83" s="13">
+        <v>100</v>
+      </c>
+      <c r="G83" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H83" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I83" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J83" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="13">
         <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="19">
-        <v>99.376464931786998</v>
-      </c>
-      <c r="E83" s="19">
-        <v>99.990951002754002</v>
-      </c>
-      <c r="F83" s="19">
-        <v>100</v>
-      </c>
-      <c r="G83" s="19">
-        <v>99.195118819963994</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I83" s="19">
-        <v>100.145214825742</v>
-      </c>
-      <c r="J83" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="19">
-        <v>99.796047542021</v>
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3464,63 +3479,63 @@
         <v>2018</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" s="16">
-        <v>98.994080173086999</v>
+        <v>99.376464931786998</v>
       </c>
       <c r="E84" s="16">
-        <v>99.984814220586003</v>
+        <v>99.990951002754002</v>
       </c>
       <c r="F84" s="16">
         <v>100</v>
       </c>
       <c r="G84" s="16">
-        <v>90.757329060767006</v>
+        <v>99.195118819963994</v>
       </c>
       <c r="H84" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I84" s="16">
-        <v>99.721095334685998</v>
+        <v>100.145214825742</v>
       </c>
       <c r="J84" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K84" s="16">
+        <v>99.796047542021</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="13">
+        <v>98.994080173086999</v>
+      </c>
+      <c r="E85" s="13">
+        <v>99.984814220586003</v>
+      </c>
+      <c r="F85" s="13">
+        <v>100</v>
+      </c>
+      <c r="G85" s="13">
+        <v>90.757329060767006</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="13">
+        <v>99.721095334685998</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="13">
         <v>100.290690859648</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="19">
-        <v>99.154847046097004</v>
-      </c>
-      <c r="E85" s="19">
-        <v>99.833850058503003</v>
-      </c>
-      <c r="F85" s="19">
-        <v>100</v>
-      </c>
-      <c r="G85" s="19">
-        <v>74.377335587917997</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I85" s="19">
-        <v>100.50825189009799</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="19">
-        <v>100.307100827531</v>
       </c>
     </row>
     <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
@@ -3528,19 +3543,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="16">
-        <v>99.492156980588007</v>
+        <v>99.154847046097004</v>
       </c>
       <c r="E86" s="16">
-        <v>99.599241644515999</v>
+        <v>99.833850058503003</v>
       </c>
       <c r="F86" s="16">
-        <v>99.775409784431005</v>
+        <v>100</v>
       </c>
       <c r="G86" s="16">
-        <v>86.603489152118996</v>
+        <v>74.377335587917997</v>
       </c>
       <c r="H86" s="17" t="s">
         <v>7</v>
@@ -3552,39 +3567,39 @@
         <v>7</v>
       </c>
       <c r="K86" s="16">
+        <v>100.307100827531</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="13">
+        <v>99.492156980588007</v>
+      </c>
+      <c r="E87" s="13">
+        <v>99.599241644515999</v>
+      </c>
+      <c r="F87" s="13">
+        <v>99.775409784431005</v>
+      </c>
+      <c r="G87" s="13">
+        <v>86.603489152118996</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="13">
+        <v>100.50825189009799</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="13">
         <v>100.738448554751</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="19">
-        <v>99.171374481640001</v>
-      </c>
-      <c r="E87" s="19">
-        <v>99.404629920302</v>
-      </c>
-      <c r="F87" s="19">
-        <v>99.775409784431005</v>
-      </c>
-      <c r="G87" s="19">
-        <v>79.172819495607996</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="19">
-        <v>100.413747003504</v>
-      </c>
-      <c r="J87" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="19">
-        <v>100.841596924303</v>
       </c>
     </row>
     <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
@@ -3592,77 +3607,109 @@
         <v>2018</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" s="16">
-        <v>98.794999699501005</v>
+        <v>99.171374481640001</v>
       </c>
       <c r="E88" s="16">
-        <v>99.150938662095996</v>
+        <v>99.404629920302</v>
       </c>
       <c r="F88" s="16">
         <v>99.775409784431005</v>
       </c>
       <c r="G88" s="16">
-        <v>72.042283790854</v>
+        <v>79.172819495607996</v>
       </c>
       <c r="H88" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="16">
-        <v>100.245482205421</v>
+        <v>100.413747003504</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K88" s="16">
+        <v>100.841596924303</v>
+      </c>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="13">
+        <v>98.794999699501005</v>
+      </c>
+      <c r="E89" s="13">
+        <v>99.150938662095996</v>
+      </c>
+      <c r="F89" s="13">
+        <v>99.775409784431005</v>
+      </c>
+      <c r="G89" s="13">
+        <v>72.042283790854</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="13">
+        <v>100.245482205421</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="13">
         <v>99.852310289049996</v>
       </c>
-      <c r="L88" s="23"/>
-    </row>
-    <row r="89" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="K89" s="24"/>
     </row>
     <row r="90" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="K90" s="24"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="K90" s="21"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K92" s="24"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="K93" s="24"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K94" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A214235-C6EF-49FB-89CB-E35D9D2037BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E170F50-EBA8-4C9B-8C9C-CD9CE005E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -312,12 +312,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -384,6 +395,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B5:K89" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B5:K90" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -868,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -979,2709 +997,2729 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="27">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="28">
+        <v>138.34299999999999</v>
+      </c>
+      <c r="E6" s="28">
+        <v>127.3148055269</v>
+      </c>
+      <c r="F6" s="28">
+        <v>107.8096364189</v>
+      </c>
+      <c r="G6" s="28">
+        <v>126.31288726149999</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="28">
+        <v>125.209</v>
+      </c>
+      <c r="J6" s="28">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="28">
+        <v>89.081669575600003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="16">
         <v>137.94900000000001</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>126.988350193</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>107.7500347802</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>205.85461125200001</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>124.09699999999999</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>100.60044724230001</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>137.42400000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>126.1506342819</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>107.69043314149999</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>163.0304427657</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>123.661</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>136.828</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>125.8430792046</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>107.63083150289999</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>150.05764800759999</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>100.6</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>136.08000000000001</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>125.9243949896</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>107.5637453439</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>140.67318630739999</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>123.35899999999999</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <v>136.01300000000001</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>125.35642665260001</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>107.5116282255</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>138.501613185</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>123.438</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>100.6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>100.6</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>134.59399999999999</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>123.454094798</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="16">
         <v>106.0396352632</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="16">
         <v>147.441</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="16">
         <v>136.3792212685</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <v>123.023</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J13" s="16">
         <v>100.6</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K13" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>122.36</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>100.6</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>134.33600000000001</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>123.0447919639</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>105.8761867728</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>137.01147154309999</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>135.70240732440001</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="16">
         <v>120.79900000000001</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J15" s="16">
         <v>100.6</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K15" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>134.065</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>100.6</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>119.937</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J17" s="16">
         <v>100.6</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K17" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2024</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G18" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>100.6</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K18" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="22">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K19" s="23">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="12">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>119.861</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <v>130.60900000000001</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>120.4862973733</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>105.38584130149999</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>145.65313447969999</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>130.1120315803</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>118.376</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>100.6</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>130.12</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>118.788</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>100.6</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <v>129.54499999999999</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>120.39914263439999</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>105.22239281109999</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>127.9599808845</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="16">
         <v>129.0779724994</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <v>118.574</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>100.6</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>118.285</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="13">
         <v>100.6</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K24" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <v>128.214</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>119.82760529700001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>105.05894432069999</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>125.4398687573</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="16">
         <v>129.16292087080001</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="16">
         <v>117.982</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="16">
         <v>100.6</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>128.084</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>117.361</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>100.6</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <v>128.363</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>119.66934975220001</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>104.71978870300001</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>111.8321814474</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="16">
         <v>129.31726497450001</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="16">
         <v>117.387</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="16">
         <v>100.6</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>100.6</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="16">
         <v>100.6</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2023</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <v>127.336</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>117.6482068262</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="19">
         <v>105.4811752151</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>127.5767484142</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>115.95099999999999</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>100.6</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <v>126.47799999999999</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>116.82049176770001</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>139.65915062159999</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <v>124.6968379873</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>115.741</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <v>100.6</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>125.997</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>115.336</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="13">
         <v>100.6</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K32" s="13">
         <v>90.87</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <v>125.276</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>115.94924330409999</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>119.8275041996</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <v>124.65542954270001</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>114.956</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <v>100.6</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>124.571</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>100.6</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <v>123.803</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>115.41491664279999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>116.4447289605</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="16">
         <v>125.9840309911</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="16">
         <v>115.134</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J35" s="16">
         <v>100.59</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>114.389</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="13">
         <v>100.59</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K36" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <v>122.044</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>113.8040964162</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>130.85123030770001</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <v>125.1867510614</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>113.178</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>100.59</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>113.289</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <v>120.809</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>112.48503934839999</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>129.87573640970001</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>124.0503181081</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="16">
         <v>113.02800000000001</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J39" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>113.009</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H41" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I41" s="16">
         <v>112.843</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J41" s="16">
         <v>100.559</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K41" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2022</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <v>118.002</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>111.4420556762</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>101.66052718260001</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>87.919810779000002</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>120.6612786609</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>112.705</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K42" s="19">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <v>117.30800000000001</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>110.93061004979999</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>144.0852936078</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <v>117.87569352689999</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>112.803</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="16">
         <v>100.551</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="12">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>116.884</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J44" s="13">
         <v>100.54</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <v>115.56100000000001</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>109.85587154930001</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>107.4801111049</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <v>117.2036471113</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>112.779</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <v>100.54</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>114.601</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>111.345</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>100.523</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <v>113.899</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>109.6876007529</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>103.9626342001</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="16">
         <v>116.7589504195</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I47" s="16">
         <v>111.09399999999999</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J47" s="16">
         <v>100.521</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>113.682</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="13">
         <v>100.512</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K48" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <v>113.018</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>109.3611515443</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>127.6488519838</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <v>115.5054112312</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>110.64700000000001</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J49" s="16">
         <v>100.503</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>112.419</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>110.613</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>100.504</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <v>112.19</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>109.1238791816</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>101.2984364707</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>92.423514952199994</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="16">
         <v>114.6136060937</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I51" s="16">
         <v>110.613</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J51" s="16">
         <v>100.47</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>111.824</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>110.506</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>100.4</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <v>110.907</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H53" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I53" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J53" s="16">
         <v>100.36</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K53" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2021</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <v>110.21</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>108.91289704650001</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>69.379568991200003</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>112.46996162710001</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>110.208</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>100.355</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K54" s="19">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <v>109.271</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>108.6477332931</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>88.425353764299999</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="16">
         <v>110.0805693728</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="16">
         <v>110.01600000000001</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="16">
         <v>100.30500000000001</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="12">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J56" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K56" s="13">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <v>108.774</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>108.5602695565</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>92.871387775499997</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <v>108.9954622659</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>109.27500000000001</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J57" s="16">
         <v>100.31</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>108.114</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>107.221</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>100.31</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <v>107.867</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>108.2641243905</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="16">
         <v>84.0993629062</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H59" s="16">
         <v>108.6866229954</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I59" s="16">
         <v>104.646</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J59" s="16">
         <v>100.32599999999999</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>107.444</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>103.541</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="13">
         <v>100.34</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K60" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <v>106.74299999999999</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>108.1151913336</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>84.228004732399995</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="16">
         <v>108.5274450755</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I61" s="16">
         <v>103.54300000000001</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J61" s="16">
         <v>100.34</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>103.61</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>100.34</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <v>105.755</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>107.4875171243</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="16">
         <v>76.507181751999994</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="16">
         <v>109.6777595691</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I63" s="16">
         <v>103.61</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J63" s="16">
         <v>100.34</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>103.661</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>100.34</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <v>106.889</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I65" s="16">
         <v>103.661</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J65" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <v>106.447</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>107.11553304500001</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>86.778005823699999</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>106.9248328514</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>103.367</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>100.339</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <v>105.934</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>106.0505331862</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>127.36462816709999</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="16">
         <v>104.9942430431</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="16">
         <v>102.95099999999999</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="16">
         <v>100.331</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="12">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>105.346</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>100.324</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K68" s="13">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <v>104.503</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>105.1002407181</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>88.301013724200004</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <v>104.50205451870001</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="16">
         <v>100.29600000000001</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>102.654</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>100.29</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <v>103.67</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>104.5187172775</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="16">
         <v>92.899994051799993</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H71" s="16">
         <v>104.285820413</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I71" s="16">
         <v>102.604</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J71" s="16">
         <v>100.274</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>103.687</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="13">
         <v>100.196</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K72" s="13">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <v>103.29900000000001</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>103.4436474945</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>107.6048597489</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="16">
         <v>104.7408219759</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I73" s="16">
         <v>101.68300000000001</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J73" s="16">
         <v>100.119</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>103.233</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>101.509</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>100.119</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <v>103.53100000000001</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>103.10258831190001</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="16">
         <v>96.879318888</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="16">
         <v>104.9491652918</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="16">
         <v>101.459</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J75" s="16">
         <v>100.119</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>103.476</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>100</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>101.166</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>100.098</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>100</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H77" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I77" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J77" s="16">
         <v>100.081</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K77" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18">
         <v>2019</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <v>103.108</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>102.47200356979999</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>100</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>78.7293169334</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>102.4734794414</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>100.42</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>100.036</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <v>103.02</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>101.4882812159</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>100</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>116.2152458092</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="16">
         <v>101.1447321365</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J79" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>102.303</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>100</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K80" s="13">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <v>101.44</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>100.78655579709999</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>100</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>85.369691303899998</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="16">
         <v>100.05389573230001</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="16">
         <v>100.52500000000001</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J81" s="16">
         <v>100.021</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>100.917</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>100</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>100.126</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>100</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>99.77</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <v>100.492</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>100.22727446899999</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>100</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="16">
         <v>79.518260205800004</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H83" s="16">
         <v>99.844190958599995</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I83" s="16">
         <v>100.05200000000001</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J83" s="16">
         <v>100</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>100</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H84" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J83" s="14" t="s">
+      <c r="J84" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K84" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <v>99.376464931786998</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>99.990951002754002</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>100</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>99.195118819963994</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>100.145214825742</v>
       </c>
-      <c r="J84" s="17" t="s">
+      <c r="J85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>100</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H86" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>99.721095334685998</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J86" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <v>99.154847046097004</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>99.833850058503003</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>100</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="16">
         <v>74.377335587917997</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H87" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I87" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J87" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="16">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H88" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>100.50825189009799</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J88" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <v>99.171374481640001</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>99.404629920302</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G89" s="16">
         <v>79.172819495607996</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H89" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I89" s="16">
         <v>100.413747003504</v>
       </c>
-      <c r="J88" s="17" t="s">
+      <c r="J89" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K89" s="16">
         <v>100.841596924303</v>
       </c>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="12">
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>98.794999699501005</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>99.150938662095996</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>72.042283790854</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>100.245482205421</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>99.852310289049996</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="20"/>
@@ -3693,7 +3731,7 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="20"/>
@@ -3701,15 +3739,27 @@
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
+      <c r="K92" s="21"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K95" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E170F50-EBA8-4C9B-8C9C-CD9CE005E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC43DD1-815A-49B1-9629-301B37718ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,23 +312,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -396,11 +385,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -557,6 +542,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -581,13 +573,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -639,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B5:K90" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K91" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -886,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="3" width="7.125" style="3" customWidth="1"/>
@@ -902,13 +887,12 @@
     <col min="10" max="10" width="23.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +908,8 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
@@ -942,9 +925,8 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -962,9 +944,8 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:14" s="11" customFormat="1">
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
@@ -996,2742 +977,2762 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="27">
+    <row r="6" spans="2:14" s="11" customFormat="1">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16">
+        <v>138.726</v>
+      </c>
+      <c r="E6" s="17">
+        <v>127.80877476489999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>107.8617555228</v>
+      </c>
+      <c r="G6" s="17">
+        <v>129.33059490740001</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="17">
+        <v>125.697</v>
+      </c>
+      <c r="J6" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="17">
+        <v>89.084000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="11" customFormat="1">
+      <c r="B7" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D7" s="19">
         <v>138.34299999999999</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E7" s="19">
         <v>127.3148055269</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F7" s="19">
         <v>107.8096364189</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G7" s="19">
         <v>126.31288726149999</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I7" s="19">
         <v>125.209</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J7" s="19">
         <v>100.6</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K7" s="19">
         <v>89.081669575600003</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="8" spans="2:14" s="11" customFormat="1">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <v>137.94900000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>126.988350193</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>107.7500347802</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>205.85461125200001</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>124.09699999999999</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>100.60044724230001</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="17">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:14" s="11" customFormat="1">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>137.42400000000001</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>126.1506342819</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>107.69043314149999</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>163.0304427657</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>123.661</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+    <row r="10" spans="2:14" s="11" customFormat="1">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="16">
         <v>136.828</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>125.8430792046</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>107.63083150289999</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>150.05764800759999</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="17">
         <v>100.6</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K10" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:14">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>136.08000000000001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>125.9243949896</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>107.5637453439</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>140.67318630739999</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>123.35899999999999</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:14">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <v>136.01300000000001</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>125.35642665260001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>107.5116282255</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>138.501613185</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>123.438</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>100.6</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K12" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:14">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="13">
         <v>100.6</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="14" spans="2:14">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <v>134.59399999999999</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <v>123.454094798</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>106.0396352632</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="16">
         <v>147.441</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="16">
         <v>136.3792212685</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="16">
         <v>123.023</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J14" s="16">
         <v>100.6</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K14" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:14">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>122.36</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>100.6</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="16" spans="2:14">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <v>134.33600000000001</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="16">
         <v>123.0447919639</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>105.8761867728</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>137.01147154309999</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="16">
         <v>135.70240732440001</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="16">
         <v>120.79900000000001</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="16">
         <v>100.6</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:11">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>134.065</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>100.6</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:11">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="16">
         <v>119.937</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J18" s="16">
         <v>100.6</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K18" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
+    <row r="19" spans="2:11">
+      <c r="B19" s="18">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G19" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>100.6</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K19" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="22">
+    <row r="20" spans="2:11" hidden="1">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K20" s="23">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>119.861</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <v>130.60900000000001</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="16">
         <v>120.4862973733</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <v>105.38584130149999</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="16">
         <v>145.65313447969999</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="16">
         <v>130.1120315803</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="16">
         <v>118.376</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="16">
         <v>100.6</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>130.12</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>118.788</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>100.6</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <v>129.54499999999999</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="16">
         <v>120.39914263439999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>105.22239281109999</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="16">
         <v>127.9599808845</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="16">
         <v>129.0779724994</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="16">
         <v>118.574</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="16">
         <v>100.6</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>118.285</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="13">
         <v>100.6</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <v>128.214</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="16">
         <v>119.82760529700001</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="16">
         <v>105.05894432069999</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="16">
         <v>125.4398687573</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="16">
         <v>129.16292087080001</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="16">
         <v>117.982</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="16">
         <v>100.6</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K26" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>128.084</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>117.361</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>100.6</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <v>128.363</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="16">
         <v>119.66934975220001</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>104.71978870300001</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="16">
         <v>111.8321814474</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="16">
         <v>129.31726497450001</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="16">
         <v>117.387</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="16">
         <v>100.6</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>100.6</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="16">
         <v>100.6</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="19">
         <v>127.336</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>117.6482068262</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G31" s="19">
         <v>105.4811752151</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>127.5767484142</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>115.95099999999999</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>100.6</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <v>126.47799999999999</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>116.82049176770001</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>139.65915062159999</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <v>124.6968379873</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>115.741</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>100.6</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>125.997</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>115.336</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>100.6</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="13">
         <v>90.87</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <v>125.276</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="16">
         <v>115.94924330409999</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="16">
         <v>119.8275041996</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="16">
         <v>124.65542954270001</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="16">
         <v>114.956</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="16">
         <v>100.6</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>124.571</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>100.6</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="13">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <v>123.803</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>115.41491664279999</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="16">
         <v>116.4447289605</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="16">
         <v>125.9840309911</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="16">
         <v>115.134</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="16">
         <v>100.59</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K36" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>114.389</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <v>100.59</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <v>122.044</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <v>113.8040964162</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>130.85123030770001</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="16">
         <v>125.1867510614</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="16">
         <v>113.178</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="16">
         <v>100.59</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>113.289</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <v>120.809</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="16">
         <v>112.48503934839999</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="16">
         <v>129.87573640970001</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="16">
         <v>124.0503181081</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="16">
         <v>113.02800000000001</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K40" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>113.009</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="16">
         <v>112.843</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <v>100.559</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K42" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="19">
         <v>118.002</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>111.4420556762</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>101.66052718260001</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>87.919810779000002</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>120.6612786609</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>112.705</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <v>117.30800000000001</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>110.93061004979999</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>144.0852936078</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="16">
         <v>117.87569352689999</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="16">
         <v>112.803</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="16">
         <v>100.551</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>116.884</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>100.54</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="13">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <v>115.56100000000001</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="16">
         <v>109.85587154930001</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="16">
         <v>107.4801111049</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H46" s="16">
         <v>117.2036471113</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I46" s="16">
         <v>112.779</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J46" s="16">
         <v>100.54</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K46" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>114.601</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>111.345</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>100.523</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <v>113.899</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>109.6876007529</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>103.9626342001</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="16">
         <v>116.7589504195</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="16">
         <v>111.09399999999999</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="16">
         <v>100.521</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>113.682</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="13">
         <v>100.512</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K49" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <v>113.018</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="16">
         <v>109.3611515443</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="16">
         <v>127.6488519838</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H50" s="16">
         <v>115.5054112312</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I50" s="16">
         <v>110.64700000000001</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J50" s="16">
         <v>100.503</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K50" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>112.419</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>110.613</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>100.504</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <v>112.19</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="16">
         <v>109.1238791816</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>101.2984364707</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="16">
         <v>92.423514952199994</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="16">
         <v>114.6136060937</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="16">
         <v>110.613</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="16">
         <v>100.47</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K52" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>111.824</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>110.506</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>100.4</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>110.907</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="16">
         <v>100.36</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="19">
         <v>110.21</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>108.91289704650001</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>69.379568991200003</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <v>112.46996162710001</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I55" s="19">
         <v>110.208</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J55" s="19">
         <v>100.355</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K55" s="19">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <v>109.271</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>108.6477332931</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>88.425353764299999</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="16">
         <v>110.0805693728</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="16">
         <v>110.01600000000001</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="16">
         <v>100.30500000000001</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="13">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <v>108.774</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="16">
         <v>108.5602695565</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="16">
         <v>92.871387775499997</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="16">
         <v>108.9954622659</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="16">
         <v>109.27500000000001</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J58" s="16">
         <v>100.31</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K58" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>108.114</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>107.221</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>100.31</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <v>107.867</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>108.2641243905</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="16">
         <v>84.0993629062</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="16">
         <v>108.6866229954</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="16">
         <v>104.646</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="16">
         <v>100.32599999999999</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K60" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>107.444</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>103.541</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>100.34</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K61" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <v>106.74299999999999</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="16">
         <v>108.1151913336</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="16">
         <v>84.228004732399995</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H62" s="16">
         <v>108.5274450755</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I62" s="16">
         <v>103.54300000000001</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J62" s="16">
         <v>100.34</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K62" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>103.61</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>100.34</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <v>105.755</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <v>107.4875171243</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="16">
         <v>76.507181751999994</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="16">
         <v>109.6777595691</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="16">
         <v>103.61</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="16">
         <v>100.34</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>103.661</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>100.34</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <v>106.889</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="16">
         <v>103.661</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J66" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K66" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <v>106.447</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="19">
         <v>107.11553304500001</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>86.778005823699999</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H67" s="19">
         <v>106.9248328514</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I67" s="19">
         <v>103.367</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J67" s="19">
         <v>100.339</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K67" s="19">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <v>105.934</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>106.0505331862</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>127.36462816709999</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="16">
         <v>104.9942430431</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="16">
         <v>102.95099999999999</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="16">
         <v>100.331</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K68" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>105.346</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>100.324</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="13">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <v>104.503</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="16">
         <v>105.1002407181</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="16">
         <v>88.301013724200004</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H70" s="16">
         <v>104.50205451870001</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I70" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J70" s="16">
         <v>100.29600000000001</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K70" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>102.654</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>100.29</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="13">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <v>103.67</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>104.5187172775</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <v>92.899994051799993</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="16">
         <v>104.285820413</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="16">
         <v>102.604</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J72" s="16">
         <v>100.274</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K72" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>103.687</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="13">
         <v>100.196</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K73" s="13">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <v>103.29900000000001</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="16">
         <v>103.4436474945</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="16">
         <v>107.6048597489</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H74" s="16">
         <v>104.7408219759</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I74" s="16">
         <v>101.68300000000001</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J74" s="16">
         <v>100.119</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K74" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>103.233</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>101.509</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>100.119</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <v>103.53100000000001</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="16">
         <v>103.10258831190001</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="16">
         <v>96.879318888</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="16">
         <v>104.9491652918</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="16">
         <v>101.459</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="16">
         <v>100.119</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>103.476</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>100</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>101.166</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>100.098</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>100</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H78" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I78" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>100.081</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K78" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="18">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D79" s="19">
         <v>103.108</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>102.47200356979999</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>100</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>78.7293169334</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>102.4734794414</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>100.42</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>100.036</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <v>103.02</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>101.4882812159</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>100</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>116.2152458092</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="16">
         <v>101.1447321365</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J80" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="12">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>102.303</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>100</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="13">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <v>101.44</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="16">
         <v>100.78655579709999</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="16">
         <v>100</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="16">
         <v>85.369691303899998</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H82" s="16">
         <v>100.05389573230001</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="16">
         <v>100.52500000000001</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J82" s="16">
         <v>100.021</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K82" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>100.917</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>100</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>100.126</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>100</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="13">
         <v>99.77</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <v>100.492</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>100.22727446899999</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>100</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="16">
         <v>79.518260205800004</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="16">
         <v>99.844190958599995</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="16">
         <v>100.05200000000001</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="16">
         <v>100</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K84" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="12">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>100</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H85" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J85" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K85" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <v>99.376464931786998</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="16">
         <v>99.990951002754002</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="16">
         <v>100</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="16">
         <v>99.195118819963994</v>
       </c>
-      <c r="H85" s="17" t="s">
+      <c r="H86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I86" s="16">
         <v>100.145214825742</v>
       </c>
-      <c r="J85" s="17" t="s">
+      <c r="J86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K86" s="16">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="12">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>100</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H87" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>99.721095334685998</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J87" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="13">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <v>99.154847046097004</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="16">
         <v>99.833850058503003</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="16">
         <v>100</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="16">
         <v>74.377335587917997</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H88" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I88" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J87" s="17" t="s">
+      <c r="J88" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K88" s="16">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="12">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H89" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>100.50825189009799</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J89" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="13">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="15">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <v>99.171374481640001</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="16">
         <v>99.404629920302</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G90" s="16">
         <v>79.172819495607996</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H90" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I90" s="16">
         <v>100.413747003504</v>
       </c>
-      <c r="J89" s="17" t="s">
+      <c r="J90" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K90" s="16">
         <v>100.841596924303</v>
       </c>
-      <c r="L89" s="20"/>
-    </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="12">
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <v>98.794999699501005</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>99.150938662095996</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>72.042283790854</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H91" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>100.245482205421</v>
       </c>
-      <c r="J90" s="14" t="s">
+      <c r="J91" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="13">
         <v>99.852310289049996</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="92" spans="2:12">
+      <c r="B92" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="20"/>
@@ -3741,9 +3742,9 @@
       <c r="H92" s="20"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:12">
       <c r="B93" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="20"/>
@@ -3752,13 +3753,16 @@
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:12">
       <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K95" s="21"/>
     </row>
   </sheetData>

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC43DD1-815A-49B1-9629-301B37718ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F47B8A-17A7-4467-9FE4-DCD8FB8CEECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -376,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K91" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K92" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N95"/>
+  <dimension ref="B2:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -930,17 +930,17 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="24" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -978,2773 +978,2793 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="11" customFormat="1">
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13">
+        <v>139.161</v>
+      </c>
+      <c r="E6" s="13">
+        <v>128.25508866460001</v>
+      </c>
+      <c r="F6" s="13">
+        <v>107.9288396963</v>
+      </c>
+      <c r="G6" s="13">
+        <v>143.42699001579999</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="13">
+        <v>125.67400000000001</v>
+      </c>
+      <c r="J6" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="13">
+        <v>89.144999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="11" customFormat="1">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="16">
         <v>138.726</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>127.80877476489999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>107.8617555228</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>129.33059490740001</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>125.697</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>100.6</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>89.084000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="11" customFormat="1">
-      <c r="B7" s="18">
+    <row r="8" spans="2:14" s="11" customFormat="1">
+      <c r="B8" s="18">
         <v>2025</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D8" s="19">
         <v>138.34299999999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="19">
         <v>127.3148055269</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="19">
         <v>107.8096364189</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="19">
         <v>126.31288726149999</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>125.209</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>100.6</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="19">
         <v>89.081669575600003</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="11" customFormat="1">
-      <c r="B8" s="15">
+    <row r="9" spans="2:14" s="11" customFormat="1">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>137.94900000000001</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>126.988350193</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>107.7500347802</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>205.85461125200001</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>124.09699999999999</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>100.60044724230001</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="11" customFormat="1">
-      <c r="B9" s="12">
+    <row r="10" spans="2:14" s="11" customFormat="1">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>137.42400000000001</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>126.1506342819</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>107.69043314149999</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>163.0304427657</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>123.661</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="11" customFormat="1">
-      <c r="B10" s="15">
+    <row r="11" spans="2:14" s="11" customFormat="1">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <v>136.828</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>125.8430792046</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>107.63083150289999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>150.05764800759999</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>100.6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="12">
+    <row r="12" spans="2:14">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>136.08000000000001</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>125.9243949896</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>107.5637453439</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>140.67318630739999</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>123.35899999999999</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>89.114043740699998</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="15">
+    <row r="13" spans="2:14">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>136.01300000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>125.35642665260001</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>107.5116282255</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>138.501613185</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>123.438</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>100.6</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="12">
+    <row r="14" spans="2:14">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>100.6</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="15">
+    <row r="15" spans="2:14">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>134.59399999999999</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>123.454094798</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>106.0396352632</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>147.441</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>136.3792212685</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="16">
         <v>123.023</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J15" s="16">
         <v>100.6</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K15" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="12">
+    <row r="16" spans="2:14">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>122.36</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>100.6</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="15">
+    <row r="17" spans="2:11">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <v>134.33600000000001</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>123.0447919639</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>105.8761867728</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>137.01147154309999</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>135.70240732440001</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>120.79900000000001</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J17" s="16">
         <v>100.6</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K17" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12">
+    <row r="18" spans="2:11">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>134.065</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>100.6</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="15">
+    <row r="19" spans="2:11">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>119.937</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>100.6</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="18">
+    <row r="20" spans="2:11">
+      <c r="B20" s="18">
         <v>2024</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <v>100.6</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1">
-      <c r="B20" s="22">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="22">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K21" s="23">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="12">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>119.861</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="15">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <v>130.60900000000001</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>120.4862973733</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>105.38584130149999</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>145.65313447969999</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="16">
         <v>130.1120315803</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <v>118.376</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>100.6</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="12">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>130.12</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>118.788</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="13">
         <v>100.6</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K24" s="13">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="15">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <v>129.54499999999999</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>120.39914263439999</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>105.22239281109999</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>127.9599808845</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="16">
         <v>129.0779724994</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="16">
         <v>118.574</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="16">
         <v>100.6</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>118.285</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>100.6</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <v>128.214</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>119.82760529700001</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>105.05894432069999</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>125.4398687573</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="16">
         <v>129.16292087080001</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="16">
         <v>117.982</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="16">
         <v>100.6</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>128.084</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>117.361</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>100.6</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <v>128.363</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>119.66934975220001</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>104.71978870300001</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>111.8321814474</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <v>129.31726497450001</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <v>117.387</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="16">
         <v>100.6</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>100.6</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K30" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <v>100.6</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="18">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="18">
         <v>2023</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D32" s="19">
         <v>127.336</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>117.6482068262</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="19">
         <v>105.4811752151</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="19">
         <v>127.5767484142</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <v>115.95099999999999</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <v>100.6</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <v>126.47799999999999</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>116.82049176770001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>139.65915062159999</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <v>124.6968379873</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>115.741</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <v>100.6</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>125.997</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>115.336</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>100.6</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>90.87</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <v>125.276</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>115.94924330409999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>119.8275041996</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="16">
         <v>124.65542954270001</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="16">
         <v>114.956</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J35" s="16">
         <v>100.6</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>124.571</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="13">
         <v>100.6</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K36" s="13">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="15">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <v>123.803</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>115.41491664279999</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>116.4447289605</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <v>125.9840309911</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>115.134</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>100.59</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>114.389</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>100.59</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <v>122.044</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>113.8040964162</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>130.85123030770001</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>125.1867510614</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="16">
         <v>113.178</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J39" s="16">
         <v>100.59</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>113.289</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>120.809</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>112.48503934839999</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>129.87573640970001</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H41" s="16">
         <v>124.0503181081</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I41" s="16">
         <v>113.02800000000001</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J41" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K41" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>113.009</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K42" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>112.843</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="16">
         <v>100.559</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="18">
+    <row r="44" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="18">
         <v>2022</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="19">
         <v>118.002</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>111.4420556762</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="19">
         <v>101.66052718260001</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>87.919810779000002</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="19">
         <v>120.6612786609</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="19">
         <v>112.705</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="19">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <v>117.30800000000001</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>110.93061004979999</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>144.0852936078</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <v>117.87569352689999</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>112.803</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <v>100.551</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>116.884</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>100.54</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <v>115.56100000000001</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>109.85587154930001</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>107.4801111049</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="16">
         <v>117.2036471113</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I47" s="16">
         <v>112.779</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J47" s="16">
         <v>100.54</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>114.601</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>111.345</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="13">
         <v>100.523</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K48" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="15">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <v>113.899</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>109.6876007529</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>103.9626342001</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <v>116.7589504195</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>111.09399999999999</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J49" s="16">
         <v>100.521</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>113.682</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>100.512</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <v>113.018</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>109.3611515443</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>127.6488519838</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="16">
         <v>115.5054112312</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I51" s="16">
         <v>110.64700000000001</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J51" s="16">
         <v>100.503</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>112.419</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>110.613</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>100.504</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <v>112.19</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>109.1238791816</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>101.2984364707</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>92.423514952199994</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H53" s="16">
         <v>114.6136060937</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I53" s="16">
         <v>110.613</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J53" s="16">
         <v>100.47</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K53" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>111.824</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>110.506</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>100.4</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K54" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <v>110.907</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="16">
         <v>100.36</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="18">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="18">
         <v>2021</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="19">
         <v>110.21</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>108.91289704650001</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>69.379568991200003</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <v>112.46996162710001</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="19">
         <v>110.208</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="19">
         <v>100.355</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="19">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <v>109.271</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>108.6477332931</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>88.425353764299999</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <v>110.0805693728</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>110.01600000000001</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J57" s="16">
         <v>100.30500000000001</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <v>108.774</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>108.5602695565</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="16">
         <v>92.871387775499997</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H59" s="16">
         <v>108.9954622659</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I59" s="16">
         <v>109.27500000000001</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J59" s="16">
         <v>100.31</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>108.114</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>107.221</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="13">
         <v>100.31</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K60" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="15">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <v>107.867</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>108.2641243905</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>84.0993629062</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="16">
         <v>108.6866229954</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I61" s="16">
         <v>104.646</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J61" s="16">
         <v>100.32599999999999</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>107.444</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>103.541</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>100.34</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <v>106.74299999999999</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>108.1151913336</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="16">
         <v>84.228004732399995</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="16">
         <v>108.5274450755</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I63" s="16">
         <v>103.54300000000001</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J63" s="16">
         <v>100.34</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>103.61</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>100.34</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <v>105.755</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>107.4875171243</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>76.507181751999994</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>109.6777595691</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I65" s="16">
         <v>103.61</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J65" s="16">
         <v>100.34</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>103.661</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>100.34</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K66" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <v>106.889</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="16">
         <v>103.661</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="18">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="18">
         <v>2020</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="19">
         <v>106.447</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>107.11553304500001</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>86.778005823699999</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>106.9248328514</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>103.367</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>100.339</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <v>105.934</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>106.0505331862</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>127.36462816709999</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <v>104.9942430431</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>102.95099999999999</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="16">
         <v>100.331</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>105.346</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>100.324</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <v>104.503</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>105.1002407181</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="16">
         <v>88.301013724200004</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H71" s="16">
         <v>104.50205451870001</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I71" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J71" s="16">
         <v>100.29600000000001</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>102.654</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="13">
         <v>100.29</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K72" s="13">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="15">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <v>103.67</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>104.5187172775</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>92.899994051799993</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="16">
         <v>104.285820413</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I73" s="16">
         <v>102.604</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J73" s="16">
         <v>100.274</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>103.687</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>100.196</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <v>103.29900000000001</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>103.4436474945</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="16">
         <v>107.6048597489</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="16">
         <v>104.7408219759</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="16">
         <v>101.68300000000001</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J75" s="16">
         <v>100.119</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>103.233</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>101.509</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>100.119</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <v>103.53100000000001</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>103.10258831190001</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>96.879318888</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H77" s="16">
         <v>104.9491652918</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I77" s="16">
         <v>101.459</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J77" s="16">
         <v>100.119</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K77" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>103.476</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>100</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>101.166</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>100.098</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K78" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>100</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J79" s="16">
         <v>100.081</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="18">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="18">
         <v>2019</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D80" s="19">
         <v>103.108</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>102.47200356979999</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>100</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>78.7293169334</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>102.4734794414</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>100.42</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>100.036</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <v>103.02</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>101.4882812159</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>100</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>116.2152458092</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="16">
         <v>101.1447321365</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J81" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>102.303</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>100</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <v>101.44</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>100.78655579709999</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>100</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="16">
         <v>85.369691303899998</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H83" s="16">
         <v>100.05389573230001</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I83" s="16">
         <v>100.52500000000001</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J83" s="16">
         <v>100.021</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>100.917</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>100</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>100.126</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J84" s="13">
         <v>100</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K84" s="13">
         <v>99.77</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <v>100.492</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>100.22727446899999</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>100</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>79.518260205800004</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H85" s="16">
         <v>99.844190958599995</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>100.05200000000001</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J85" s="16">
         <v>100</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>100</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H86" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J86" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="15">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <v>99.376464931786998</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>99.990951002754002</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>100</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="16">
         <v>99.195118819963994</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H87" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I87" s="16">
         <v>100.145214825742</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J87" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="16">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>100</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H88" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>99.721095334685998</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J88" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B88" s="15">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <v>99.154847046097004</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>99.833850058503003</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>100</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G89" s="16">
         <v>74.377335587917997</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H89" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I89" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J88" s="17" t="s">
+      <c r="J89" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K89" s="16">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>100.50825189009799</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B90" s="15">
+    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="16">
         <v>99.171374481640001</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E91" s="16">
         <v>99.404629920302</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F91" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G91" s="16">
         <v>79.172819495607996</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I91" s="16">
         <v>100.413747003504</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="J91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K91" s="16">
         <v>100.841596924303</v>
       </c>
-      <c r="L90" s="20"/>
-    </row>
-    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B91" s="12">
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <v>98.794999699501005</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>99.150938662095996</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>72.042283790854</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H92" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>100.245482205421</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J92" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K92" s="13">
         <v>99.852310289049996</v>
       </c>
-    </row>
-    <row r="92" spans="2:12">
-      <c r="B92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="K92" s="21"/>
     </row>
     <row r="93" spans="2:12">
       <c r="B93" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="20"/>
@@ -3752,18 +3772,30 @@
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
+      <c r="K93" s="21"/>
     </row>
     <row r="94" spans="2:12">
       <c r="B94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K94" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="2:12">
       <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K95" s="21"/>
+      <c r="K96" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EE3C4-6FBB-4405-B9EC-02A5C34953B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B355-BFC8-4E84-90D6-BE51C8CD2F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K93" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K95" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N97"/>
+  <dimension ref="B2:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -982,31 +982,31 @@
         <v>2025</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="16">
-        <v>139.62</v>
+        <v>140.405</v>
       </c>
       <c r="E6" s="17">
-        <v>128.83622417449999</v>
+        <v>129.11535608610001</v>
       </c>
       <c r="F6" s="17">
-        <v>108.0586069655</v>
+        <v>108.6306185137</v>
       </c>
       <c r="G6" s="17">
-        <v>147.25273636840001</v>
+        <v>145.93419866639999</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="17">
-        <v>125.508</v>
+        <v>126.19352099549999</v>
       </c>
       <c r="J6" s="17">
         <v>100.60044724230001</v>
       </c>
       <c r="K6" s="17">
-        <v>89.206203918300005</v>
+        <v>89.149123745099999</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="11" customFormat="1">
@@ -1014,31 +1014,31 @@
         <v>2025</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="13">
-        <v>139.161</v>
+        <v>140.012</v>
       </c>
       <c r="E7" s="13">
-        <v>128.25508866460001</v>
+        <v>128.91614059470001</v>
       </c>
       <c r="F7" s="13">
-        <v>107.9288396963</v>
+        <v>108.5710168751</v>
       </c>
       <c r="G7" s="13">
-        <v>143.42699001579999</v>
+        <v>136.0948338069</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="13">
-        <v>125.67400000000001</v>
+        <v>126.19352099549999</v>
       </c>
       <c r="J7" s="13">
         <v>100.60044724230001</v>
       </c>
       <c r="K7" s="13">
-        <v>89.144866820999994</v>
+        <v>89.206272632799994</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="11" customFormat="1">
@@ -1046,127 +1046,127 @@
         <v>2025</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16">
-        <v>138.726</v>
+        <v>139.62</v>
       </c>
       <c r="E8" s="17">
-        <v>127.80877476489999</v>
+        <v>128.83622417449999</v>
       </c>
       <c r="F8" s="17">
-        <v>107.8617555228</v>
+        <v>108.0586069655</v>
       </c>
       <c r="G8" s="17">
-        <v>129.33059490740001</v>
+        <v>147.25273636840001</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="17">
-        <v>125.697</v>
+        <v>125.5078969639</v>
       </c>
       <c r="J8" s="17">
         <v>100.60044724230001</v>
       </c>
       <c r="K8" s="17">
-        <v>89.083660349100001</v>
+        <v>89.206203918300005</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="11" customFormat="1">
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19">
-        <v>138.34299999999999</v>
-      </c>
-      <c r="E9" s="19">
-        <v>127.3148055269</v>
-      </c>
-      <c r="F9" s="19">
-        <v>107.8096364189</v>
-      </c>
-      <c r="G9" s="19">
-        <v>126.31288726149999</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13">
+        <v>139.161</v>
+      </c>
+      <c r="E9" s="13">
+        <v>128.25508866460001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>107.9288396963</v>
+      </c>
+      <c r="G9" s="13">
+        <v>143.42699001579999</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="19">
-        <v>125.209</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="I9" s="13">
+        <v>125.6737319193</v>
+      </c>
+      <c r="J9" s="13">
         <v>100.60044724230001</v>
       </c>
-      <c r="K9" s="19">
-        <v>89.081669575600003</v>
+      <c r="K9" s="13">
+        <v>89.144866820999994</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="11" customFormat="1">
       <c r="B10" s="15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="16">
-        <v>137.94900000000001</v>
+        <v>138.726</v>
       </c>
       <c r="E10" s="17">
-        <v>126.988350193</v>
+        <v>127.80877476489999</v>
       </c>
       <c r="F10" s="17">
-        <v>107.7500347802</v>
+        <v>107.8617555228</v>
       </c>
       <c r="G10" s="17">
-        <v>205.85461125200001</v>
+        <v>129.33059490740001</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="17">
-        <v>124.09699999999999</v>
+        <v>125.697</v>
       </c>
       <c r="J10" s="17">
-        <v>100.60044724230001</v>
+        <v>100.6</v>
       </c>
       <c r="K10" s="17">
-        <v>89.114043740699998</v>
+        <v>89.084000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:14" s="11" customFormat="1">
-      <c r="B11" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13">
-        <v>137.42400000000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>126.1506342819</v>
-      </c>
-      <c r="F11" s="13">
-        <v>107.69043314149999</v>
-      </c>
-      <c r="G11" s="13">
-        <v>163.0304427657</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="B11" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19">
+        <v>138.34299999999999</v>
+      </c>
+      <c r="E11" s="19">
+        <v>127.3148055269</v>
+      </c>
+      <c r="F11" s="19">
+        <v>107.8096364189</v>
+      </c>
+      <c r="G11" s="19">
+        <v>126.31288726149999</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="13">
-        <v>123.661</v>
-      </c>
-      <c r="J11" s="13">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K11" s="13">
-        <v>89.114043740699998</v>
+      <c r="I11" s="19">
+        <v>125.209</v>
+      </c>
+      <c r="J11" s="19">
+        <v>100.6</v>
+      </c>
+      <c r="K11" s="19">
+        <v>89.081999999999994</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="11" customFormat="1">
@@ -1174,25 +1174,25 @@
         <v>2024</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="16">
-        <v>136.828</v>
+        <v>137.94900000000001</v>
       </c>
       <c r="E12" s="17">
-        <v>125.8430792046</v>
+        <v>126.988350193</v>
       </c>
       <c r="F12" s="17">
-        <v>107.63083150289999</v>
+        <v>107.7500347802</v>
       </c>
       <c r="G12" s="17">
-        <v>150.05764800759999</v>
+        <v>205.85461125200001</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="17">
-        <v>123.35899999999999</v>
+        <v>124.09699999999999</v>
       </c>
       <c r="J12" s="17">
         <v>100.6</v>
@@ -1201,62 +1201,62 @@
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" s="11" customFormat="1">
       <c r="B13" s="12">
         <v>2024</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="13">
-        <v>136.08000000000001</v>
+        <v>137.42400000000001</v>
       </c>
       <c r="E13" s="13">
-        <v>125.9243949896</v>
+        <v>126.1506342819</v>
       </c>
       <c r="F13" s="13">
-        <v>107.5637453439</v>
+        <v>107.69043314149999</v>
       </c>
       <c r="G13" s="13">
-        <v>140.67318630739999</v>
+        <v>163.0304427657</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="13">
-        <v>123.35899999999999</v>
+        <v>123.661</v>
       </c>
       <c r="J13" s="13">
-        <v>100.60044724230001</v>
+        <v>100.6</v>
       </c>
       <c r="K13" s="13">
-        <v>89.114043740699998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="11" customFormat="1">
       <c r="B14" s="15">
         <v>2024</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D14" s="16">
-        <v>136.01300000000001</v>
+        <v>136.828</v>
       </c>
       <c r="E14" s="17">
-        <v>125.35642665260001</v>
+        <v>125.8430792046</v>
       </c>
       <c r="F14" s="17">
-        <v>107.5116282255</v>
+        <v>107.63083150289999</v>
       </c>
       <c r="G14" s="17">
-        <v>138.501613185</v>
+        <v>150.05764800759999</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="17">
-        <v>123.438</v>
+        <v>123.35899999999999</v>
       </c>
       <c r="J14" s="17">
         <v>100.6</v>
@@ -1270,25 +1270,25 @@
         <v>2024</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D15" s="13">
-        <v>136.00299999999999</v>
+        <v>136.08000000000001</v>
       </c>
       <c r="E15" s="13">
-        <v>124.5592826787</v>
+        <v>125.9243949896</v>
       </c>
       <c r="F15" s="13">
-        <v>107.4370558178</v>
+        <v>107.5637453439</v>
       </c>
       <c r="G15" s="13">
-        <v>162.48163763549999</v>
-      </c>
-      <c r="H15" s="13">
-        <v>136.92312158670001</v>
+        <v>140.67318630739999</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="I15" s="13">
-        <v>123.36199999999999</v>
+        <v>123.35899999999999</v>
       </c>
       <c r="J15" s="13">
         <v>100.6</v>
@@ -1302,30 +1302,30 @@
         <v>2024</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="16">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="E16" s="16">
-        <v>123.454094798</v>
-      </c>
-      <c r="F16" s="16">
-        <v>106.0396352632</v>
-      </c>
-      <c r="G16" s="16">
-        <v>147.441</v>
-      </c>
-      <c r="H16" s="16">
-        <v>136.3792212685</v>
-      </c>
-      <c r="I16" s="16">
-        <v>123.023</v>
-      </c>
-      <c r="J16" s="16">
+        <v>136.01300000000001</v>
+      </c>
+      <c r="E16" s="17">
+        <v>125.35642665260001</v>
+      </c>
+      <c r="F16" s="17">
+        <v>107.5116282255</v>
+      </c>
+      <c r="G16" s="17">
+        <v>138.501613185</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="17">
+        <v>123.438</v>
+      </c>
+      <c r="J16" s="17">
         <v>100.6</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
@@ -1334,25 +1334,25 @@
         <v>2024</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13">
-        <v>134.08699999999999</v>
+        <v>136.00299999999999</v>
       </c>
       <c r="E17" s="13">
-        <v>122.97212671689999</v>
+        <v>124.5592826787</v>
       </c>
       <c r="F17" s="13">
-        <v>105.9659254435</v>
+        <v>107.4370558178</v>
       </c>
       <c r="G17" s="13">
-        <v>143.96444227999999</v>
+        <v>162.48163763549999</v>
       </c>
       <c r="H17" s="13">
-        <v>136.17550477169999</v>
+        <v>136.92312158670001</v>
       </c>
       <c r="I17" s="13">
-        <v>122.36</v>
+        <v>123.36199999999999</v>
       </c>
       <c r="J17" s="13">
         <v>100.6</v>
@@ -1366,25 +1366,25 @@
         <v>2024</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="16">
-        <v>134.33600000000001</v>
+        <v>134.59399999999999</v>
       </c>
       <c r="E18" s="16">
-        <v>123.0447919639</v>
+        <v>123.454094798</v>
       </c>
       <c r="F18" s="16">
-        <v>105.8761867728</v>
+        <v>106.0396352632</v>
       </c>
       <c r="G18" s="16">
-        <v>137.01147154309999</v>
+        <v>147.441</v>
       </c>
       <c r="H18" s="16">
-        <v>135.70240732440001</v>
+        <v>136.3792212685</v>
       </c>
       <c r="I18" s="16">
-        <v>120.79900000000001</v>
+        <v>123.023</v>
       </c>
       <c r="J18" s="16">
         <v>100.6</v>
@@ -1398,25 +1398,25 @@
         <v>2024</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="13">
-        <v>134.065</v>
+        <v>134.08699999999999</v>
       </c>
       <c r="E19" s="13">
-        <v>122.89707405510001</v>
+        <v>122.97212671689999</v>
       </c>
       <c r="F19" s="13">
-        <v>105.7944625276</v>
+        <v>105.9659254435</v>
       </c>
       <c r="G19" s="13">
-        <v>174.2144001913</v>
+        <v>143.96444227999999</v>
       </c>
       <c r="H19" s="13">
-        <v>134.95018121690001</v>
+        <v>136.17550477169999</v>
       </c>
       <c r="I19" s="13">
-        <v>120.56100000000001</v>
+        <v>122.36</v>
       </c>
       <c r="J19" s="13">
         <v>100.6</v>
@@ -1430,25 +1430,25 @@
         <v>2024</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="16">
-        <v>133.68100000000001</v>
+        <v>134.33600000000001</v>
       </c>
       <c r="E20" s="16">
-        <v>122.47679316519999</v>
+        <v>123.0447919639</v>
       </c>
       <c r="F20" s="16">
-        <v>105.7127382824</v>
+        <v>105.8761867728</v>
       </c>
       <c r="G20" s="16">
-        <v>135.7291557476</v>
+        <v>137.01147154309999</v>
       </c>
       <c r="H20" s="16">
-        <v>134.2923932084</v>
+        <v>135.70240732440001</v>
       </c>
       <c r="I20" s="16">
-        <v>119.937</v>
+        <v>120.79900000000001</v>
       </c>
       <c r="J20" s="16">
         <v>100.6</v>
@@ -1458,131 +1458,131 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="18">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13">
+        <v>134.065</v>
+      </c>
+      <c r="E21" s="13">
+        <v>122.89707405510001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>105.7944625276</v>
+      </c>
+      <c r="G21" s="13">
+        <v>174.2144001913</v>
+      </c>
+      <c r="H21" s="13">
+        <v>134.95018121690001</v>
+      </c>
+      <c r="I21" s="13">
+        <v>120.56100000000001</v>
+      </c>
+      <c r="J21" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K21" s="13">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="16">
+        <v>133.68100000000001</v>
+      </c>
+      <c r="E22" s="16">
+        <v>122.47679316519999</v>
+      </c>
+      <c r="F22" s="16">
+        <v>105.7127382824</v>
+      </c>
+      <c r="G22" s="16">
+        <v>135.7291557476</v>
+      </c>
+      <c r="H22" s="16">
+        <v>134.2923932084</v>
+      </c>
+      <c r="I22" s="16">
+        <v>119.937</v>
+      </c>
+      <c r="J22" s="16">
+        <v>100.6</v>
+      </c>
+      <c r="K22" s="16">
+        <v>89.114000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D23" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E23" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F23" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G23" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H23" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I23" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J23" s="19">
         <v>100.6</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K23" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="22">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D24" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E24" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F24" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G24" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H24" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I24" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J24" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K24" s="23">
         <v>88.957999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13">
-        <v>131.44499999999999</v>
-      </c>
-      <c r="E23" s="13">
-        <v>120.8160445282</v>
-      </c>
-      <c r="F23" s="13">
-        <v>105.4675655467</v>
-      </c>
-      <c r="G23" s="13">
-        <v>157.47167143870001</v>
-      </c>
-      <c r="H23" s="13">
-        <v>130.18555967200001</v>
-      </c>
-      <c r="I23" s="13">
-        <v>119.861</v>
-      </c>
-      <c r="J23" s="13">
-        <v>99.236999999999995</v>
-      </c>
-      <c r="K23" s="13">
-        <v>88.673000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="16">
-        <v>130.60900000000001</v>
-      </c>
-      <c r="E24" s="16">
-        <v>120.4862973733</v>
-      </c>
-      <c r="F24" s="16">
-        <v>105.38584130149999</v>
-      </c>
-      <c r="G24" s="16">
-        <v>145.65313447969999</v>
-      </c>
-      <c r="H24" s="16">
-        <v>130.1120315803</v>
-      </c>
-      <c r="I24" s="16">
-        <v>118.376</v>
-      </c>
-      <c r="J24" s="16">
-        <v>100.6</v>
-      </c>
-      <c r="K24" s="16">
-        <v>89.010999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:11" hidden="1">
@@ -1590,31 +1590,31 @@
         <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="13">
-        <v>130.12</v>
+        <v>131.44499999999999</v>
       </c>
       <c r="E25" s="13">
-        <v>120.4973605119</v>
+        <v>120.8160445282</v>
       </c>
       <c r="F25" s="13">
-        <v>105.3041170563</v>
+        <v>105.4675655467</v>
       </c>
       <c r="G25" s="13">
-        <v>128.47314640139999</v>
+        <v>157.47167143870001</v>
       </c>
       <c r="H25" s="13">
-        <v>129.75090098219999</v>
+        <v>130.18555967200001</v>
       </c>
       <c r="I25" s="13">
-        <v>118.788</v>
+        <v>119.861</v>
       </c>
       <c r="J25" s="13">
-        <v>100.6</v>
+        <v>99.236999999999995</v>
       </c>
       <c r="K25" s="13">
-        <v>89.073999999999998</v>
+        <v>88.673000000000002</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1">
@@ -1622,31 +1622,31 @@
         <v>2023</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26" s="16">
-        <v>129.54499999999999</v>
+        <v>130.60900000000001</v>
       </c>
       <c r="E26" s="16">
-        <v>120.39914263439999</v>
+        <v>120.4862973733</v>
       </c>
       <c r="F26" s="16">
-        <v>105.22239281109999</v>
+        <v>105.38584130149999</v>
       </c>
       <c r="G26" s="16">
-        <v>127.9599808845</v>
+        <v>145.65313447969999</v>
       </c>
       <c r="H26" s="16">
-        <v>129.0779724994</v>
+        <v>130.1120315803</v>
       </c>
       <c r="I26" s="16">
-        <v>118.574</v>
+        <v>118.376</v>
       </c>
       <c r="J26" s="16">
         <v>100.6</v>
       </c>
       <c r="K26" s="16">
-        <v>89.128</v>
+        <v>89.010999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1">
@@ -1654,31 +1654,31 @@
         <v>2023</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D27" s="13">
-        <v>128.83199999999999</v>
+        <v>130.12</v>
       </c>
       <c r="E27" s="13">
-        <v>120.08299225419999</v>
+        <v>120.4973605119</v>
       </c>
       <c r="F27" s="13">
-        <v>105.1406685659</v>
+        <v>105.3041170563</v>
       </c>
       <c r="G27" s="13">
-        <v>146.74874433080001</v>
+        <v>128.47314640139999</v>
       </c>
       <c r="H27" s="13">
-        <v>129.31384858050001</v>
+        <v>129.75090098219999</v>
       </c>
       <c r="I27" s="13">
-        <v>118.285</v>
+        <v>118.788</v>
       </c>
       <c r="J27" s="13">
         <v>100.6</v>
       </c>
       <c r="K27" s="13">
-        <v>89.182000000000002</v>
+        <v>89.073999999999998</v>
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1">
@@ -1686,31 +1686,31 @@
         <v>2023</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="16">
-        <v>128.214</v>
+        <v>129.54499999999999</v>
       </c>
       <c r="E28" s="16">
-        <v>119.82760529700001</v>
+        <v>120.39914263439999</v>
       </c>
       <c r="F28" s="16">
-        <v>105.05894432069999</v>
+        <v>105.22239281109999</v>
       </c>
       <c r="G28" s="16">
-        <v>125.4398687573</v>
+        <v>127.9599808845</v>
       </c>
       <c r="H28" s="16">
-        <v>129.16292087080001</v>
+        <v>129.0779724994</v>
       </c>
       <c r="I28" s="16">
-        <v>117.982</v>
+        <v>118.574</v>
       </c>
       <c r="J28" s="16">
         <v>100.6</v>
       </c>
       <c r="K28" s="16">
-        <v>89.182000000000002</v>
+        <v>89.128</v>
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1">
@@ -1718,31 +1718,31 @@
         <v>2023</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="13">
-        <v>128.084</v>
+        <v>128.83199999999999</v>
       </c>
       <c r="E29" s="13">
-        <v>119.8233656324</v>
+        <v>120.08299225419999</v>
       </c>
       <c r="F29" s="13">
-        <v>104.89549583020001</v>
+        <v>105.1406685659</v>
       </c>
       <c r="G29" s="13">
-        <v>117.17254640749999</v>
+        <v>146.74874433080001</v>
       </c>
       <c r="H29" s="13">
-        <v>128.9614286716</v>
+        <v>129.31384858050001</v>
       </c>
       <c r="I29" s="13">
-        <v>117.361</v>
+        <v>118.285</v>
       </c>
       <c r="J29" s="13">
         <v>100.6</v>
       </c>
       <c r="K29" s="13">
-        <v>90.105999999999995</v>
+        <v>89.182000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1">
@@ -1750,31 +1750,31 @@
         <v>2023</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="16">
-        <v>128.363</v>
+        <v>128.214</v>
       </c>
       <c r="E30" s="16">
-        <v>119.66934975220001</v>
+        <v>119.82760529700001</v>
       </c>
       <c r="F30" s="16">
-        <v>104.71978870300001</v>
+        <v>105.05894432069999</v>
       </c>
       <c r="G30" s="16">
-        <v>111.8321814474</v>
+        <v>125.4398687573</v>
       </c>
       <c r="H30" s="16">
-        <v>129.31726497450001</v>
+        <v>129.16292087080001</v>
       </c>
       <c r="I30" s="16">
-        <v>117.387</v>
+        <v>117.982</v>
       </c>
       <c r="J30" s="16">
         <v>100.6</v>
       </c>
       <c r="K30" s="16">
-        <v>90.105999999999995</v>
+        <v>89.182000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1">
@@ -1782,25 +1782,25 @@
         <v>2023</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="13">
-        <v>128.38900000000001</v>
+        <v>128.084</v>
       </c>
       <c r="E31" s="13">
-        <v>118.9558148927</v>
+        <v>119.8233656324</v>
       </c>
       <c r="F31" s="13">
-        <v>104.4868746042</v>
+        <v>104.89549583020001</v>
       </c>
       <c r="G31" s="13">
-        <v>132.87275808659999</v>
+        <v>117.17254640749999</v>
       </c>
       <c r="H31" s="13">
-        <v>129.457527414</v>
+        <v>128.9614286716</v>
       </c>
       <c r="I31" s="13">
-        <v>117.16200000000001</v>
+        <v>117.361</v>
       </c>
       <c r="J31" s="13">
         <v>100.6</v>
@@ -1814,25 +1814,25 @@
         <v>2023</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="16">
-        <v>128.04599999999999</v>
+        <v>128.363</v>
       </c>
       <c r="E32" s="16">
-        <v>118.1916406628</v>
+        <v>119.66934975220001</v>
       </c>
       <c r="F32" s="16">
-        <v>104.4868746042</v>
+        <v>104.71978870300001</v>
       </c>
       <c r="G32" s="16">
-        <v>105.46410968399999</v>
+        <v>111.8321814474</v>
       </c>
       <c r="H32" s="16">
-        <v>129.12205609009999</v>
+        <v>129.31726497450001</v>
       </c>
       <c r="I32" s="16">
-        <v>116.64100000000001</v>
+        <v>117.387</v>
       </c>
       <c r="J32" s="16">
         <v>100.6</v>
@@ -1842,99 +1842,99 @@
       </c>
     </row>
     <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="19">
-        <v>127.336</v>
-      </c>
-      <c r="E33" s="19">
-        <v>117.6482068262</v>
-      </c>
-      <c r="F33" s="19">
-        <v>103.6972441545</v>
-      </c>
-      <c r="G33" s="19">
-        <v>105.4811752151</v>
-      </c>
-      <c r="H33" s="19">
-        <v>127.5767484142</v>
-      </c>
-      <c r="I33" s="19">
-        <v>115.95099999999999</v>
-      </c>
-      <c r="J33" s="19">
+      <c r="C33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="13">
+        <v>128.38900000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>118.9558148927</v>
+      </c>
+      <c r="F33" s="13">
+        <v>104.4868746042</v>
+      </c>
+      <c r="G33" s="13">
+        <v>132.87275808659999</v>
+      </c>
+      <c r="H33" s="13">
+        <v>129.457527414</v>
+      </c>
+      <c r="I33" s="13">
+        <v>117.16200000000001</v>
+      </c>
+      <c r="J33" s="13">
         <v>100.6</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
     <row r="34" spans="2:11" hidden="1">
       <c r="B34" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="16">
-        <v>126.47799999999999</v>
+        <v>128.04599999999999</v>
       </c>
       <c r="E34" s="16">
-        <v>116.82049176770001</v>
+        <v>118.1916406628</v>
       </c>
       <c r="F34" s="16">
-        <v>103.6972441545</v>
+        <v>104.4868746042</v>
       </c>
       <c r="G34" s="16">
-        <v>139.65915062159999</v>
+        <v>105.46410968399999</v>
       </c>
       <c r="H34" s="16">
-        <v>124.6968379873</v>
+        <v>129.12205609009999</v>
       </c>
       <c r="I34" s="16">
-        <v>115.741</v>
+        <v>116.64100000000001</v>
       </c>
       <c r="J34" s="16">
         <v>100.6</v>
       </c>
       <c r="K34" s="16">
-        <v>90.87</v>
+        <v>90.105999999999995</v>
       </c>
     </row>
     <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="13">
-        <v>125.997</v>
-      </c>
-      <c r="E35" s="13">
-        <v>116.0450620779</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="B35" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="19">
+        <v>127.336</v>
+      </c>
+      <c r="E35" s="19">
+        <v>117.6482068262</v>
+      </c>
+      <c r="F35" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G35" s="13">
-        <v>132.31738618719999</v>
-      </c>
-      <c r="H35" s="13">
-        <v>124.54272655050001</v>
-      </c>
-      <c r="I35" s="13">
-        <v>115.336</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="G35" s="19">
+        <v>105.4811752151</v>
+      </c>
+      <c r="H35" s="19">
+        <v>127.5767484142</v>
+      </c>
+      <c r="I35" s="19">
+        <v>115.95099999999999</v>
+      </c>
+      <c r="J35" s="19">
         <v>100.6</v>
       </c>
-      <c r="K35" s="13">
-        <v>90.87</v>
+      <c r="K35" s="19">
+        <v>90.105999999999995</v>
       </c>
     </row>
     <row r="36" spans="2:11" hidden="1">
@@ -1942,31 +1942,31 @@
         <v>2022</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="16">
-        <v>125.276</v>
+        <v>126.47799999999999</v>
       </c>
       <c r="E36" s="16">
-        <v>115.94924330409999</v>
+        <v>116.82049176770001</v>
       </c>
       <c r="F36" s="16">
-        <v>103.2886229284</v>
+        <v>103.6972441545</v>
       </c>
       <c r="G36" s="16">
-        <v>119.8275041996</v>
+        <v>139.65915062159999</v>
       </c>
       <c r="H36" s="16">
-        <v>124.65542954270001</v>
+        <v>124.6968379873</v>
       </c>
       <c r="I36" s="16">
-        <v>114.956</v>
+        <v>115.741</v>
       </c>
       <c r="J36" s="16">
         <v>100.6</v>
       </c>
       <c r="K36" s="16">
-        <v>90.855999999999995</v>
+        <v>90.87</v>
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1">
@@ -1974,31 +1974,31 @@
         <v>2022</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="13">
-        <v>124.571</v>
+        <v>125.997</v>
       </c>
       <c r="E37" s="13">
-        <v>115.74943222349999</v>
+        <v>116.0450620779</v>
       </c>
       <c r="F37" s="13">
-        <v>103.2886229284</v>
+        <v>103.6972441545</v>
       </c>
       <c r="G37" s="13">
-        <v>117.1841235999</v>
+        <v>132.31738618719999</v>
       </c>
       <c r="H37" s="13">
-        <v>124.1308784126</v>
+        <v>124.54272655050001</v>
       </c>
       <c r="I37" s="13">
-        <v>115.31699999999999</v>
+        <v>115.336</v>
       </c>
       <c r="J37" s="13">
         <v>100.6</v>
       </c>
       <c r="K37" s="13">
-        <v>94.805999999999997</v>
+        <v>90.87</v>
       </c>
     </row>
     <row r="38" spans="2:11" hidden="1">
@@ -2006,31 +2006,31 @@
         <v>2022</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D38" s="16">
-        <v>123.803</v>
+        <v>125.276</v>
       </c>
       <c r="E38" s="16">
-        <v>115.41491664279999</v>
+        <v>115.94924330409999</v>
       </c>
       <c r="F38" s="16">
         <v>103.2886229284</v>
       </c>
       <c r="G38" s="16">
-        <v>116.4447289605</v>
+        <v>119.8275041996</v>
       </c>
       <c r="H38" s="16">
-        <v>125.9840309911</v>
+        <v>124.65542954270001</v>
       </c>
       <c r="I38" s="16">
-        <v>115.134</v>
+        <v>114.956</v>
       </c>
       <c r="J38" s="16">
-        <v>100.59</v>
+        <v>100.6</v>
       </c>
       <c r="K38" s="16">
-        <v>98.724999999999994</v>
+        <v>90.855999999999995</v>
       </c>
     </row>
     <row r="39" spans="2:11" hidden="1">
@@ -2038,31 +2038,31 @@
         <v>2022</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D39" s="13">
-        <v>122.94799999999999</v>
+        <v>124.571</v>
       </c>
       <c r="E39" s="13">
-        <v>114.87544210910001</v>
+        <v>115.74943222349999</v>
       </c>
       <c r="F39" s="13">
         <v>103.2886229284</v>
       </c>
       <c r="G39" s="13">
-        <v>137.69700215349999</v>
+        <v>117.1841235999</v>
       </c>
       <c r="H39" s="13">
-        <v>125.36702750089999</v>
+        <v>124.1308784126</v>
       </c>
       <c r="I39" s="13">
-        <v>114.389</v>
+        <v>115.31699999999999</v>
       </c>
       <c r="J39" s="13">
-        <v>100.59</v>
+        <v>100.6</v>
       </c>
       <c r="K39" s="13">
-        <v>98.709000000000003</v>
+        <v>94.805999999999997</v>
       </c>
     </row>
     <row r="40" spans="2:11" hidden="1">
@@ -2070,31 +2070,31 @@
         <v>2022</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="16">
-        <v>122.044</v>
+        <v>123.803</v>
       </c>
       <c r="E40" s="16">
-        <v>113.8040964162</v>
+        <v>115.41491664279999</v>
       </c>
       <c r="F40" s="16">
         <v>103.2886229284</v>
       </c>
       <c r="G40" s="16">
-        <v>130.85123030770001</v>
+        <v>116.4447289605</v>
       </c>
       <c r="H40" s="16">
-        <v>125.1867510614</v>
+        <v>125.9840309911</v>
       </c>
       <c r="I40" s="16">
-        <v>113.178</v>
+        <v>115.134</v>
       </c>
       <c r="J40" s="16">
         <v>100.59</v>
       </c>
       <c r="K40" s="16">
-        <v>98.709000000000003</v>
+        <v>98.724999999999994</v>
       </c>
     </row>
     <row r="41" spans="2:11" hidden="1">
@@ -2102,28 +2102,28 @@
         <v>2022</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="13">
-        <v>121.02200000000001</v>
+        <v>122.94799999999999</v>
       </c>
       <c r="E41" s="13">
-        <v>112.7183662006</v>
+        <v>114.87544210910001</v>
       </c>
       <c r="F41" s="13">
-        <v>102.4713804763</v>
+        <v>103.2886229284</v>
       </c>
       <c r="G41" s="13">
-        <v>126.41473992429999</v>
+        <v>137.69700215349999</v>
       </c>
       <c r="H41" s="13">
-        <v>124.83942508449999</v>
+        <v>125.36702750089999</v>
       </c>
       <c r="I41" s="13">
-        <v>113.289</v>
+        <v>114.389</v>
       </c>
       <c r="J41" s="13">
-        <v>100.56100000000001</v>
+        <v>100.59</v>
       </c>
       <c r="K41" s="13">
         <v>98.709000000000003</v>
@@ -2134,28 +2134,28 @@
         <v>2022</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" s="16">
-        <v>120.809</v>
+        <v>122.044</v>
       </c>
       <c r="E42" s="16">
-        <v>112.48503934839999</v>
+        <v>113.8040964162</v>
       </c>
       <c r="F42" s="16">
-        <v>102.4713804763</v>
+        <v>103.2886229284</v>
       </c>
       <c r="G42" s="16">
-        <v>129.87573640970001</v>
+        <v>130.85123030770001</v>
       </c>
       <c r="H42" s="16">
-        <v>124.0503181081</v>
+        <v>125.1867510614</v>
       </c>
       <c r="I42" s="16">
-        <v>113.02800000000001</v>
+        <v>113.178</v>
       </c>
       <c r="J42" s="16">
-        <v>100.56100000000001</v>
+        <v>100.59</v>
       </c>
       <c r="K42" s="16">
         <v>98.709000000000003</v>
@@ -2166,31 +2166,31 @@
         <v>2022</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="13">
-        <v>120.15900000000001</v>
+        <v>121.02200000000001</v>
       </c>
       <c r="E43" s="13">
-        <v>111.97977889560001</v>
+        <v>112.7183662006</v>
       </c>
       <c r="F43" s="13">
         <v>102.4713804763</v>
       </c>
       <c r="G43" s="13">
-        <v>124.7535276317</v>
+        <v>126.41473992429999</v>
       </c>
       <c r="H43" s="13">
-        <v>122.8708474534</v>
+        <v>124.83942508449999</v>
       </c>
       <c r="I43" s="13">
-        <v>113.009</v>
+        <v>113.289</v>
       </c>
       <c r="J43" s="13">
         <v>100.56100000000001</v>
       </c>
       <c r="K43" s="13">
-        <v>98.631</v>
+        <v>98.709000000000003</v>
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1">
@@ -2198,127 +2198,127 @@
         <v>2022</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" s="16">
-        <v>118.98099999999999</v>
+        <v>120.809</v>
       </c>
       <c r="E44" s="16">
-        <v>111.8467792818</v>
+        <v>112.48503934839999</v>
       </c>
       <c r="F44" s="16">
         <v>102.4713804763</v>
       </c>
       <c r="G44" s="16">
-        <v>88.048379522399998</v>
+        <v>129.87573640970001</v>
       </c>
       <c r="H44" s="16">
-        <v>121.76441215040001</v>
+        <v>124.0503181081</v>
       </c>
       <c r="I44" s="16">
-        <v>112.843</v>
+        <v>113.02800000000001</v>
       </c>
       <c r="J44" s="16">
-        <v>100.559</v>
+        <v>100.56100000000001</v>
       </c>
       <c r="K44" s="16">
+        <v>98.709000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="13">
+        <v>120.15900000000001</v>
+      </c>
+      <c r="E45" s="13">
+        <v>111.97977889560001</v>
+      </c>
+      <c r="F45" s="13">
+        <v>102.4713804763</v>
+      </c>
+      <c r="G45" s="13">
+        <v>124.7535276317</v>
+      </c>
+      <c r="H45" s="13">
+        <v>122.8708474534</v>
+      </c>
+      <c r="I45" s="13">
+        <v>113.009</v>
+      </c>
+      <c r="J45" s="13">
+        <v>100.56100000000001</v>
+      </c>
+      <c r="K45" s="13">
         <v>98.631</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B45" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="19">
-        <v>118.002</v>
-      </c>
-      <c r="E45" s="19">
-        <v>111.4420556762</v>
-      </c>
-      <c r="F45" s="19">
-        <v>101.66052718260001</v>
-      </c>
-      <c r="G45" s="19">
-        <v>87.919810779000002</v>
-      </c>
-      <c r="H45" s="19">
-        <v>120.6612786609</v>
-      </c>
-      <c r="I45" s="19">
-        <v>112.705</v>
-      </c>
-      <c r="J45" s="19">
-        <v>100.56100000000001</v>
-      </c>
-      <c r="K45" s="19">
-        <v>98.602999999999994</v>
       </c>
     </row>
     <row r="46" spans="2:11" hidden="1">
       <c r="B46" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="16">
-        <v>117.30800000000001</v>
+        <v>118.98099999999999</v>
       </c>
       <c r="E46" s="16">
-        <v>110.93061004979999</v>
+        <v>111.8467792818</v>
       </c>
       <c r="F46" s="16">
-        <v>101.6316896603</v>
+        <v>102.4713804763</v>
       </c>
       <c r="G46" s="16">
-        <v>144.0852936078</v>
+        <v>88.048379522399998</v>
       </c>
       <c r="H46" s="16">
-        <v>117.87569352689999</v>
+        <v>121.76441215040001</v>
       </c>
       <c r="I46" s="16">
-        <v>112.803</v>
+        <v>112.843</v>
       </c>
       <c r="J46" s="16">
-        <v>100.551</v>
+        <v>100.559</v>
       </c>
       <c r="K46" s="16">
-        <v>98.575000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="13">
-        <v>116.884</v>
-      </c>
-      <c r="E47" s="13">
-        <v>110.2167299347</v>
-      </c>
-      <c r="F47" s="13">
-        <v>101.6316896603</v>
-      </c>
-      <c r="G47" s="13">
-        <v>117.87173141300001</v>
-      </c>
-      <c r="H47" s="13">
-        <v>117.71918006520001</v>
-      </c>
-      <c r="I47" s="13">
-        <v>112.76300000000001</v>
-      </c>
-      <c r="J47" s="13">
-        <v>100.54</v>
-      </c>
-      <c r="K47" s="13">
-        <v>98.575000000000003</v>
+        <v>98.631</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="19">
+        <v>118.002</v>
+      </c>
+      <c r="E47" s="19">
+        <v>111.4420556762</v>
+      </c>
+      <c r="F47" s="19">
+        <v>101.66052718260001</v>
+      </c>
+      <c r="G47" s="19">
+        <v>87.919810779000002</v>
+      </c>
+      <c r="H47" s="19">
+        <v>120.6612786609</v>
+      </c>
+      <c r="I47" s="19">
+        <v>112.705</v>
+      </c>
+      <c r="J47" s="19">
+        <v>100.56100000000001</v>
+      </c>
+      <c r="K47" s="19">
+        <v>98.602999999999994</v>
       </c>
     </row>
     <row r="48" spans="2:11" hidden="1">
@@ -2326,31 +2326,31 @@
         <v>2021</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="16">
-        <v>115.56100000000001</v>
+        <v>117.30800000000001</v>
       </c>
       <c r="E48" s="16">
-        <v>109.85587154930001</v>
+        <v>110.93061004979999</v>
       </c>
       <c r="F48" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G48" s="16">
-        <v>107.4801111049</v>
+        <v>144.0852936078</v>
       </c>
       <c r="H48" s="16">
-        <v>117.2036471113</v>
+        <v>117.87569352689999</v>
       </c>
       <c r="I48" s="16">
-        <v>112.779</v>
+        <v>112.803</v>
       </c>
       <c r="J48" s="16">
-        <v>100.54</v>
+        <v>100.551</v>
       </c>
       <c r="K48" s="16">
-        <v>98.588999999999999</v>
+        <v>98.575000000000003</v>
       </c>
     </row>
     <row r="49" spans="2:11" hidden="1">
@@ -2358,31 +2358,31 @@
         <v>2021</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" s="13">
-        <v>114.601</v>
+        <v>116.884</v>
       </c>
       <c r="E49" s="13">
-        <v>109.7934030607</v>
+        <v>110.2167299347</v>
       </c>
       <c r="F49" s="13">
         <v>101.6316896603</v>
       </c>
       <c r="G49" s="13">
-        <v>97.468339390300002</v>
+        <v>117.87173141300001</v>
       </c>
       <c r="H49" s="13">
-        <v>116.90260252749999</v>
+        <v>117.71918006520001</v>
       </c>
       <c r="I49" s="13">
-        <v>111.345</v>
+        <v>112.76300000000001</v>
       </c>
       <c r="J49" s="13">
-        <v>100.523</v>
+        <v>100.54</v>
       </c>
       <c r="K49" s="13">
-        <v>98.588999999999999</v>
+        <v>98.575000000000003</v>
       </c>
     </row>
     <row r="50" spans="2:11" hidden="1">
@@ -2390,28 +2390,28 @@
         <v>2021</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D50" s="16">
-        <v>113.899</v>
+        <v>115.56100000000001</v>
       </c>
       <c r="E50" s="16">
-        <v>109.6876007529</v>
+        <v>109.85587154930001</v>
       </c>
       <c r="F50" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G50" s="16">
-        <v>103.9626342001</v>
+        <v>107.4801111049</v>
       </c>
       <c r="H50" s="16">
-        <v>116.7589504195</v>
+        <v>117.2036471113</v>
       </c>
       <c r="I50" s="16">
-        <v>111.09399999999999</v>
+        <v>112.779</v>
       </c>
       <c r="J50" s="16">
-        <v>100.521</v>
+        <v>100.54</v>
       </c>
       <c r="K50" s="16">
         <v>98.588999999999999</v>
@@ -2422,28 +2422,28 @@
         <v>2021</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D51" s="13">
-        <v>113.682</v>
+        <v>114.601</v>
       </c>
       <c r="E51" s="13">
-        <v>109.5082396111</v>
+        <v>109.7934030607</v>
       </c>
       <c r="F51" s="13">
         <v>101.6316896603</v>
       </c>
       <c r="G51" s="13">
-        <v>127.1166300499</v>
+        <v>97.468339390300002</v>
       </c>
       <c r="H51" s="13">
-        <v>116.0583573286</v>
+        <v>116.90260252749999</v>
       </c>
       <c r="I51" s="13">
-        <v>110.85299999999999</v>
+        <v>111.345</v>
       </c>
       <c r="J51" s="13">
-        <v>100.512</v>
+        <v>100.523</v>
       </c>
       <c r="K51" s="13">
         <v>98.588999999999999</v>
@@ -2454,28 +2454,28 @@
         <v>2021</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="16">
-        <v>113.018</v>
+        <v>113.899</v>
       </c>
       <c r="E52" s="16">
-        <v>109.3611515443</v>
+        <v>109.6876007529</v>
       </c>
       <c r="F52" s="16">
         <v>101.6316896603</v>
       </c>
       <c r="G52" s="16">
-        <v>127.6488519838</v>
+        <v>103.9626342001</v>
       </c>
       <c r="H52" s="16">
-        <v>115.5054112312</v>
+        <v>116.7589504195</v>
       </c>
       <c r="I52" s="16">
-        <v>110.64700000000001</v>
+        <v>111.09399999999999</v>
       </c>
       <c r="J52" s="16">
-        <v>100.503</v>
+        <v>100.521</v>
       </c>
       <c r="K52" s="16">
         <v>98.588999999999999</v>
@@ -2486,28 +2486,28 @@
         <v>2021</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="13">
-        <v>112.419</v>
+        <v>113.682</v>
       </c>
       <c r="E53" s="13">
-        <v>109.1398981391</v>
+        <v>109.5082396111</v>
       </c>
       <c r="F53" s="13">
         <v>101.6316896603</v>
       </c>
       <c r="G53" s="13">
-        <v>110.9052383991</v>
+        <v>127.1166300499</v>
       </c>
       <c r="H53" s="13">
-        <v>115.24268739839999</v>
+        <v>116.0583573286</v>
       </c>
       <c r="I53" s="13">
-        <v>110.613</v>
+        <v>110.85299999999999</v>
       </c>
       <c r="J53" s="13">
-        <v>100.504</v>
+        <v>100.512</v>
       </c>
       <c r="K53" s="13">
         <v>98.588999999999999</v>
@@ -2518,28 +2518,28 @@
         <v>2021</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" s="16">
-        <v>112.19</v>
+        <v>113.018</v>
       </c>
       <c r="E54" s="16">
-        <v>109.1238791816</v>
+        <v>109.3611515443</v>
       </c>
       <c r="F54" s="16">
-        <v>101.2984364707</v>
+        <v>101.6316896603</v>
       </c>
       <c r="G54" s="16">
-        <v>92.423514952199994</v>
+        <v>127.6488519838</v>
       </c>
       <c r="H54" s="16">
-        <v>114.6136060937</v>
+        <v>115.5054112312</v>
       </c>
       <c r="I54" s="16">
-        <v>110.613</v>
+        <v>110.64700000000001</v>
       </c>
       <c r="J54" s="16">
-        <v>100.47</v>
+        <v>100.503</v>
       </c>
       <c r="K54" s="16">
         <v>98.588999999999999</v>
@@ -2550,28 +2550,28 @@
         <v>2021</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D55" s="13">
-        <v>111.824</v>
+        <v>112.419</v>
       </c>
       <c r="E55" s="13">
-        <v>108.98594320479999</v>
+        <v>109.1398981391</v>
       </c>
       <c r="F55" s="13">
-        <v>101.0405414316</v>
+        <v>101.6316896603</v>
       </c>
       <c r="G55" s="13">
-        <v>88.697327708700001</v>
+        <v>110.9052383991</v>
       </c>
       <c r="H55" s="13">
-        <v>114.5144639519</v>
+        <v>115.24268739839999</v>
       </c>
       <c r="I55" s="13">
-        <v>110.506</v>
+        <v>110.613</v>
       </c>
       <c r="J55" s="13">
-        <v>100.4</v>
+        <v>100.504</v>
       </c>
       <c r="K55" s="13">
         <v>98.588999999999999</v>
@@ -2582,127 +2582,127 @@
         <v>2021</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D56" s="16">
-        <v>110.907</v>
+        <v>112.19</v>
       </c>
       <c r="E56" s="16">
-        <v>108.80131973269999</v>
+        <v>109.1238791816</v>
       </c>
       <c r="F56" s="16">
-        <v>101.0405414316</v>
+        <v>101.2984364707</v>
       </c>
       <c r="G56" s="16">
-        <v>72.629830018600003</v>
+        <v>92.423514952199994</v>
       </c>
       <c r="H56" s="16">
-        <v>113.823854883</v>
+        <v>114.6136060937</v>
       </c>
       <c r="I56" s="16">
-        <v>110.19499999999999</v>
+        <v>110.613</v>
       </c>
       <c r="J56" s="16">
-        <v>100.36</v>
+        <v>100.47</v>
       </c>
       <c r="K56" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
     <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="18">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="19">
-        <v>110.21</v>
-      </c>
-      <c r="E57" s="19">
-        <v>108.91289704650001</v>
-      </c>
-      <c r="F57" s="19">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G57" s="19">
-        <v>69.379568991200003</v>
-      </c>
-      <c r="H57" s="19">
-        <v>112.46996162710001</v>
-      </c>
-      <c r="I57" s="19">
-        <v>110.208</v>
-      </c>
-      <c r="J57" s="19">
-        <v>100.355</v>
-      </c>
-      <c r="K57" s="19">
-        <v>98.557000000000002</v>
+      <c r="C57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="13">
+        <v>111.824</v>
+      </c>
+      <c r="E57" s="13">
+        <v>108.98594320479999</v>
+      </c>
+      <c r="F57" s="13">
+        <v>101.0405414316</v>
+      </c>
+      <c r="G57" s="13">
+        <v>88.697327708700001</v>
+      </c>
+      <c r="H57" s="13">
+        <v>114.5144639519</v>
+      </c>
+      <c r="I57" s="13">
+        <v>110.506</v>
+      </c>
+      <c r="J57" s="13">
+        <v>100.4</v>
+      </c>
+      <c r="K57" s="13">
+        <v>98.588999999999999</v>
       </c>
     </row>
     <row r="58" spans="2:11" hidden="1">
       <c r="B58" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="16">
-        <v>109.271</v>
+        <v>110.907</v>
       </c>
       <c r="E58" s="16">
-        <v>108.6477332931</v>
+        <v>108.80131973269999</v>
       </c>
       <c r="F58" s="16">
+        <v>101.0405414316</v>
+      </c>
+      <c r="G58" s="16">
+        <v>72.629830018600003</v>
+      </c>
+      <c r="H58" s="16">
+        <v>113.823854883</v>
+      </c>
+      <c r="I58" s="16">
+        <v>110.19499999999999</v>
+      </c>
+      <c r="J58" s="16">
+        <v>100.36</v>
+      </c>
+      <c r="K58" s="16">
+        <v>98.588999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="19">
+        <v>110.21</v>
+      </c>
+      <c r="E59" s="19">
+        <v>108.91289704650001</v>
+      </c>
+      <c r="F59" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G58" s="16">
-        <v>88.425353764299999</v>
-      </c>
-      <c r="H58" s="16">
-        <v>110.0805693728</v>
-      </c>
-      <c r="I58" s="16">
-        <v>110.01600000000001</v>
-      </c>
-      <c r="J58" s="16">
-        <v>100.30500000000001</v>
-      </c>
-      <c r="K58" s="16">
-        <v>98.524000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="13">
-        <v>108.85599999999999</v>
-      </c>
-      <c r="E59" s="13">
-        <v>108.5064270149</v>
-      </c>
-      <c r="F59" s="13">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G59" s="13">
-        <v>87.498687502999999</v>
-      </c>
-      <c r="H59" s="13">
-        <v>109.622766778</v>
-      </c>
-      <c r="I59" s="13">
-        <v>109.91800000000001</v>
-      </c>
-      <c r="J59" s="13">
-        <v>100.30800000000001</v>
-      </c>
-      <c r="K59" s="13">
-        <v>98.524000000000001</v>
+      <c r="G59" s="19">
+        <v>69.379568991200003</v>
+      </c>
+      <c r="H59" s="19">
+        <v>112.46996162710001</v>
+      </c>
+      <c r="I59" s="19">
+        <v>110.208</v>
+      </c>
+      <c r="J59" s="19">
+        <v>100.355</v>
+      </c>
+      <c r="K59" s="19">
+        <v>98.557000000000002</v>
       </c>
     </row>
     <row r="60" spans="2:11" hidden="1">
@@ -2710,31 +2710,31 @@
         <v>2020</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D60" s="16">
-        <v>108.774</v>
+        <v>109.271</v>
       </c>
       <c r="E60" s="16">
-        <v>108.5602695565</v>
+        <v>108.6477332931</v>
       </c>
       <c r="F60" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G60" s="16">
-        <v>92.871387775499997</v>
+        <v>88.425353764299999</v>
       </c>
       <c r="H60" s="16">
-        <v>108.9954622659</v>
+        <v>110.0805693728</v>
       </c>
       <c r="I60" s="16">
-        <v>109.27500000000001</v>
+        <v>110.01600000000001</v>
       </c>
       <c r="J60" s="16">
-        <v>100.31</v>
+        <v>100.30500000000001</v>
       </c>
       <c r="K60" s="16">
-        <v>98.415999999999997</v>
+        <v>98.524000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:11" hidden="1">
@@ -2742,31 +2742,31 @@
         <v>2020</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="13">
-        <v>108.114</v>
+        <v>108.85599999999999</v>
       </c>
       <c r="E61" s="13">
-        <v>108.5110595398</v>
+        <v>108.5064270149</v>
       </c>
       <c r="F61" s="13">
         <v>101.0405414315</v>
       </c>
       <c r="G61" s="13">
-        <v>84.546898124199998</v>
+        <v>87.498687502999999</v>
       </c>
       <c r="H61" s="13">
-        <v>108.8201840744</v>
+        <v>109.622766778</v>
       </c>
       <c r="I61" s="13">
-        <v>107.221</v>
+        <v>109.91800000000001</v>
       </c>
       <c r="J61" s="13">
-        <v>100.31</v>
+        <v>100.30800000000001</v>
       </c>
       <c r="K61" s="13">
-        <v>98.415999999999997</v>
+        <v>98.524000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:11" hidden="1">
@@ -2774,28 +2774,28 @@
         <v>2020</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D62" s="16">
-        <v>107.867</v>
+        <v>108.774</v>
       </c>
       <c r="E62" s="16">
-        <v>108.2641243905</v>
+        <v>108.5602695565</v>
       </c>
       <c r="F62" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G62" s="16">
-        <v>84.0993629062</v>
+        <v>92.871387775499997</v>
       </c>
       <c r="H62" s="16">
-        <v>108.6866229954</v>
+        <v>108.9954622659</v>
       </c>
       <c r="I62" s="16">
-        <v>104.646</v>
+        <v>109.27500000000001</v>
       </c>
       <c r="J62" s="16">
-        <v>100.32599999999999</v>
+        <v>100.31</v>
       </c>
       <c r="K62" s="16">
         <v>98.415999999999997</v>
@@ -2806,28 +2806,28 @@
         <v>2020</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D63" s="13">
-        <v>107.444</v>
+        <v>108.114</v>
       </c>
       <c r="E63" s="13">
-        <v>108.2290316098</v>
+        <v>108.5110595398</v>
       </c>
       <c r="F63" s="13">
         <v>101.0405414315</v>
       </c>
       <c r="G63" s="13">
-        <v>83.373654861600002</v>
+        <v>84.546898124199998</v>
       </c>
       <c r="H63" s="13">
-        <v>108.8298342292</v>
+        <v>108.8201840744</v>
       </c>
       <c r="I63" s="13">
-        <v>103.541</v>
+        <v>107.221</v>
       </c>
       <c r="J63" s="13">
-        <v>100.34</v>
+        <v>100.31</v>
       </c>
       <c r="K63" s="13">
         <v>98.415999999999997</v>
@@ -2838,31 +2838,31 @@
         <v>2020</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="16">
-        <v>106.74299999999999</v>
+        <v>107.867</v>
       </c>
       <c r="E64" s="16">
-        <v>108.1151913336</v>
+        <v>108.2641243905</v>
       </c>
       <c r="F64" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G64" s="16">
-        <v>84.228004732399995</v>
+        <v>84.0993629062</v>
       </c>
       <c r="H64" s="16">
-        <v>108.5274450755</v>
+        <v>108.6866229954</v>
       </c>
       <c r="I64" s="16">
-        <v>103.54300000000001</v>
+        <v>104.646</v>
       </c>
       <c r="J64" s="16">
-        <v>100.34</v>
+        <v>100.32599999999999</v>
       </c>
       <c r="K64" s="16">
-        <v>98.588999999999999</v>
+        <v>98.415999999999997</v>
       </c>
     </row>
     <row r="65" spans="2:11" hidden="1">
@@ -2870,31 +2870,31 @@
         <v>2020</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" s="13">
-        <v>106.16200000000001</v>
+        <v>107.444</v>
       </c>
       <c r="E65" s="13">
-        <v>108.1896853977</v>
+        <v>108.2290316098</v>
       </c>
       <c r="F65" s="13">
         <v>101.0405414315</v>
       </c>
       <c r="G65" s="13">
-        <v>82.231994422100001</v>
+        <v>83.373654861600002</v>
       </c>
       <c r="H65" s="13">
-        <v>109.31474425979999</v>
+        <v>108.8298342292</v>
       </c>
       <c r="I65" s="13">
-        <v>103.61</v>
+        <v>103.541</v>
       </c>
       <c r="J65" s="13">
         <v>100.34</v>
       </c>
       <c r="K65" s="13">
-        <v>98.588999999999999</v>
+        <v>98.415999999999997</v>
       </c>
     </row>
     <row r="66" spans="2:11" hidden="1">
@@ -2902,25 +2902,25 @@
         <v>2020</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" s="16">
-        <v>105.755</v>
+        <v>106.74299999999999</v>
       </c>
       <c r="E66" s="16">
-        <v>107.4875171243</v>
+        <v>108.1151913336</v>
       </c>
       <c r="F66" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G66" s="16">
-        <v>76.507181751999994</v>
+        <v>84.228004732399995</v>
       </c>
       <c r="H66" s="16">
-        <v>109.6777595691</v>
+        <v>108.5274450755</v>
       </c>
       <c r="I66" s="16">
-        <v>103.61</v>
+        <v>103.54300000000001</v>
       </c>
       <c r="J66" s="16">
         <v>100.34</v>
@@ -2934,31 +2934,31 @@
         <v>2020</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67" s="13">
-        <v>106.83799999999999</v>
+        <v>106.16200000000001</v>
       </c>
       <c r="E67" s="13">
-        <v>107.5306793508</v>
+        <v>108.1896853977</v>
       </c>
       <c r="F67" s="13">
         <v>101.0405414315</v>
       </c>
       <c r="G67" s="13">
-        <v>80.8593909067</v>
+        <v>82.231994422100001</v>
       </c>
       <c r="H67" s="13">
-        <v>108.703723247</v>
+        <v>109.31474425979999</v>
       </c>
       <c r="I67" s="13">
-        <v>103.661</v>
+        <v>103.61</v>
       </c>
       <c r="J67" s="13">
         <v>100.34</v>
       </c>
       <c r="K67" s="13">
-        <v>98.570999999999998</v>
+        <v>98.588999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1">
@@ -2966,127 +2966,127 @@
         <v>2020</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D68" s="16">
-        <v>106.889</v>
+        <v>105.755</v>
       </c>
       <c r="E68" s="16">
-        <v>107.2442089382</v>
+        <v>107.4875171243</v>
       </c>
       <c r="F68" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G68" s="16">
-        <v>82.836861846299996</v>
+        <v>76.507181751999994</v>
       </c>
       <c r="H68" s="16">
-        <v>107.4631074917</v>
+        <v>109.6777595691</v>
       </c>
       <c r="I68" s="16">
+        <v>103.61</v>
+      </c>
+      <c r="J68" s="16">
+        <v>100.34</v>
+      </c>
+      <c r="K68" s="16">
+        <v>98.588999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="13">
+        <v>106.83799999999999</v>
+      </c>
+      <c r="E69" s="13">
+        <v>107.5306793508</v>
+      </c>
+      <c r="F69" s="13">
+        <v>101.0405414315</v>
+      </c>
+      <c r="G69" s="13">
+        <v>80.8593909067</v>
+      </c>
+      <c r="H69" s="13">
+        <v>108.703723247</v>
+      </c>
+      <c r="I69" s="13">
         <v>103.661</v>
       </c>
-      <c r="J68" s="16">
-        <v>100.34099999999999</v>
-      </c>
-      <c r="K68" s="16">
-        <v>98.552999999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="18">
-        <v>2020</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="19">
-        <v>106.447</v>
-      </c>
-      <c r="E69" s="19">
-        <v>107.11553304500001</v>
-      </c>
-      <c r="F69" s="19">
-        <v>101.0405414315</v>
-      </c>
-      <c r="G69" s="19">
-        <v>86.778005823699999</v>
-      </c>
-      <c r="H69" s="19">
-        <v>106.9248328514</v>
-      </c>
-      <c r="I69" s="19">
-        <v>103.367</v>
-      </c>
-      <c r="J69" s="19">
-        <v>100.339</v>
-      </c>
-      <c r="K69" s="19">
-        <v>98.554000000000002</v>
+      <c r="J69" s="13">
+        <v>100.34</v>
+      </c>
+      <c r="K69" s="13">
+        <v>98.570999999999998</v>
       </c>
     </row>
     <row r="70" spans="2:11" hidden="1">
       <c r="B70" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D70" s="16">
-        <v>105.934</v>
+        <v>106.889</v>
       </c>
       <c r="E70" s="16">
-        <v>106.0505331862</v>
+        <v>107.2442089382</v>
       </c>
       <c r="F70" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G70" s="16">
-        <v>127.36462816709999</v>
+        <v>82.836861846299996</v>
       </c>
       <c r="H70" s="16">
-        <v>104.9942430431</v>
+        <v>107.4631074917</v>
       </c>
       <c r="I70" s="16">
-        <v>102.95099999999999</v>
+        <v>103.661</v>
       </c>
       <c r="J70" s="16">
-        <v>100.331</v>
+        <v>100.34099999999999</v>
       </c>
       <c r="K70" s="16">
-        <v>98.78</v>
+        <v>98.552999999999997</v>
       </c>
     </row>
     <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="13">
-        <v>105.346</v>
-      </c>
-      <c r="E71" s="13">
-        <v>105.65671461060001</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="B71" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="19">
+        <v>106.447</v>
+      </c>
+      <c r="E71" s="19">
+        <v>107.11553304500001</v>
+      </c>
+      <c r="F71" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G71" s="13">
-        <v>101.0973028073</v>
-      </c>
-      <c r="H71" s="13">
-        <v>104.4576847797</v>
-      </c>
-      <c r="I71" s="13">
-        <v>102.90300000000001</v>
-      </c>
-      <c r="J71" s="13">
-        <v>100.324</v>
-      </c>
-      <c r="K71" s="13">
-        <v>99.004999999999995</v>
+      <c r="G71" s="19">
+        <v>86.778005823699999</v>
+      </c>
+      <c r="H71" s="19">
+        <v>106.9248328514</v>
+      </c>
+      <c r="I71" s="19">
+        <v>103.367</v>
+      </c>
+      <c r="J71" s="19">
+        <v>100.339</v>
+      </c>
+      <c r="K71" s="19">
+        <v>98.554000000000002</v>
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1">
@@ -3094,31 +3094,31 @@
         <v>2019</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D72" s="16">
-        <v>104.503</v>
+        <v>105.934</v>
       </c>
       <c r="E72" s="16">
-        <v>105.1002407181</v>
+        <v>106.0505331862</v>
       </c>
       <c r="F72" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G72" s="16">
-        <v>88.301013724200004</v>
+        <v>127.36462816709999</v>
       </c>
       <c r="H72" s="16">
-        <v>104.50205451870001</v>
+        <v>104.9942430431</v>
       </c>
       <c r="I72" s="16">
-        <v>102.90300000000001</v>
+        <v>102.95099999999999</v>
       </c>
       <c r="J72" s="16">
-        <v>100.29600000000001</v>
+        <v>100.331</v>
       </c>
       <c r="K72" s="16">
-        <v>98.975999999999999</v>
+        <v>98.78</v>
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1">
@@ -3126,31 +3126,31 @@
         <v>2019</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D73" s="13">
-        <v>103.94199999999999</v>
+        <v>105.346</v>
       </c>
       <c r="E73" s="13">
-        <v>104.6074519548</v>
+        <v>105.65671461060001</v>
       </c>
       <c r="F73" s="13">
         <v>101.0405414315</v>
       </c>
       <c r="G73" s="13">
-        <v>88.107262410499999</v>
+        <v>101.0973028073</v>
       </c>
       <c r="H73" s="13">
-        <v>104.3079456359</v>
+        <v>104.4576847797</v>
       </c>
       <c r="I73" s="13">
-        <v>102.654</v>
+        <v>102.90300000000001</v>
       </c>
       <c r="J73" s="13">
-        <v>100.29</v>
+        <v>100.324</v>
       </c>
       <c r="K73" s="13">
-        <v>98.978999999999999</v>
+        <v>99.004999999999995</v>
       </c>
     </row>
     <row r="74" spans="2:11" hidden="1">
@@ -3158,31 +3158,31 @@
         <v>2019</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D74" s="16">
-        <v>103.67</v>
+        <v>104.503</v>
       </c>
       <c r="E74" s="16">
-        <v>104.5187172775</v>
+        <v>105.1002407181</v>
       </c>
       <c r="F74" s="16">
         <v>101.0405414315</v>
       </c>
       <c r="G74" s="16">
-        <v>92.899994051799993</v>
+        <v>88.301013724200004</v>
       </c>
       <c r="H74" s="16">
-        <v>104.285820413</v>
+        <v>104.50205451870001</v>
       </c>
       <c r="I74" s="16">
-        <v>102.604</v>
+        <v>102.90300000000001</v>
       </c>
       <c r="J74" s="16">
-        <v>100.274</v>
+        <v>100.29600000000001</v>
       </c>
       <c r="K74" s="16">
-        <v>98.986000000000004</v>
+        <v>98.975999999999999</v>
       </c>
     </row>
     <row r="75" spans="2:11" hidden="1">
@@ -3190,31 +3190,31 @@
         <v>2019</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D75" s="13">
-        <v>103.687</v>
+        <v>103.94199999999999</v>
       </c>
       <c r="E75" s="13">
-        <v>103.9281222685</v>
+        <v>104.6074519548</v>
       </c>
       <c r="F75" s="13">
-        <v>100.6849220455</v>
+        <v>101.0405414315</v>
       </c>
       <c r="G75" s="13">
-        <v>115.8409110419</v>
+        <v>88.107262410499999</v>
       </c>
       <c r="H75" s="13">
-        <v>104.2691868668</v>
+        <v>104.3079456359</v>
       </c>
       <c r="I75" s="13">
-        <v>102.57599999999999</v>
+        <v>102.654</v>
       </c>
       <c r="J75" s="13">
-        <v>100.196</v>
+        <v>100.29</v>
       </c>
       <c r="K75" s="13">
-        <v>98.986000000000004</v>
+        <v>98.978999999999999</v>
       </c>
     </row>
     <row r="76" spans="2:11" hidden="1">
@@ -3222,31 +3222,31 @@
         <v>2019</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D76" s="16">
-        <v>103.29900000000001</v>
+        <v>103.67</v>
       </c>
       <c r="E76" s="16">
-        <v>103.4436474945</v>
+        <v>104.5187172775</v>
       </c>
       <c r="F76" s="16">
-        <v>100.6191914481</v>
+        <v>101.0405414315</v>
       </c>
       <c r="G76" s="16">
-        <v>107.6048597489</v>
+        <v>92.899994051799993</v>
       </c>
       <c r="H76" s="16">
-        <v>104.7408219759</v>
+        <v>104.285820413</v>
       </c>
       <c r="I76" s="16">
-        <v>101.68300000000001</v>
+        <v>102.604</v>
       </c>
       <c r="J76" s="16">
-        <v>100.119</v>
+        <v>100.274</v>
       </c>
       <c r="K76" s="16">
-        <v>98.905000000000001</v>
+        <v>98.986000000000004</v>
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1">
@@ -3254,31 +3254,31 @@
         <v>2019</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="13">
-        <v>103.233</v>
+        <v>103.687</v>
       </c>
       <c r="E77" s="13">
-        <v>103.33167816460001</v>
+        <v>103.9281222685</v>
       </c>
       <c r="F77" s="13">
-        <v>100.6191914481</v>
+        <v>100.6849220455</v>
       </c>
       <c r="G77" s="13">
-        <v>86.898257620999999</v>
+        <v>115.8409110419</v>
       </c>
       <c r="H77" s="13">
-        <v>105.3054014635</v>
+        <v>104.2691868668</v>
       </c>
       <c r="I77" s="13">
-        <v>101.509</v>
+        <v>102.57599999999999</v>
       </c>
       <c r="J77" s="13">
-        <v>100.119</v>
+        <v>100.196</v>
       </c>
       <c r="K77" s="13">
-        <v>98.789000000000001</v>
+        <v>98.986000000000004</v>
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1">
@@ -3286,31 +3286,31 @@
         <v>2019</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="16">
-        <v>103.53100000000001</v>
+        <v>103.29900000000001</v>
       </c>
       <c r="E78" s="16">
-        <v>103.10258831190001</v>
+        <v>103.4436474945</v>
       </c>
       <c r="F78" s="16">
         <v>100.6191914481</v>
       </c>
       <c r="G78" s="16">
-        <v>96.879318888</v>
+        <v>107.6048597489</v>
       </c>
       <c r="H78" s="16">
-        <v>104.9491652918</v>
+        <v>104.7408219759</v>
       </c>
       <c r="I78" s="16">
-        <v>101.459</v>
+        <v>101.68300000000001</v>
       </c>
       <c r="J78" s="16">
         <v>100.119</v>
       </c>
       <c r="K78" s="16">
-        <v>98.789000000000001</v>
+        <v>98.905000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:11" hidden="1">
@@ -3318,31 +3318,31 @@
         <v>2019</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D79" s="13">
-        <v>103.476</v>
+        <v>103.233</v>
       </c>
       <c r="E79" s="13">
-        <v>102.69294294469999</v>
+        <v>103.33167816460001</v>
       </c>
       <c r="F79" s="13">
-        <v>100</v>
+        <v>100.6191914481</v>
       </c>
       <c r="G79" s="13">
-        <v>81.499577131300001</v>
+        <v>86.898257620999999</v>
       </c>
       <c r="H79" s="13">
-        <v>104.44624704749999</v>
+        <v>105.3054014635</v>
       </c>
       <c r="I79" s="13">
-        <v>101.166</v>
+        <v>101.509</v>
       </c>
       <c r="J79" s="13">
-        <v>100.098</v>
+        <v>100.119</v>
       </c>
       <c r="K79" s="13">
-        <v>99.167000000000002</v>
+        <v>98.789000000000001</v>
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1">
@@ -3350,127 +3350,127 @@
         <v>2019</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D80" s="16">
-        <v>103.07899999999999</v>
+        <v>103.53100000000001</v>
       </c>
       <c r="E80" s="16">
-        <v>102.5321554705</v>
+        <v>103.10258831190001</v>
       </c>
       <c r="F80" s="16">
+        <v>100.6191914481</v>
+      </c>
+      <c r="G80" s="16">
+        <v>96.879318888</v>
+      </c>
+      <c r="H80" s="16">
+        <v>104.9491652918</v>
+      </c>
+      <c r="I80" s="16">
+        <v>101.459</v>
+      </c>
+      <c r="J80" s="16">
+        <v>100.119</v>
+      </c>
+      <c r="K80" s="16">
+        <v>98.789000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="13">
+        <v>103.476</v>
+      </c>
+      <c r="E81" s="13">
+        <v>102.69294294469999</v>
+      </c>
+      <c r="F81" s="13">
         <v>100</v>
       </c>
-      <c r="G80" s="16">
-        <v>76.553159667299994</v>
-      </c>
-      <c r="H80" s="16">
-        <v>103.8610611723</v>
-      </c>
-      <c r="I80" s="16">
-        <v>100.72499999999999</v>
-      </c>
-      <c r="J80" s="16">
-        <v>100.081</v>
-      </c>
-      <c r="K80" s="16">
-        <v>99.165999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="19">
-        <v>103.108</v>
-      </c>
-      <c r="E81" s="19">
-        <v>102.47200356979999</v>
-      </c>
-      <c r="F81" s="19">
-        <v>100</v>
-      </c>
-      <c r="G81" s="19">
-        <v>78.7293169334</v>
-      </c>
-      <c r="H81" s="19">
-        <v>102.4734794414</v>
-      </c>
-      <c r="I81" s="19">
-        <v>100.42</v>
-      </c>
-      <c r="J81" s="19">
-        <v>100.036</v>
-      </c>
-      <c r="K81" s="19">
-        <v>99.197999999999993</v>
+      <c r="G81" s="13">
+        <v>81.499577131300001</v>
+      </c>
+      <c r="H81" s="13">
+        <v>104.44624704749999</v>
+      </c>
+      <c r="I81" s="13">
+        <v>101.166</v>
+      </c>
+      <c r="J81" s="13">
+        <v>100.098</v>
+      </c>
+      <c r="K81" s="13">
+        <v>99.167000000000002</v>
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1">
       <c r="B82" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D82" s="16">
-        <v>103.02</v>
+        <v>103.07899999999999</v>
       </c>
       <c r="E82" s="16">
-        <v>101.4882812159</v>
+        <v>102.5321554705</v>
       </c>
       <c r="F82" s="16">
         <v>100</v>
       </c>
       <c r="G82" s="16">
-        <v>116.2152458092</v>
+        <v>76.553159667299994</v>
       </c>
       <c r="H82" s="16">
-        <v>101.1447321365</v>
+        <v>103.8610611723</v>
       </c>
       <c r="I82" s="16">
-        <v>100.56100000000001</v>
+        <v>100.72499999999999</v>
       </c>
       <c r="J82" s="16">
-        <v>100.03400000000001</v>
+        <v>100.081</v>
       </c>
       <c r="K82" s="16">
-        <v>99.195999999999998</v>
+        <v>99.165999999999997</v>
       </c>
     </row>
     <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="13">
-        <v>102.303</v>
-      </c>
-      <c r="E83" s="13">
-        <v>100.90290467379999</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="B83" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="19">
+        <v>103.108</v>
+      </c>
+      <c r="E83" s="19">
+        <v>102.47200356979999</v>
+      </c>
+      <c r="F83" s="19">
         <v>100</v>
       </c>
-      <c r="G83" s="13">
-        <v>87.221876645500004</v>
-      </c>
-      <c r="H83" s="13">
-        <v>101.16638118420001</v>
-      </c>
-      <c r="I83" s="13">
-        <v>100.56100000000001</v>
-      </c>
-      <c r="J83" s="13">
-        <v>100.03400000000001</v>
-      </c>
-      <c r="K83" s="13">
-        <v>99.412000000000006</v>
+      <c r="G83" s="19">
+        <v>78.7293169334</v>
+      </c>
+      <c r="H83" s="19">
+        <v>102.4734794414</v>
+      </c>
+      <c r="I83" s="19">
+        <v>100.42</v>
+      </c>
+      <c r="J83" s="19">
+        <v>100.036</v>
+      </c>
+      <c r="K83" s="19">
+        <v>99.197999999999993</v>
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1">
@@ -3478,31 +3478,31 @@
         <v>2018</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D84" s="16">
-        <v>101.44</v>
+        <v>103.02</v>
       </c>
       <c r="E84" s="16">
-        <v>100.78655579709999</v>
+        <v>101.4882812159</v>
       </c>
       <c r="F84" s="16">
         <v>100</v>
       </c>
       <c r="G84" s="16">
-        <v>85.369691303899998</v>
+        <v>116.2152458092</v>
       </c>
       <c r="H84" s="16">
-        <v>100.05389573230001</v>
+        <v>101.1447321365</v>
       </c>
       <c r="I84" s="16">
-        <v>100.52500000000001</v>
+        <v>100.56100000000001</v>
       </c>
       <c r="J84" s="16">
-        <v>100.021</v>
+        <v>100.03400000000001</v>
       </c>
       <c r="K84" s="16">
-        <v>99.567999999999998</v>
+        <v>99.195999999999998</v>
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1">
@@ -3510,31 +3510,31 @@
         <v>2018</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85" s="13">
-        <v>100.917</v>
+        <v>102.303</v>
       </c>
       <c r="E85" s="13">
-        <v>100.4677127848</v>
+        <v>100.90290467379999</v>
       </c>
       <c r="F85" s="13">
         <v>100</v>
       </c>
       <c r="G85" s="13">
-        <v>75.626050242900007</v>
+        <v>87.221876645500004</v>
       </c>
       <c r="H85" s="13">
-        <v>100.0190239563</v>
+        <v>101.16638118420001</v>
       </c>
       <c r="I85" s="13">
-        <v>100.126</v>
+        <v>100.56100000000001</v>
       </c>
       <c r="J85" s="13">
-        <v>100</v>
+        <v>100.03400000000001</v>
       </c>
       <c r="K85" s="13">
-        <v>99.77</v>
+        <v>99.412000000000006</v>
       </c>
     </row>
     <row r="86" spans="2:12" hidden="1">
@@ -3542,31 +3542,31 @@
         <v>2018</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D86" s="16">
-        <v>100.492</v>
+        <v>101.44</v>
       </c>
       <c r="E86" s="16">
-        <v>100.22727446899999</v>
+        <v>100.78655579709999</v>
       </c>
       <c r="F86" s="16">
         <v>100</v>
       </c>
       <c r="G86" s="16">
-        <v>79.518260205800004</v>
+        <v>85.369691303899998</v>
       </c>
       <c r="H86" s="16">
-        <v>99.844190958599995</v>
+        <v>100.05389573230001</v>
       </c>
       <c r="I86" s="16">
-        <v>100.05200000000001</v>
+        <v>100.52500000000001</v>
       </c>
       <c r="J86" s="16">
-        <v>100</v>
+        <v>100.021</v>
       </c>
       <c r="K86" s="16">
-        <v>99.83</v>
+        <v>99.567999999999998</v>
       </c>
     </row>
     <row r="87" spans="2:12" hidden="1">
@@ -3574,31 +3574,31 @@
         <v>2018</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D87" s="13">
-        <v>99.909099104513999</v>
+        <v>100.917</v>
       </c>
       <c r="E87" s="13">
-        <v>99.998359331854999</v>
+        <v>100.4677127848</v>
       </c>
       <c r="F87" s="13">
         <v>100</v>
       </c>
       <c r="G87" s="13">
-        <v>101.704654973457</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>7</v>
+        <v>75.626050242900007</v>
+      </c>
+      <c r="H87" s="13">
+        <v>100.0190239563</v>
       </c>
       <c r="I87" s="13">
-        <v>100.084132399041</v>
-      </c>
-      <c r="J87" s="14" t="s">
-        <v>7</v>
+        <v>100.126</v>
+      </c>
+      <c r="J87" s="13">
+        <v>100</v>
       </c>
       <c r="K87" s="13">
-        <v>100</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="88" spans="2:12" hidden="1">
@@ -3606,31 +3606,31 @@
         <v>2018</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D88" s="16">
-        <v>99.376464931786998</v>
+        <v>100.492</v>
       </c>
       <c r="E88" s="16">
-        <v>99.990951002754002</v>
+        <v>100.22727446899999</v>
       </c>
       <c r="F88" s="16">
         <v>100</v>
       </c>
       <c r="G88" s="16">
-        <v>99.195118819963994</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>7</v>
+        <v>79.518260205800004</v>
+      </c>
+      <c r="H88" s="16">
+        <v>99.844190958599995</v>
       </c>
       <c r="I88" s="16">
-        <v>100.145214825742</v>
-      </c>
-      <c r="J88" s="17" t="s">
-        <v>7</v>
+        <v>100.05200000000001</v>
+      </c>
+      <c r="J88" s="16">
+        <v>100</v>
       </c>
       <c r="K88" s="16">
-        <v>99.796047542021</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="89" spans="2:12" hidden="1">
@@ -3638,95 +3638,95 @@
         <v>2018</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="13">
-        <v>98.994080173086999</v>
+        <v>99.909099104513999</v>
       </c>
       <c r="E89" s="13">
-        <v>99.984814220586003</v>
+        <v>99.998359331854999</v>
       </c>
       <c r="F89" s="13">
         <v>100</v>
       </c>
       <c r="G89" s="13">
-        <v>90.757329060767006</v>
+        <v>101.704654973457</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="13">
-        <v>99.721095334685998</v>
+        <v>100.084132399041</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K89" s="13">
-        <v>100.290690859648</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" hidden="1">
       <c r="B90" s="15">
         <v>2018</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D90" s="16">
-        <v>99.154847046097004</v>
+        <v>99.376464931786998</v>
       </c>
       <c r="E90" s="16">
-        <v>99.833850058503003</v>
+        <v>99.990951002754002</v>
       </c>
       <c r="F90" s="16">
         <v>100</v>
       </c>
       <c r="G90" s="16">
-        <v>74.377335587917997</v>
+        <v>99.195118819963994</v>
       </c>
       <c r="H90" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I90" s="16">
-        <v>100.50825189009799</v>
+        <v>100.145214825742</v>
       </c>
       <c r="J90" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K90" s="16">
-        <v>100.307100827531</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>99.796047542021</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" hidden="1">
       <c r="B91" s="12">
         <v>2018</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D91" s="13">
-        <v>99.492156980588007</v>
+        <v>98.994080173086999</v>
       </c>
       <c r="E91" s="13">
-        <v>99.599241644515999</v>
+        <v>99.984814220586003</v>
       </c>
       <c r="F91" s="13">
-        <v>99.775409784431005</v>
+        <v>100</v>
       </c>
       <c r="G91" s="13">
-        <v>86.603489152118996</v>
+        <v>90.757329060767006</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="13">
-        <v>100.50825189009799</v>
+        <v>99.721095334685998</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K91" s="13">
-        <v>100.738448554751</v>
+        <v>100.290690859648</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
@@ -3734,100 +3734,164 @@
         <v>2018</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D92" s="16">
-        <v>99.171374481640001</v>
+        <v>99.154847046097004</v>
       </c>
       <c r="E92" s="16">
-        <v>99.404629920302</v>
+        <v>99.833850058503003</v>
       </c>
       <c r="F92" s="16">
-        <v>99.775409784431005</v>
+        <v>100</v>
       </c>
       <c r="G92" s="16">
-        <v>79.172819495607996</v>
+        <v>74.377335587917997</v>
       </c>
       <c r="H92" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I92" s="16">
-        <v>100.413747003504</v>
+        <v>100.50825189009799</v>
       </c>
       <c r="J92" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K92" s="16">
-        <v>100.841596924303</v>
-      </c>
-      <c r="L92" s="20"/>
+        <v>100.307100827531</v>
+      </c>
     </row>
     <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
       <c r="B93" s="12">
         <v>2018</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D93" s="13">
-        <v>98.794999699501005</v>
+        <v>99.492156980588007</v>
       </c>
       <c r="E93" s="13">
-        <v>99.150938662095996</v>
+        <v>99.599241644515999</v>
       </c>
       <c r="F93" s="13">
         <v>99.775409784431005</v>
       </c>
       <c r="G93" s="13">
-        <v>72.042283790854</v>
+        <v>86.603489152118996</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I93" s="13">
-        <v>100.245482205421</v>
+        <v>100.50825189009799</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K93" s="13">
+        <v>100.738448554751</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="16">
+        <v>99.171374481640001</v>
+      </c>
+      <c r="E94" s="16">
+        <v>99.404629920302</v>
+      </c>
+      <c r="F94" s="16">
+        <v>99.775409784431005</v>
+      </c>
+      <c r="G94" s="16">
+        <v>79.172819495607996</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="16">
+        <v>100.413747003504</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="16">
+        <v>100.841596924303</v>
+      </c>
+      <c r="L94" s="20"/>
+    </row>
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="13">
+        <v>98.794999699501005</v>
+      </c>
+      <c r="E95" s="13">
+        <v>99.150938662095996</v>
+      </c>
+      <c r="F95" s="13">
+        <v>99.775409784431005</v>
+      </c>
+      <c r="G95" s="13">
+        <v>72.042283790854</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="13">
+        <v>100.245482205421</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="13">
         <v>99.852310289049996</v>
       </c>
-    </row>
-    <row r="94" spans="2:12">
-      <c r="B94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="2:12">
       <c r="B96" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K97" s="21"/>
+      <c r="K99" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B355-BFC8-4E84-90D6-BE51C8CD2F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A44DA-18C3-46F4-BA3D-ED120A83B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K95" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K96" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N99"/>
+  <dimension ref="B2:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -978,2901 +978,2921 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="11" customFormat="1">
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>140.78</v>
+      </c>
+      <c r="E6" s="13">
+        <v>129.46173076299999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>108.675279031</v>
+      </c>
+      <c r="G6" s="13">
+        <v>158.9272505989</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="13">
+        <v>126.599</v>
+      </c>
+      <c r="J6" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="13">
+        <v>89.149000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="11" customFormat="1">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="16">
         <v>140.405</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>129.11535608610001</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>108.6306185137</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>145.93419866639999</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17">
-        <v>126.19352099549999</v>
-      </c>
-      <c r="J6" s="17">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K6" s="17">
-        <v>89.149123745099999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="11" customFormat="1">
-      <c r="B7" s="12">
+      <c r="I7" s="17">
+        <v>126.194</v>
+      </c>
+      <c r="J7" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K7" s="17">
+        <v>89.149000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="11" customFormat="1">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>140.012</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>128.91614059470001</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>108.5710168751</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>136.0948338069</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13">
-        <v>126.19352099549999</v>
-      </c>
-      <c r="J7" s="13">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K7" s="13">
-        <v>89.206272632799994</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" s="11" customFormat="1">
-      <c r="B8" s="15">
+      <c r="I8" s="13">
+        <v>126.194</v>
+      </c>
+      <c r="J8" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K8" s="13">
+        <v>89.206000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="11" customFormat="1">
+      <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>139.62</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>128.83622417449999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>108.0586069655</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>147.25273636840001</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="17">
-        <v>125.5078969639</v>
-      </c>
-      <c r="J8" s="17">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K8" s="17">
-        <v>89.206203918300005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="11" customFormat="1">
-      <c r="B9" s="12">
+      <c r="I9" s="17">
+        <v>125.508</v>
+      </c>
+      <c r="J9" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K9" s="17">
+        <v>89.206000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="11" customFormat="1">
+      <c r="B10" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>139.161</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>128.25508866460001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>107.9288396963</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>143.42699001579999</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="13">
-        <v>125.6737319193</v>
-      </c>
-      <c r="J9" s="13">
-        <v>100.60044724230001</v>
-      </c>
-      <c r="K9" s="13">
-        <v>89.144866820999994</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="11" customFormat="1">
-      <c r="B10" s="15">
+      <c r="I10" s="13">
+        <v>125.67400000000001</v>
+      </c>
+      <c r="J10" s="13">
+        <v>100.6</v>
+      </c>
+      <c r="K10" s="13">
+        <v>89.144999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="11" customFormat="1">
+      <c r="B11" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <v>138.726</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>127.80877476489999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>107.8617555228</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>129.33059490740001</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>125.697</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>100.6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>89.084000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="11" customFormat="1">
-      <c r="B11" s="18">
+    <row r="12" spans="2:14" s="11" customFormat="1">
+      <c r="B12" s="18">
         <v>2025</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <v>138.34299999999999</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <v>127.3148055269</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <v>107.8096364189</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="19">
         <v>126.31288726149999</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>125.209</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>100.6</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="19">
         <v>89.081999999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="11" customFormat="1">
-      <c r="B12" s="15">
+    <row r="13" spans="2:14" s="11" customFormat="1">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>137.94900000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>126.988350193</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>107.7500347802</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>205.85461125200001</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>124.09699999999999</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>100.6</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="11" customFormat="1">
-      <c r="B13" s="12">
+    <row r="14" spans="2:14" s="11" customFormat="1">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>137.42400000000001</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>126.1506342819</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>107.69043314149999</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>163.0304427657</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>123.661</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>100.6</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="11" customFormat="1">
-      <c r="B14" s="15">
+    <row r="15" spans="2:14" s="11" customFormat="1">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>136.828</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>125.8430792046</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>107.63083150289999</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>150.05764800759999</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>100.6</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="12">
+    <row r="16" spans="2:14">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>136.08000000000001</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>125.9243949896</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>107.5637453439</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>140.67318630739999</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>123.35899999999999</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>100.6</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="15">
+    <row r="17" spans="2:11">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <v>136.01300000000001</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>125.35642665260001</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>107.5116282255</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>138.501613185</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>123.438</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <v>100.6</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12">
+    <row r="18" spans="2:11">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>100.6</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="15">
+    <row r="19" spans="2:11">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <v>134.59399999999999</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>123.454094798</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>106.0396352632</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>147.441</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>136.3792212685</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>123.023</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>100.6</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="12">
+    <row r="20" spans="2:11">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>122.36</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>100.6</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="15">
+    <row r="21" spans="2:11">
+      <c r="B21" s="15">
         <v>2024</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <v>134.33600000000001</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>123.0447919639</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>105.8761867728</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>137.01147154309999</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>135.70240732440001</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>120.79900000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>100.6</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="12">
+    <row r="22" spans="2:11">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>134.065</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>100.6</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="15">
+    <row r="23" spans="2:11">
+      <c r="B23" s="15">
         <v>2024</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <v>119.937</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>100.6</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="18">
+    <row r="24" spans="2:11">
+      <c r="B24" s="18">
         <v>2024</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G24" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <v>100.6</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K24" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="22">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K25" s="23">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>119.861</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <v>130.60900000000001</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>120.4862973733</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>105.38584130149999</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>145.65313447969999</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="16">
         <v>130.1120315803</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="16">
         <v>118.376</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="16">
         <v>100.6</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>130.12</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>118.788</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>100.6</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <v>129.54499999999999</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>120.39914263439999</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>105.22239281109999</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>127.9599808845</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <v>129.0779724994</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <v>118.574</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="16">
         <v>100.6</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>118.285</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>100.6</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K30" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <v>128.214</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>119.82760529700001</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>105.05894432069999</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>125.4398687573</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <v>129.16292087080001</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>117.982</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <v>100.6</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>128.084</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>117.361</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="13">
         <v>100.6</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K32" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="15">
         <v>2023</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <v>128.363</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>119.66934975220001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>104.71978870300001</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>111.8321814474</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <v>129.31726497450001</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>117.387</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <v>100.6</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>100.6</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="15">
         <v>2023</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J35" s="16">
         <v>100.6</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="18">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="19">
         <v>127.336</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>117.6482068262</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>105.4811752151</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="19">
         <v>127.5767484142</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="19">
         <v>115.95099999999999</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="19">
         <v>100.6</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K36" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="15">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <v>126.47799999999999</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>116.82049176770001</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>139.65915062159999</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <v>124.6968379873</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>115.741</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>100.6</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>125.997</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>115.336</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>100.6</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>90.87</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <v>125.276</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>115.94924330409999</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>119.8275041996</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>124.65542954270001</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="16">
         <v>114.956</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J39" s="16">
         <v>100.6</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>124.571</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>100.6</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>123.803</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>115.41491664279999</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>116.4447289605</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H41" s="16">
         <v>125.9840309911</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I41" s="16">
         <v>115.134</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J41" s="16">
         <v>100.59</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K41" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>114.389</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="13">
         <v>100.59</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K42" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <v>122.044</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>113.8040964162</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>130.85123030770001</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <v>125.1867510614</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>113.178</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="16">
         <v>100.59</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>113.289</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J44" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="15">
         <v>2022</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <v>120.809</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>112.48503934839999</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>129.87573640970001</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <v>124.0503181081</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>113.02800000000001</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>113.009</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="15">
         <v>2022</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I47" s="16">
         <v>112.843</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J47" s="16">
         <v>100.559</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="18">
+    <row r="48" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="18">
         <v>2022</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="19">
         <v>118.002</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="19">
         <v>111.4420556762</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>101.66052718260001</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>87.919810779000002</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>120.6612786609</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>112.705</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="19">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="15">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <v>117.30800000000001</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>110.93061004979999</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>144.0852936078</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <v>117.87569352689999</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>112.803</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J49" s="16">
         <v>100.551</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>116.884</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>100.54</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <v>115.56100000000001</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>109.85587154930001</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>107.4801111049</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="16">
         <v>117.2036471113</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I51" s="16">
         <v>112.779</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J51" s="16">
         <v>100.54</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>114.601</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>111.345</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>100.523</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <v>113.899</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>109.6876007529</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>103.9626342001</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H53" s="16">
         <v>116.7589504195</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I53" s="16">
         <v>111.09399999999999</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J53" s="16">
         <v>100.521</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K53" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>113.682</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>100.512</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K54" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <v>113.018</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>109.3611515443</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>127.6488519838</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="16">
         <v>115.5054112312</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="16">
         <v>110.64700000000001</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="16">
         <v>100.503</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>112.419</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>110.613</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J56" s="13">
         <v>100.504</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K56" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="15">
         <v>2021</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <v>112.19</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>109.1238791816</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>101.2984364707</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>92.423514952199994</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <v>114.6136060937</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>110.613</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J57" s="16">
         <v>100.47</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>111.824</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>110.506</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>100.4</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="15">
         <v>2021</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <v>110.907</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H59" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I59" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J59" s="16">
         <v>100.36</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="18">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="18">
         <v>2021</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="19">
         <v>110.21</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="19">
         <v>108.91289704650001</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="19">
         <v>69.379568991200003</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <v>112.46996162710001</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="19">
         <v>110.208</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="19">
         <v>100.355</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="19">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="15">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <v>109.271</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>108.6477332931</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>88.425353764299999</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="16">
         <v>110.0805693728</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I61" s="16">
         <v>110.01600000000001</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J61" s="16">
         <v>100.30500000000001</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <v>108.774</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>108.5602695565</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="16">
         <v>92.871387775499997</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="16">
         <v>108.9954622659</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I63" s="16">
         <v>109.27500000000001</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J63" s="16">
         <v>100.31</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>108.114</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>107.221</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>100.31</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <v>107.867</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>108.2641243905</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>84.0993629062</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>108.6866229954</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I65" s="16">
         <v>104.646</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J65" s="16">
         <v>100.32599999999999</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>107.444</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>103.541</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>100.34</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K66" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <v>106.74299999999999</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>108.1151913336</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>84.228004732399995</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="16">
         <v>108.5274450755</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="16">
         <v>103.54300000000001</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="16">
         <v>100.34</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>103.61</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>100.34</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K68" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="15">
         <v>2020</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <v>105.755</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>107.4875171243</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>76.507181751999994</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <v>109.6777595691</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>103.61</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="16">
         <v>100.34</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>103.661</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>100.34</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="15">
         <v>2020</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <v>106.889</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H71" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I71" s="16">
         <v>103.661</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J71" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="18">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="18">
         <v>2020</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="19">
         <v>106.447</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="19">
         <v>107.11553304500001</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="19">
         <v>86.778005823699999</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="19">
         <v>106.9248328514</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="19">
         <v>103.367</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="19">
         <v>100.339</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="19">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="15">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <v>105.934</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>106.0505331862</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>127.36462816709999</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="16">
         <v>104.9942430431</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I73" s="16">
         <v>102.95099999999999</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J73" s="16">
         <v>100.331</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>105.346</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>100.324</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <v>104.503</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>105.1002407181</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="16">
         <v>88.301013724200004</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="16">
         <v>104.50205451870001</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J75" s="16">
         <v>100.29600000000001</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>102.654</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>100.29</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <v>103.67</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>104.5187172775</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>92.899994051799993</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H77" s="16">
         <v>104.285820413</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I77" s="16">
         <v>102.604</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J77" s="16">
         <v>100.274</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K77" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>103.687</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>100.196</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K78" s="13">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <v>103.29900000000001</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>103.4436474945</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>107.6048597489</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="16">
         <v>104.7408219759</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="16">
         <v>101.68300000000001</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J79" s="16">
         <v>100.119</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>103.233</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>101.509</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="13">
         <v>100.119</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K80" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="15">
         <v>2019</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <v>103.53100000000001</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>103.10258831190001</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>96.879318888</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="16">
         <v>104.9491652918</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="16">
         <v>101.459</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J81" s="16">
         <v>100.119</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>103.476</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>100</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>101.166</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>100.098</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="15">
         <v>2019</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>100</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H83" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I83" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J83" s="16">
         <v>100.081</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="18">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="18">
         <v>2019</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D84" s="19">
         <v>103.108</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="19">
         <v>102.47200356979999</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>100</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="19">
         <v>78.7293169334</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="19">
         <v>102.4734794414</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="19">
         <v>100.42</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="19">
         <v>100.036</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="19">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <v>103.02</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>101.4882812159</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>100</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>116.2152458092</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H85" s="16">
         <v>101.1447321365</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J85" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>102.303</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>100</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="15">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <v>101.44</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>100.78655579709999</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>100</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="16">
         <v>85.369691303899998</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H87" s="16">
         <v>100.05389573230001</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I87" s="16">
         <v>100.52500000000001</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J87" s="16">
         <v>100.021</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>100.917</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>100</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>100.126</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>100</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>99.77</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="15">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <v>100.492</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>100.22727446899999</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>100</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G89" s="16">
         <v>79.518260205800004</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H89" s="16">
         <v>99.844190958599995</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I89" s="16">
         <v>100.05200000000001</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J89" s="16">
         <v>100</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K89" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>100</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="15">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="16">
         <v>99.376464931786998</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E91" s="16">
         <v>99.990951002754002</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F91" s="16">
         <v>100</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G91" s="16">
         <v>99.195118819963994</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I91" s="16">
         <v>100.145214825742</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="J91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K91" s="16">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>100</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H92" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>99.721095334685998</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J92" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K92" s="13">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B92" s="15">
+    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="15">
         <v>2018</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D93" s="16">
         <v>99.154847046097004</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E93" s="16">
         <v>99.833850058503003</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F93" s="16">
         <v>100</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G93" s="16">
         <v>74.377335587917997</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I93" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="J93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K93" s="16">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="12">
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="12">
         <v>2018</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D94" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E94" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F94" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H94" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I94" s="13">
         <v>100.50825189009799</v>
       </c>
-      <c r="J93" s="14" t="s">
+      <c r="J94" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K94" s="13">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="15">
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="15">
         <v>2018</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D95" s="16">
         <v>99.171374481640001</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E95" s="16">
         <v>99.404629920302</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F95" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G95" s="16">
         <v>79.172819495607996</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H95" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I95" s="16">
         <v>100.413747003504</v>
       </c>
-      <c r="J94" s="17" t="s">
+      <c r="J95" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K95" s="16">
         <v>100.841596924303</v>
       </c>
-      <c r="L94" s="20"/>
-    </row>
-    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B95" s="12">
+      <c r="L95" s="20"/>
+    </row>
+    <row r="96" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B96" s="12">
         <v>2018</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D96" s="13">
         <v>98.794999699501005</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E96" s="13">
         <v>99.150938662095996</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F96" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G96" s="13">
         <v>72.042283790854</v>
       </c>
-      <c r="H95" s="14" t="s">
+      <c r="H96" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I96" s="13">
         <v>100.245482205421</v>
       </c>
-      <c r="J95" s="14" t="s">
+      <c r="J96" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K96" s="13">
         <v>99.852310289049996</v>
       </c>
-    </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="K96" s="21"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="20"/>
@@ -3880,18 +3900,30 @@
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
+      <c r="K97" s="21"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K98" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K99" s="21"/>
+      <c r="K100" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INPC.xlsx
+++ b/INPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A44DA-18C3-46F4-BA3D-ED120A83B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DB57E-42A4-4BD0-8C88-647B3A465540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
   <si>
     <t>Nacional</t>
   </si>
@@ -128,7 +128,7 @@
     <t>(Índice base  2da. quincena de julio 2018 = 100)</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K96" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}" name="Tabla1" displayName="Tabla1" ref="B5:K97" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K97" xr:uid="{A9B13CD0-63D0-4AA1-8E5B-C2F701456D1D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N100"/>
+  <dimension ref="B2:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -978,2933 +978,2953 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="11" customFormat="1">
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16">
+        <v>140.86699999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>129.47050151170001</v>
+      </c>
+      <c r="F6" s="17">
+        <v>108.73486091949999</v>
+      </c>
+      <c r="G6" s="17">
+        <v>143.4209898149</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="17">
+        <v>127.997</v>
+      </c>
+      <c r="J6" s="17">
+        <v>100.6</v>
+      </c>
+      <c r="K6" s="17">
+        <v>89.149000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="11" customFormat="1">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>140.78</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>129.46173076299999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>108.675279031</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>158.9272505989</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>126.599</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>100.6</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="13">
         <v>89.149000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="11" customFormat="1">
-      <c r="B7" s="15">
+    <row r="8" spans="2:14" s="11" customFormat="1">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <v>140.405</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>129.11535608610001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>108.6306185137</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>145.93419866639999</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>126.194</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>100.6</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="17">
         <v>89.149000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="11" customFormat="1">
-      <c r="B8" s="12">
+    <row r="9" spans="2:14" s="11" customFormat="1">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>140.012</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>128.91614059470001</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>108.5710168751</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>136.0948338069</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>126.194</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <v>100.6</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="13">
         <v>89.206000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="11" customFormat="1">
-      <c r="B9" s="15">
+    <row r="10" spans="2:14" s="11" customFormat="1">
+      <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="16">
         <v>139.62</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>128.83622417449999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>108.0586069655</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>147.25273636840001</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <v>125.508</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="17">
         <v>100.6</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K10" s="17">
         <v>89.206000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="11" customFormat="1">
-      <c r="B10" s="12">
+    <row r="11" spans="2:14" s="11" customFormat="1">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>139.161</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>128.25508866460001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>107.9288396963</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>143.42699001579999</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>125.67400000000001</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>100.6</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="13">
         <v>89.144999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="11" customFormat="1">
-      <c r="B11" s="15">
+    <row r="12" spans="2:14" s="11" customFormat="1">
+      <c r="B12" s="15">
         <v>2025</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <v>138.726</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>127.80877476489999</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>107.8617555228</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>129.33059490740001</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>125.697</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>100.6</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K12" s="17">
         <v>89.084000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="11" customFormat="1">
-      <c r="B12" s="18">
+    <row r="13" spans="2:14" s="11" customFormat="1">
+      <c r="B13" s="18">
         <v>2025</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>138.34299999999999</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>127.3148055269</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>107.8096364189</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G13" s="19">
         <v>126.31288726149999</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>125.209</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>100.6</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K13" s="19">
         <v>89.081999999999994</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="11" customFormat="1">
-      <c r="B13" s="15">
+    <row r="14" spans="2:14" s="11" customFormat="1">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <v>137.94900000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>126.988350193</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>107.7500347802</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>205.85461125200001</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>124.09699999999999</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>100.6</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K14" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="11" customFormat="1">
-      <c r="B14" s="12">
+    <row r="15" spans="2:14" s="11" customFormat="1">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>137.42400000000001</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>126.1506342819</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>107.69043314149999</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>163.0304427657</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>123.661</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>100.6</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="11" customFormat="1">
-      <c r="B15" s="15">
+    <row r="16" spans="2:14" s="11" customFormat="1">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <v>136.828</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>125.8430792046</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>107.63083150289999</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>150.05764800759999</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>123.35899999999999</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>100.6</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K16" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="12">
+    <row r="17" spans="2:11">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>136.08000000000001</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>125.9243949896</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>107.5637453439</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>140.67318630739999</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>123.35899999999999</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>100.6</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="15">
+    <row r="18" spans="2:11">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <v>136.01300000000001</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>125.35642665260001</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>107.5116282255</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>138.501613185</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <v>123.438</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J18" s="17">
         <v>100.6</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K18" s="17">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="12">
+    <row r="19" spans="2:11">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>136.00299999999999</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>124.5592826787</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>107.4370558178</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>162.48163763549999</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>136.92312158670001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>123.36199999999999</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="13">
         <v>100.6</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="15">
+    <row r="20" spans="2:11">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <v>134.59399999999999</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>123.454094798</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>106.0396352632</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>147.441</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>136.3792212685</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="16">
         <v>123.023</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>100.6</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="12">
+    <row r="21" spans="2:11">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>134.08699999999999</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>122.97212671689999</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>105.9659254435</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>143.96444227999999</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>136.17550477169999</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>122.36</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>100.6</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="15">
+    <row r="22" spans="2:11">
+      <c r="B22" s="15">
         <v>2024</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <v>134.33600000000001</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="16">
         <v>123.0447919639</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <v>105.8761867728</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="16">
         <v>137.01147154309999</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="16">
         <v>135.70240732440001</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="16">
         <v>120.79900000000001</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="16">
         <v>100.6</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="12">
+    <row r="23" spans="2:11">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>134.065</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>122.89707405510001</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>105.7944625276</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>174.2144001913</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>134.95018121690001</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>120.56100000000001</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>100.6</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="15">
+    <row r="24" spans="2:11">
+      <c r="B24" s="15">
         <v>2024</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <v>133.68100000000001</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="16">
         <v>122.47679316519999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>105.7127382824</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="16">
         <v>135.7291557476</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="16">
         <v>134.2923932084</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="16">
         <v>119.937</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="16">
         <v>100.6</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="16">
         <v>89.114000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="18">
+    <row r="25" spans="2:11">
+      <c r="B25" s="18">
         <v>2024</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D25" s="19">
         <v>133.55500000000001</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>122.1009325088</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F25" s="19">
         <v>105.6310140372</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G25" s="19">
         <v>133.54719721539999</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>132.71302725059999</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>119.91500000000001</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J25" s="19">
         <v>100.6</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K25" s="19">
         <v>89.093999999999994</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="22">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <v>132.37299999999999</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="16">
         <v>121.6574303613</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="16">
         <v>105.549289792</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="16">
         <v>182.3815293733</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="16">
         <v>129.82782886429999</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="16">
         <v>119.91500000000001</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="16">
         <v>99.236999999999995</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K26" s="23">
         <v>88.957999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>131.44499999999999</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>120.8160445282</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>105.4675655467</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>157.47167143870001</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>130.18555967200001</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>119.861</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>99.236999999999995</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>88.673000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="15">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <v>130.60900000000001</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="16">
         <v>120.4862973733</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>105.38584130149999</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="16">
         <v>145.65313447969999</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="16">
         <v>130.1120315803</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="16">
         <v>118.376</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="16">
         <v>100.6</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="16">
         <v>89.010999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>130.12</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>120.4973605119</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>105.3041170563</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>128.47314640139999</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>129.75090098219999</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>118.788</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>100.6</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>89.073999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="15">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>129.54499999999999</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>120.39914263439999</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>105.22239281109999</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>127.9599808845</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="16">
         <v>129.0779724994</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <v>118.574</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="16">
         <v>100.6</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="16">
         <v>89.128</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>128.83199999999999</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>120.08299225419999</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>105.1406685659</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>146.74874433080001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>129.31384858050001</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>118.285</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="13">
         <v>100.6</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K31" s="13">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <v>128.214</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>119.82760529700001</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>105.05894432069999</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>125.4398687573</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <v>129.16292087080001</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>117.982</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>100.6</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <v>89.182000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>128.084</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>119.8233656324</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>104.89549583020001</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>117.17254640749999</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>128.9614286716</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>117.361</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>100.6</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="15">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="15">
         <v>2023</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <v>128.363</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="16">
         <v>119.66934975220001</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>104.71978870300001</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="16">
         <v>111.8321814474</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="16">
         <v>129.31726497450001</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="16">
         <v>117.387</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="16">
         <v>100.6</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>128.38900000000001</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>118.9558148927</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>104.4868746042</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>132.87275808659999</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>129.457527414</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>117.16200000000001</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>100.6</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="13">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="15">
         <v>2023</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <v>128.04599999999999</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>118.1916406628</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>104.4868746042</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="16">
         <v>105.46410968399999</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="16">
         <v>129.12205609009999</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="16">
         <v>116.64100000000001</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="16">
         <v>100.6</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K36" s="16">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D37" s="19">
         <v>127.336</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>117.6482068262</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F37" s="19">
         <v>103.6972441545</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>105.4811752151</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>127.5767484142</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>115.95099999999999</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J37" s="19">
         <v>100.6</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K37" s="19">
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="15">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <v>126.47799999999999</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <v>116.82049176770001</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="16">
         <v>103.6972441545</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>139.65915062159999</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="16">
         <v>124.6968379873</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="16">
         <v>115.741</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="16">
         <v>100.6</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="16">
         <v>90.87</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>125.997</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>116.0450620779</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>103.6972441545</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>132.31738618719999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>124.54272655050001</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>115.336</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>100.6</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="13">
         <v>90.87</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="15">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <v>125.276</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="16">
         <v>115.94924330409999</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="16">
         <v>119.8275041996</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="16">
         <v>124.65542954270001</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="16">
         <v>114.956</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="16">
         <v>100.6</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K40" s="16">
         <v>90.855999999999995</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>124.571</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>115.74943222349999</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>117.1841235999</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>124.1308784126</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>115.31699999999999</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>100.6</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="13">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="15">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>123.803</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>115.41491664279999</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="16">
         <v>116.4447289605</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="16">
         <v>125.9840309911</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="16">
         <v>115.134</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <v>100.59</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K42" s="16">
         <v>98.724999999999994</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>122.94799999999999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>114.87544210910001</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>103.2886229284</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>137.69700215349999</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>125.36702750089999</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>114.389</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <v>100.59</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K43" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <v>122.044</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>113.8040964162</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>103.2886229284</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>130.85123030770001</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="16">
         <v>125.1867510614</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="16">
         <v>113.178</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="16">
         <v>100.59</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>121.02200000000001</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>112.7183662006</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>126.41473992429999</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>124.83942508449999</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>113.289</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="13">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="15">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="15">
         <v>2022</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <v>120.809</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="16">
         <v>112.48503934839999</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="16">
         <v>129.87573640970001</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H46" s="16">
         <v>124.0503181081</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I46" s="16">
         <v>113.02800000000001</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J46" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K46" s="16">
         <v>98.709000000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>120.15900000000001</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>111.97977889560001</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>102.4713804763</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>124.7535276317</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>122.8708474534</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>113.009</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="13">
         <v>98.631</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="15">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="15">
         <v>2022</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <v>118.98099999999999</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>111.8467792818</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>102.4713804763</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>88.048379522399998</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="16">
         <v>121.76441215040001</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="16">
         <v>112.843</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="16">
         <v>100.559</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="16">
         <v>98.631</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B49" s="18">
         <v>2022</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D49" s="19">
         <v>118.002</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E49" s="19">
         <v>111.4420556762</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>101.66052718260001</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G49" s="19">
         <v>87.919810779000002</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H49" s="19">
         <v>120.6612786609</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I49" s="19">
         <v>112.705</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J49" s="19">
         <v>100.56100000000001</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K49" s="19">
         <v>98.602999999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="15">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <v>117.30800000000001</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="16">
         <v>110.93061004979999</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="16">
         <v>144.0852936078</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H50" s="16">
         <v>117.87569352689999</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I50" s="16">
         <v>112.803</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J50" s="16">
         <v>100.551</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K50" s="16">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>116.884</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>110.2167299347</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>117.87173141300001</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>117.71918006520001</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>112.76300000000001</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>100.54</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="13">
         <v>98.575000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="15">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <v>115.56100000000001</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="16">
         <v>109.85587154930001</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="16">
         <v>107.4801111049</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="16">
         <v>117.2036471113</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="16">
         <v>112.779</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="16">
         <v>100.54</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K52" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>114.601</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>109.7934030607</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>97.468339390300002</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>116.90260252749999</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>111.345</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>100.523</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="15">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>113.899</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>109.6876007529</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>103.9626342001</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <v>116.7589504195</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <v>111.09399999999999</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="16">
         <v>100.521</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>113.682</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>109.5082396111</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>127.1166300499</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>116.0583573286</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>110.85299999999999</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="13">
         <v>100.512</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K55" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <v>113.018</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>109.3611515443</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>101.6316896603</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>127.6488519838</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="16">
         <v>115.5054112312</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="16">
         <v>110.64700000000001</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="16">
         <v>100.503</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>112.419</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>109.1398981391</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>101.6316896603</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>110.9052383991</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>115.24268739839999</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>110.613</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>100.504</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="15">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="15">
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <v>112.19</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="16">
         <v>109.1238791816</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="16">
         <v>101.2984364707</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="16">
         <v>92.423514952199994</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="16">
         <v>114.6136060937</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="16">
         <v>110.613</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J58" s="16">
         <v>100.47</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K58" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>111.824</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>108.98594320479999</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>101.0405414316</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>88.697327708700001</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>114.5144639519</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>110.506</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>100.4</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="15">
         <v>2021</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <v>110.907</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>108.80131973269999</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>101.0405414316</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="16">
         <v>72.629830018600003</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="16">
         <v>113.823854883</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="16">
         <v>110.19499999999999</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="16">
         <v>100.36</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K60" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="18">
         <v>2021</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D61" s="19">
         <v>110.21</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E61" s="19">
         <v>108.91289704650001</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F61" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G61" s="19">
         <v>69.379568991200003</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H61" s="19">
         <v>112.46996162710001</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I61" s="19">
         <v>110.208</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J61" s="19">
         <v>100.355</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K61" s="19">
         <v>98.557000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="15">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <v>109.271</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="16">
         <v>108.6477332931</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="16">
         <v>88.425353764299999</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H62" s="16">
         <v>110.0805693728</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I62" s="16">
         <v>110.01600000000001</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J62" s="16">
         <v>100.30500000000001</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K62" s="16">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>108.85599999999999</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>108.5064270149</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>87.498687502999999</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>109.622766778</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>109.91800000000001</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>100.30800000000001</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="13">
         <v>98.524000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="15">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <v>108.774</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <v>108.5602695565</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="16">
         <v>92.871387775499997</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="16">
         <v>108.9954622659</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="16">
         <v>109.27500000000001</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="16">
         <v>100.31</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>108.114</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>108.5110595398</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>84.546898124199998</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>108.8201840744</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>107.221</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>100.31</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="15">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <v>107.867</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>108.2641243905</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="16">
         <v>84.0993629062</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="16">
         <v>108.6866229954</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="16">
         <v>104.646</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J66" s="16">
         <v>100.32599999999999</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K66" s="16">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>107.444</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>108.2290316098</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>83.373654861600002</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>108.8298342292</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>103.541</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="13">
         <v>100.34</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K67" s="13">
         <v>98.415999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <v>106.74299999999999</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>108.1151913336</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>84.228004732399995</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="16">
         <v>108.5274450755</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="16">
         <v>103.54300000000001</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="16">
         <v>100.34</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K68" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>106.16200000000001</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>108.1896853977</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>82.231994422100001</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>109.31474425979999</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>103.61</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>100.34</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="13">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="15">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="15">
         <v>2020</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <v>105.755</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="16">
         <v>107.4875171243</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="16">
         <v>76.507181751999994</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H70" s="16">
         <v>109.6777595691</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I70" s="16">
         <v>103.61</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J70" s="16">
         <v>100.34</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K70" s="16">
         <v>98.588999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>106.83799999999999</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>107.5306793508</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>80.8593909067</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>108.703723247</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>103.661</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>100.34</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="13">
         <v>98.570999999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="15">
         <v>2020</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <v>106.889</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>107.2442089382</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <v>82.836861846299996</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="16">
         <v>107.4631074917</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="16">
         <v>103.661</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J72" s="16">
         <v>100.34099999999999</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K72" s="16">
         <v>98.552999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="18">
         <v>2020</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D73" s="19">
         <v>106.447</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E73" s="19">
         <v>107.11553304500001</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F73" s="19">
         <v>101.0405414315</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G73" s="19">
         <v>86.778005823699999</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H73" s="19">
         <v>106.9248328514</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I73" s="19">
         <v>103.367</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J73" s="19">
         <v>100.339</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K73" s="19">
         <v>98.554000000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="15">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <v>105.934</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="16">
         <v>106.0505331862</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="16">
         <v>127.36462816709999</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H74" s="16">
         <v>104.9942430431</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I74" s="16">
         <v>102.95099999999999</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J74" s="16">
         <v>100.331</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K74" s="16">
         <v>98.78</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>105.346</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>105.65671461060001</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>101.0973028073</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>104.4576847797</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>102.90300000000001</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>100.324</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="13">
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="15">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <v>104.503</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="16">
         <v>105.1002407181</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="16">
         <v>88.301013724200004</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="16">
         <v>104.50205451870001</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="16">
         <v>102.90300000000001</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="16">
         <v>100.29600000000001</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="16">
         <v>98.975999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>103.94199999999999</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>104.6074519548</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>101.0405414315</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>88.107262410499999</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>104.3079456359</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>102.654</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>100.29</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="13">
         <v>98.978999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="15">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <v>103.67</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>104.5187172775</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>101.0405414315</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="16">
         <v>92.899994051799993</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H78" s="16">
         <v>104.285820413</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I78" s="16">
         <v>102.604</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>100.274</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K78" s="16">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>103.687</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>103.9281222685</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>100.6849220455</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>115.8409110419</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>104.2691868668</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>102.57599999999999</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>100.196</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K79" s="13">
         <v>98.986000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <v>103.29900000000001</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>103.4436474945</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>107.6048597489</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="16">
         <v>104.7408219759</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="16">
         <v>101.68300000000001</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J80" s="16">
         <v>100.119</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="16">
         <v>98.905000000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>103.233</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>103.33167816460001</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>100.6191914481</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>86.898257620999999</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>105.3054014635</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>101.509</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>100.119</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="13">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="15">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="15">
         <v>2019</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <v>103.53100000000001</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="16">
         <v>103.10258831190001</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="16">
         <v>100.6191914481</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="16">
         <v>96.879318888</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H82" s="16">
         <v>104.9491652918</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="16">
         <v>101.459</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J82" s="16">
         <v>100.119</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K82" s="16">
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>103.476</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>102.69294294469999</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>100</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>81.499577131300001</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>104.44624704749999</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>101.166</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>100.098</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="13">
         <v>99.167000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="15">
         <v>2019</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <v>103.07899999999999</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>102.5321554705</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>100</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="16">
         <v>76.553159667299994</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="16">
         <v>103.8610611723</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="16">
         <v>100.72499999999999</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="16">
         <v>100.081</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K84" s="16">
         <v>99.165999999999997</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="18">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="18">
         <v>2019</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C85" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D85" s="19">
         <v>103.108</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>102.47200356979999</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>100</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G85" s="19">
         <v>78.7293169334</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H85" s="19">
         <v>102.4734794414</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I85" s="19">
         <v>100.42</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J85" s="19">
         <v>100.036</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>99.197999999999993</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="15">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <v>103.02</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="16">
         <v>101.4882812159</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="16">
         <v>100</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="16">
         <v>116.2152458092</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H86" s="16">
         <v>101.1447321365</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I86" s="16">
         <v>100.56100000000001</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J86" s="16">
         <v>100.03400000000001</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K86" s="16">
         <v>99.195999999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <v>102.303</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>100.90290467379999</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>100</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>87.221876645500004</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>101.16638118420001</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>100.56100000000001</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>100.03400000000001</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="13">
         <v>99.412000000000006</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="15">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <v>101.44</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="16">
         <v>100.78655579709999</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="16">
         <v>100</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="16">
         <v>85.369691303899998</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H88" s="16">
         <v>100.05389573230001</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I88" s="16">
         <v>100.52500000000001</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J88" s="16">
         <v>100.021</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K88" s="16">
         <v>99.567999999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <v>100.917</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>100.4677127848</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>100</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>75.626050242900007</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>100.0190239563</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>100.126</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>100</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="13">
         <v>99.77</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="15">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <v>100.492</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="16">
         <v>100.22727446899999</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="16">
         <v>100</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G90" s="16">
         <v>79.518260205800004</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H90" s="16">
         <v>99.844190958599995</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I90" s="16">
         <v>100.05200000000001</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J90" s="16">
         <v>100</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K90" s="16">
         <v>99.83</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <v>99.909099104513999</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>99.998359331854999</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>100</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>101.704654973457</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H91" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>100.084132399041</v>
       </c>
-      <c r="J90" s="14" t="s">
+      <c r="J91" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="15">
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="15">
         <v>2018</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D92" s="16">
         <v>99.376464931786998</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E92" s="16">
         <v>99.990951002754002</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F92" s="16">
         <v>100</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G92" s="16">
         <v>99.195118819963994</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="H92" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I92" s="16">
         <v>100.145214825742</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="J92" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K92" s="16">
         <v>99.796047542021</v>
       </c>
     </row>
-    <row r="92" spans="2:12" hidden="1">
-      <c r="B92" s="12">
+    <row r="93" spans="2:12" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D93" s="13">
         <v>98.994080173086999</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E93" s="13">
         <v>99.984814220586003</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>100</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>90.757329060767006</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H93" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>99.721095334685998</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="J93" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K93" s="13">
         <v>100.290690859648</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="15">
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="15">
         <v>2018</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D94" s="16">
         <v>99.154847046097004</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E94" s="16">
         <v>99.833850058503003</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F94" s="16">
         <v>100</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G94" s="16">
         <v>74.377335587917997</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H94" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I94" s="16">
         <v>100.50825189009799</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J94" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K94" s="16">
         <v>100.307100827531</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="12">
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="12">
         <v>2018</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D95" s="13">
         <v>99.492156980588007</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E95" s="13">
         <v>99.599241644515999</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F95" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G95" s="13">
         <v>86.603489152118996</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H95" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I95" s="13">
         <v>100.50825189009799</v>
       </c>
-      <c r="J94" s="14" t="s">
+      <c r="J95" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K95" s="13">
         <v>100.738448554751</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B95" s="15">
+    <row r="96" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B96" s="15">
         <v>2018</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D96" s="16">
         <v>99.171374481640001</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E96" s="16">
         <v>99.404629920302</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F96" s="16">
         <v>99.775409784431005</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G96" s="16">
         <v>79.172819495607996</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H96" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I96" s="16">
         <v>100.413747003504</v>
       </c>
-      <c r="J95" s="17" t="s">
+      <c r="J96" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K96" s="16">
         <v>100.841596924303</v>
       </c>
-      <c r="L95" s="20"/>
-    </row>
-    <row r="96" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B96" s="12">
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B97" s="12">
         <v>2018</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D97" s="13">
         <v>98.794999699501005</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E97" s="13">
         <v>99.150938662095996</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F97" s="13">
         <v>99.775409784431005</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G97" s="13">
         <v>72.042283790854</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H97" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I97" s="13">
         <v>100.245482205421</v>
       </c>
-      <c r="J96" s="14" t="s">
+      <c r="J97" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K97" s="13">
         <v>99.852310289049996</v>
       </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="K97" s="21"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="20"/>
@@ -3912,18 +3932,30 @@
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
+      <c r="K98" s="21"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K99" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K100" s="21"/>
+      <c r="K101" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
